--- a/BackTest/2019-10-27 BackTest CON.xlsx
+++ b/BackTest/2019-10-27 BackTest CON.xlsx
@@ -451,17 +451,13 @@
         <v>5.349999999999997</v>
       </c>
       <c r="H2" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
-      <c r="J2" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K2" t="n">
-        <v>5.35</v>
-      </c>
+      <c r="J2" t="inlineStr"/>
+      <c r="K2" t="inlineStr"/>
       <c r="L2" t="inlineStr"/>
       <c r="M2" t="n">
         <v>1</v>
@@ -490,22 +486,14 @@
         <v>5.349999999999997</v>
       </c>
       <c r="H3" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
-      <c r="J3" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K3" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J3" t="inlineStr"/>
+      <c r="K3" t="inlineStr"/>
+      <c r="L3" t="inlineStr"/>
       <c r="M3" t="n">
         <v>1</v>
       </c>
@@ -533,22 +521,14 @@
         <v>5.349999999999997</v>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
-      <c r="J4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K4" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J4" t="inlineStr"/>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="n">
         <v>1</v>
       </c>
@@ -576,17 +556,13 @@
         <v>5.349999999999997</v>
       </c>
       <c r="H5" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
-      <c r="J5" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K5" t="n">
-        <v>5.35</v>
-      </c>
+      <c r="J5" t="inlineStr"/>
+      <c r="K5" t="inlineStr"/>
       <c r="L5" t="inlineStr"/>
       <c r="M5" t="n">
         <v>1</v>
@@ -615,22 +591,14 @@
         <v>5.349999999999997</v>
       </c>
       <c r="H6" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
-      <c r="J6" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K6" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J6" t="inlineStr"/>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="n">
         <v>1</v>
       </c>
@@ -658,22 +626,14 @@
         <v>5.349999999999997</v>
       </c>
       <c r="H7" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
-      <c r="J7" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K7" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J7" t="inlineStr"/>
+      <c r="K7" t="inlineStr"/>
+      <c r="L7" t="inlineStr"/>
       <c r="M7" t="n">
         <v>1</v>
       </c>
@@ -701,17 +661,13 @@
         <v>5.349999999999997</v>
       </c>
       <c r="H8" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
-      <c r="J8" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K8" t="n">
-        <v>5.35</v>
-      </c>
+      <c r="J8" t="inlineStr"/>
+      <c r="K8" t="inlineStr"/>
       <c r="L8" t="inlineStr"/>
       <c r="M8" t="n">
         <v>1</v>
@@ -740,22 +696,14 @@
         <v>5.349999999999997</v>
       </c>
       <c r="H9" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
-      <c r="J9" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K9" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J9" t="inlineStr"/>
+      <c r="K9" t="inlineStr"/>
+      <c r="L9" t="inlineStr"/>
       <c r="M9" t="n">
         <v>1</v>
       </c>
@@ -783,22 +731,14 @@
         <v>5.349999999999997</v>
       </c>
       <c r="H10" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
-      <c r="J10" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K10" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J10" t="inlineStr"/>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="n">
         <v>1</v>
       </c>
@@ -826,17 +766,13 @@
         <v>5.349999999999997</v>
       </c>
       <c r="H11" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
-      <c r="J11" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K11" t="n">
-        <v>5.35</v>
-      </c>
+      <c r="J11" t="inlineStr"/>
+      <c r="K11" t="inlineStr"/>
       <c r="L11" t="inlineStr"/>
       <c r="M11" t="n">
         <v>1</v>
@@ -865,22 +801,14 @@
         <v>5.349999999999997</v>
       </c>
       <c r="H12" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
-      <c r="J12" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K12" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J12" t="inlineStr"/>
+      <c r="K12" t="inlineStr"/>
+      <c r="L12" t="inlineStr"/>
       <c r="M12" t="n">
         <v>1</v>
       </c>
@@ -908,22 +836,14 @@
         <v>5.349999999999997</v>
       </c>
       <c r="H13" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
-      <c r="J13" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K13" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L13" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J13" t="inlineStr"/>
+      <c r="K13" t="inlineStr"/>
+      <c r="L13" t="inlineStr"/>
       <c r="M13" t="n">
         <v>1</v>
       </c>
@@ -951,17 +871,13 @@
         <v>5.349999999999997</v>
       </c>
       <c r="H14" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
-      <c r="J14" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K14" t="n">
-        <v>5.35</v>
-      </c>
+      <c r="J14" t="inlineStr"/>
+      <c r="K14" t="inlineStr"/>
       <c r="L14" t="inlineStr"/>
       <c r="M14" t="n">
         <v>1</v>
@@ -990,22 +906,14 @@
         <v>5.349999999999997</v>
       </c>
       <c r="H15" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
-      <c r="J15" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K15" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L15" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J15" t="inlineStr"/>
+      <c r="K15" t="inlineStr"/>
+      <c r="L15" t="inlineStr"/>
       <c r="M15" t="n">
         <v>1</v>
       </c>
@@ -1033,22 +941,14 @@
         <v>5.349999999999997</v>
       </c>
       <c r="H16" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
-      <c r="J16" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K16" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L16" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J16" t="inlineStr"/>
+      <c r="K16" t="inlineStr"/>
+      <c r="L16" t="inlineStr"/>
       <c r="M16" t="n">
         <v>1</v>
       </c>
@@ -1076,22 +976,14 @@
         <v>5.343333333333329</v>
       </c>
       <c r="H17" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
-      <c r="J17" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="K17" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>매수 체결</t>
-        </is>
-      </c>
+      <c r="J17" t="inlineStr"/>
+      <c r="K17" t="inlineStr"/>
+      <c r="L17" t="inlineStr"/>
       <c r="M17" t="n">
         <v>1</v>
       </c>
@@ -1119,22 +1011,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
-      <c r="J18" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K18" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L18" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J18" t="inlineStr"/>
+      <c r="K18" t="inlineStr"/>
+      <c r="L18" t="inlineStr"/>
       <c r="M18" t="n">
         <v>1</v>
       </c>
@@ -1162,22 +1046,14 @@
         <v>5.336666666666663</v>
       </c>
       <c r="H19" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
       </c>
-      <c r="J19" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K19" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L19" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="inlineStr"/>
       <c r="M19" t="n">
         <v>1</v>
       </c>
@@ -1205,22 +1081,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H20" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
       </c>
-      <c r="J20" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K20" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L20" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J20" t="inlineStr"/>
+      <c r="K20" t="inlineStr"/>
+      <c r="L20" t="inlineStr"/>
       <c r="M20" t="n">
         <v>1</v>
       </c>
@@ -1248,22 +1116,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I21" t="n">
         <v>0</v>
       </c>
-      <c r="J21" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K21" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L21" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J21" t="inlineStr"/>
+      <c r="K21" t="inlineStr"/>
+      <c r="L21" t="inlineStr"/>
       <c r="M21" t="n">
         <v>1</v>
       </c>
@@ -1291,22 +1151,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H22" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
       </c>
-      <c r="J22" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K22" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L22" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J22" t="inlineStr"/>
+      <c r="K22" t="inlineStr"/>
+      <c r="L22" t="inlineStr"/>
       <c r="M22" t="n">
         <v>1</v>
       </c>
@@ -1334,22 +1186,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H23" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
       </c>
-      <c r="J23" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K23" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L23" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J23" t="inlineStr"/>
+      <c r="K23" t="inlineStr"/>
+      <c r="L23" t="inlineStr"/>
       <c r="M23" t="n">
         <v>1</v>
       </c>
@@ -1377,22 +1221,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H24" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I24" t="n">
         <v>0</v>
       </c>
-      <c r="J24" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K24" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L24" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J24" t="inlineStr"/>
+      <c r="K24" t="inlineStr"/>
+      <c r="L24" t="inlineStr"/>
       <c r="M24" t="n">
         <v>1</v>
       </c>
@@ -1420,22 +1256,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H25" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
         <v>0</v>
       </c>
-      <c r="J25" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K25" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L25" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J25" t="inlineStr"/>
+      <c r="K25" t="inlineStr"/>
+      <c r="L25" t="inlineStr"/>
       <c r="M25" t="n">
         <v>1</v>
       </c>
@@ -1463,22 +1291,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H26" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
       </c>
-      <c r="J26" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K26" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L26" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J26" t="inlineStr"/>
+      <c r="K26" t="inlineStr"/>
+      <c r="L26" t="inlineStr"/>
       <c r="M26" t="n">
         <v>1</v>
       </c>
@@ -1506,22 +1326,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H27" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I27" t="n">
         <v>0</v>
       </c>
-      <c r="J27" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K27" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L27" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J27" t="inlineStr"/>
+      <c r="K27" t="inlineStr"/>
+      <c r="L27" t="inlineStr"/>
       <c r="M27" t="n">
         <v>1</v>
       </c>
@@ -1549,22 +1361,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H28" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
       </c>
-      <c r="J28" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K28" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L28" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J28" t="inlineStr"/>
+      <c r="K28" t="inlineStr"/>
+      <c r="L28" t="inlineStr"/>
       <c r="M28" t="n">
         <v>1</v>
       </c>
@@ -1592,22 +1396,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H29" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
       </c>
-      <c r="J29" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K29" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L29" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J29" t="inlineStr"/>
+      <c r="K29" t="inlineStr"/>
+      <c r="L29" t="inlineStr"/>
       <c r="M29" t="n">
         <v>1</v>
       </c>
@@ -1635,22 +1431,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H30" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I30" t="n">
         <v>0</v>
       </c>
-      <c r="J30" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K30" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L30" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J30" t="inlineStr"/>
+      <c r="K30" t="inlineStr"/>
+      <c r="L30" t="inlineStr"/>
       <c r="M30" t="n">
         <v>1</v>
       </c>
@@ -1678,22 +1466,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H31" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
       </c>
-      <c r="J31" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K31" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L31" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J31" t="inlineStr"/>
+      <c r="K31" t="inlineStr"/>
+      <c r="L31" t="inlineStr"/>
       <c r="M31" t="n">
         <v>1</v>
       </c>
@@ -1721,22 +1501,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H32" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I32" t="n">
         <v>0</v>
       </c>
-      <c r="J32" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K32" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L32" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J32" t="inlineStr"/>
+      <c r="K32" t="inlineStr"/>
+      <c r="L32" t="inlineStr"/>
       <c r="M32" t="n">
         <v>1</v>
       </c>
@@ -1764,22 +1536,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H33" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I33" t="n">
         <v>0</v>
       </c>
-      <c r="J33" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K33" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L33" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J33" t="inlineStr"/>
+      <c r="K33" t="inlineStr"/>
+      <c r="L33" t="inlineStr"/>
       <c r="M33" t="n">
         <v>1</v>
       </c>
@@ -1807,22 +1571,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H34" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
       </c>
-      <c r="J34" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K34" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L34" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J34" t="inlineStr"/>
+      <c r="K34" t="inlineStr"/>
+      <c r="L34" t="inlineStr"/>
       <c r="M34" t="n">
         <v>1</v>
       </c>
@@ -1850,22 +1606,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H35" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
       </c>
-      <c r="J35" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K35" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L35" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J35" t="inlineStr"/>
+      <c r="K35" t="inlineStr"/>
+      <c r="L35" t="inlineStr"/>
       <c r="M35" t="n">
         <v>1</v>
       </c>
@@ -1893,22 +1641,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H36" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
-      <c r="J36" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K36" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L36" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J36" t="inlineStr"/>
+      <c r="K36" t="inlineStr"/>
+      <c r="L36" t="inlineStr"/>
       <c r="M36" t="n">
         <v>1</v>
       </c>
@@ -1936,22 +1676,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H37" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
-      <c r="J37" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K37" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L37" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J37" t="inlineStr"/>
+      <c r="K37" t="inlineStr"/>
+      <c r="L37" t="inlineStr"/>
       <c r="M37" t="n">
         <v>1</v>
       </c>
@@ -1979,22 +1711,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H38" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
-      <c r="J38" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K38" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L38" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J38" t="inlineStr"/>
+      <c r="K38" t="inlineStr"/>
+      <c r="L38" t="inlineStr"/>
       <c r="M38" t="n">
         <v>1</v>
       </c>
@@ -2022,22 +1746,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H39" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I39" t="n">
         <v>0</v>
       </c>
-      <c r="J39" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K39" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L39" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J39" t="inlineStr"/>
+      <c r="K39" t="inlineStr"/>
+      <c r="L39" t="inlineStr"/>
       <c r="M39" t="n">
         <v>1</v>
       </c>
@@ -2065,22 +1781,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H40" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
         <v>0</v>
       </c>
-      <c r="J40" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K40" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L40" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J40" t="inlineStr"/>
+      <c r="K40" t="inlineStr"/>
+      <c r="L40" t="inlineStr"/>
       <c r="M40" t="n">
         <v>1</v>
       </c>
@@ -2108,22 +1816,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H41" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
-      <c r="J41" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K41" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L41" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J41" t="inlineStr"/>
+      <c r="K41" t="inlineStr"/>
+      <c r="L41" t="inlineStr"/>
       <c r="M41" t="n">
         <v>1</v>
       </c>
@@ -2151,22 +1851,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H42" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I42" t="n">
         <v>0</v>
       </c>
-      <c r="J42" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K42" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L42" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J42" t="inlineStr"/>
+      <c r="K42" t="inlineStr"/>
+      <c r="L42" t="inlineStr"/>
       <c r="M42" t="n">
         <v>1</v>
       </c>
@@ -2194,22 +1886,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H43" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
       </c>
-      <c r="J43" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K43" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L43" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J43" t="inlineStr"/>
+      <c r="K43" t="inlineStr"/>
+      <c r="L43" t="inlineStr"/>
       <c r="M43" t="n">
         <v>1</v>
       </c>
@@ -2237,22 +1921,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H44" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
       </c>
-      <c r="J44" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K44" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L44" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J44" t="inlineStr"/>
+      <c r="K44" t="inlineStr"/>
+      <c r="L44" t="inlineStr"/>
       <c r="M44" t="n">
         <v>1</v>
       </c>
@@ -2280,22 +1956,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H45" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I45" t="n">
         <v>0</v>
       </c>
-      <c r="J45" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K45" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L45" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J45" t="inlineStr"/>
+      <c r="K45" t="inlineStr"/>
+      <c r="L45" t="inlineStr"/>
       <c r="M45" t="n">
         <v>1</v>
       </c>
@@ -2323,22 +1991,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H46" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
       </c>
-      <c r="J46" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K46" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L46" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J46" t="inlineStr"/>
+      <c r="K46" t="inlineStr"/>
+      <c r="L46" t="inlineStr"/>
       <c r="M46" t="n">
         <v>1</v>
       </c>
@@ -2366,22 +2026,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H47" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
-      <c r="J47" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K47" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L47" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J47" t="inlineStr"/>
+      <c r="K47" t="inlineStr"/>
+      <c r="L47" t="inlineStr"/>
       <c r="M47" t="n">
         <v>1</v>
       </c>
@@ -2409,22 +2061,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H48" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
-      <c r="J48" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K48" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L48" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J48" t="inlineStr"/>
+      <c r="K48" t="inlineStr"/>
+      <c r="L48" t="inlineStr"/>
       <c r="M48" t="n">
         <v>1</v>
       </c>
@@ -2452,22 +2096,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H49" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
-      <c r="J49" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K49" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L49" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J49" t="inlineStr"/>
+      <c r="K49" t="inlineStr"/>
+      <c r="L49" t="inlineStr"/>
       <c r="M49" t="n">
         <v>1</v>
       </c>
@@ -2495,22 +2131,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H50" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
-      <c r="J50" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K50" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L50" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J50" t="inlineStr"/>
+      <c r="K50" t="inlineStr"/>
+      <c r="L50" t="inlineStr"/>
       <c r="M50" t="n">
         <v>1</v>
       </c>
@@ -2538,22 +2166,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H51" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
-      <c r="J51" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K51" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L51" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J51" t="inlineStr"/>
+      <c r="K51" t="inlineStr"/>
+      <c r="L51" t="inlineStr"/>
       <c r="M51" t="n">
         <v>1</v>
       </c>
@@ -2581,22 +2201,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H52" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
-      <c r="J52" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K52" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L52" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J52" t="inlineStr"/>
+      <c r="K52" t="inlineStr"/>
+      <c r="L52" t="inlineStr"/>
       <c r="M52" t="n">
         <v>1</v>
       </c>
@@ -2624,22 +2236,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H53" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I53" t="n">
         <v>0</v>
       </c>
-      <c r="J53" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K53" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L53" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J53" t="inlineStr"/>
+      <c r="K53" t="inlineStr"/>
+      <c r="L53" t="inlineStr"/>
       <c r="M53" t="n">
         <v>1</v>
       </c>
@@ -2667,22 +2271,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H54" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I54" t="n">
         <v>0</v>
       </c>
-      <c r="J54" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K54" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L54" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J54" t="inlineStr"/>
+      <c r="K54" t="inlineStr"/>
+      <c r="L54" t="inlineStr"/>
       <c r="M54" t="n">
         <v>1</v>
       </c>
@@ -2710,22 +2306,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H55" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
-      <c r="J55" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K55" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L55" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J55" t="inlineStr"/>
+      <c r="K55" t="inlineStr"/>
+      <c r="L55" t="inlineStr"/>
       <c r="M55" t="n">
         <v>1</v>
       </c>
@@ -2753,22 +2341,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
-      <c r="J56" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K56" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L56" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J56" t="inlineStr"/>
+      <c r="K56" t="inlineStr"/>
+      <c r="L56" t="inlineStr"/>
       <c r="M56" t="n">
         <v>1</v>
       </c>
@@ -2796,22 +2376,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
-      <c r="J57" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K57" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L57" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J57" t="inlineStr"/>
+      <c r="K57" t="inlineStr"/>
+      <c r="L57" t="inlineStr"/>
       <c r="M57" t="n">
         <v>1</v>
       </c>
@@ -2839,22 +2411,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H58" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
-      <c r="J58" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K58" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L58" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J58" t="inlineStr"/>
+      <c r="K58" t="inlineStr"/>
+      <c r="L58" t="inlineStr"/>
       <c r="M58" t="n">
         <v>1</v>
       </c>
@@ -2882,22 +2446,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H59" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
-      <c r="J59" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K59" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L59" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J59" t="inlineStr"/>
+      <c r="K59" t="inlineStr"/>
+      <c r="L59" t="inlineStr"/>
       <c r="M59" t="n">
         <v>1</v>
       </c>
@@ -2925,22 +2481,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H60" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
-      <c r="J60" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K60" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L60" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J60" t="inlineStr"/>
+      <c r="K60" t="inlineStr"/>
+      <c r="L60" t="inlineStr"/>
       <c r="M60" t="n">
         <v>1</v>
       </c>
@@ -2968,22 +2516,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H61" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
-      <c r="J61" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K61" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L61" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J61" t="inlineStr"/>
+      <c r="K61" t="inlineStr"/>
+      <c r="L61" t="inlineStr"/>
       <c r="M61" t="n">
         <v>1</v>
       </c>
@@ -3011,22 +2551,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
-      <c r="J62" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K62" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L62" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J62" t="inlineStr"/>
+      <c r="K62" t="inlineStr"/>
+      <c r="L62" t="inlineStr"/>
       <c r="M62" t="n">
         <v>1</v>
       </c>
@@ -3054,22 +2586,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H63" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
-      <c r="J63" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K63" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L63" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J63" t="inlineStr"/>
+      <c r="K63" t="inlineStr"/>
+      <c r="L63" t="inlineStr"/>
       <c r="M63" t="n">
         <v>1</v>
       </c>
@@ -3097,22 +2621,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H64" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
-      <c r="J64" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K64" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L64" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J64" t="inlineStr"/>
+      <c r="K64" t="inlineStr"/>
+      <c r="L64" t="inlineStr"/>
       <c r="M64" t="n">
         <v>1</v>
       </c>
@@ -3140,22 +2656,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H65" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
-      <c r="J65" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K65" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L65" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J65" t="inlineStr"/>
+      <c r="K65" t="inlineStr"/>
+      <c r="L65" t="inlineStr"/>
       <c r="M65" t="n">
         <v>1</v>
       </c>
@@ -3183,22 +2691,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H66" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
-      <c r="J66" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K66" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L66" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J66" t="inlineStr"/>
+      <c r="K66" t="inlineStr"/>
+      <c r="L66" t="inlineStr"/>
       <c r="M66" t="n">
         <v>1</v>
       </c>
@@ -3226,22 +2726,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
-      <c r="J67" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K67" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L67" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J67" t="inlineStr"/>
+      <c r="K67" t="inlineStr"/>
+      <c r="L67" t="inlineStr"/>
       <c r="M67" t="n">
         <v>1</v>
       </c>
@@ -3269,22 +2761,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
-      <c r="J68" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K68" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L68" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J68" t="inlineStr"/>
+      <c r="K68" t="inlineStr"/>
+      <c r="L68" t="inlineStr"/>
       <c r="M68" t="n">
         <v>1</v>
       </c>
@@ -3312,22 +2796,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
-      <c r="J69" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K69" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L69" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J69" t="inlineStr"/>
+      <c r="K69" t="inlineStr"/>
+      <c r="L69" t="inlineStr"/>
       <c r="M69" t="n">
         <v>1</v>
       </c>
@@ -3355,22 +2831,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H70" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
-      <c r="J70" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K70" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L70" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J70" t="inlineStr"/>
+      <c r="K70" t="inlineStr"/>
+      <c r="L70" t="inlineStr"/>
       <c r="M70" t="n">
         <v>1</v>
       </c>
@@ -3398,22 +2866,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
-      <c r="J71" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K71" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L71" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J71" t="inlineStr"/>
+      <c r="K71" t="inlineStr"/>
+      <c r="L71" t="inlineStr"/>
       <c r="M71" t="n">
         <v>1</v>
       </c>
@@ -3441,22 +2901,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H72" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I72" t="n">
         <v>0</v>
       </c>
-      <c r="J72" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K72" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L72" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J72" t="inlineStr"/>
+      <c r="K72" t="inlineStr"/>
+      <c r="L72" t="inlineStr"/>
       <c r="M72" t="n">
         <v>1</v>
       </c>
@@ -3484,22 +2936,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H73" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I73" t="n">
         <v>0</v>
       </c>
-      <c r="J73" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K73" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L73" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J73" t="inlineStr"/>
+      <c r="K73" t="inlineStr"/>
+      <c r="L73" t="inlineStr"/>
       <c r="M73" t="n">
         <v>1</v>
       </c>
@@ -3527,22 +2971,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H74" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I74" t="n">
         <v>0</v>
       </c>
-      <c r="J74" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K74" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L74" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J74" t="inlineStr"/>
+      <c r="K74" t="inlineStr"/>
+      <c r="L74" t="inlineStr"/>
       <c r="M74" t="n">
         <v>1</v>
       </c>
@@ -3570,22 +3006,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H75" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I75" t="n">
         <v>0</v>
       </c>
-      <c r="J75" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K75" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L75" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J75" t="inlineStr"/>
+      <c r="K75" t="inlineStr"/>
+      <c r="L75" t="inlineStr"/>
       <c r="M75" t="n">
         <v>1</v>
       </c>
@@ -3613,22 +3041,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I76" t="n">
         <v>0</v>
       </c>
-      <c r="J76" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K76" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L76" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J76" t="inlineStr"/>
+      <c r="K76" t="inlineStr"/>
+      <c r="L76" t="inlineStr"/>
       <c r="M76" t="n">
         <v>1</v>
       </c>
@@ -3656,22 +3076,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I77" t="n">
         <v>0</v>
       </c>
-      <c r="J77" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K77" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L77" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J77" t="inlineStr"/>
+      <c r="K77" t="inlineStr"/>
+      <c r="L77" t="inlineStr"/>
       <c r="M77" t="n">
         <v>1</v>
       </c>
@@ -3699,22 +3111,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I78" t="n">
         <v>0</v>
       </c>
-      <c r="J78" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K78" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L78" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J78" t="inlineStr"/>
+      <c r="K78" t="inlineStr"/>
+      <c r="L78" t="inlineStr"/>
       <c r="M78" t="n">
         <v>1</v>
       </c>
@@ -3742,22 +3146,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I79" t="n">
         <v>0</v>
       </c>
-      <c r="J79" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K79" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L79" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J79" t="inlineStr"/>
+      <c r="K79" t="inlineStr"/>
+      <c r="L79" t="inlineStr"/>
       <c r="M79" t="n">
         <v>1</v>
       </c>
@@ -3785,22 +3181,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I80" t="n">
         <v>0</v>
       </c>
-      <c r="J80" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K80" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L80" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J80" t="inlineStr"/>
+      <c r="K80" t="inlineStr"/>
+      <c r="L80" t="inlineStr"/>
       <c r="M80" t="n">
         <v>1</v>
       </c>
@@ -3828,22 +3216,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I81" t="n">
         <v>0</v>
       </c>
-      <c r="J81" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K81" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L81" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J81" t="inlineStr"/>
+      <c r="K81" t="inlineStr"/>
+      <c r="L81" t="inlineStr"/>
       <c r="M81" t="n">
         <v>1</v>
       </c>
@@ -3871,22 +3251,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I82" t="n">
         <v>0</v>
       </c>
-      <c r="J82" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K82" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L82" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J82" t="inlineStr"/>
+      <c r="K82" t="inlineStr"/>
+      <c r="L82" t="inlineStr"/>
       <c r="M82" t="n">
         <v>1</v>
       </c>
@@ -3914,22 +3286,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I83" t="n">
         <v>0</v>
       </c>
-      <c r="J83" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K83" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L83" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J83" t="inlineStr"/>
+      <c r="K83" t="inlineStr"/>
+      <c r="L83" t="inlineStr"/>
       <c r="M83" t="n">
         <v>1</v>
       </c>
@@ -3957,22 +3321,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I84" t="n">
         <v>0</v>
       </c>
-      <c r="J84" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K84" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L84" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J84" t="inlineStr"/>
+      <c r="K84" t="inlineStr"/>
+      <c r="L84" t="inlineStr"/>
       <c r="M84" t="n">
         <v>1</v>
       </c>
@@ -4000,22 +3356,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I85" t="n">
         <v>0</v>
       </c>
-      <c r="J85" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K85" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L85" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J85" t="inlineStr"/>
+      <c r="K85" t="inlineStr"/>
+      <c r="L85" t="inlineStr"/>
       <c r="M85" t="n">
         <v>1</v>
       </c>
@@ -4043,22 +3391,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I86" t="n">
         <v>0</v>
       </c>
-      <c r="J86" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K86" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L86" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J86" t="inlineStr"/>
+      <c r="K86" t="inlineStr"/>
+      <c r="L86" t="inlineStr"/>
       <c r="M86" t="n">
         <v>1</v>
       </c>
@@ -4086,22 +3426,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I87" t="n">
         <v>0</v>
       </c>
-      <c r="J87" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K87" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L87" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J87" t="inlineStr"/>
+      <c r="K87" t="inlineStr"/>
+      <c r="L87" t="inlineStr"/>
       <c r="M87" t="n">
         <v>1</v>
       </c>
@@ -4129,22 +3461,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I88" t="n">
         <v>0</v>
       </c>
-      <c r="J88" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K88" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L88" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J88" t="inlineStr"/>
+      <c r="K88" t="inlineStr"/>
+      <c r="L88" t="inlineStr"/>
       <c r="M88" t="n">
         <v>1</v>
       </c>
@@ -4172,22 +3496,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I89" t="n">
         <v>0</v>
       </c>
-      <c r="J89" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K89" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L89" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J89" t="inlineStr"/>
+      <c r="K89" t="inlineStr"/>
+      <c r="L89" t="inlineStr"/>
       <c r="M89" t="n">
         <v>1</v>
       </c>
@@ -4215,22 +3531,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I90" t="n">
         <v>0</v>
       </c>
-      <c r="J90" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K90" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L90" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J90" t="inlineStr"/>
+      <c r="K90" t="inlineStr"/>
+      <c r="L90" t="inlineStr"/>
       <c r="M90" t="n">
         <v>1</v>
       </c>
@@ -4258,22 +3566,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I91" t="n">
         <v>0</v>
       </c>
-      <c r="J91" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K91" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L91" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J91" t="inlineStr"/>
+      <c r="K91" t="inlineStr"/>
+      <c r="L91" t="inlineStr"/>
       <c r="M91" t="n">
         <v>1</v>
       </c>
@@ -4301,22 +3601,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I92" t="n">
         <v>0</v>
       </c>
-      <c r="J92" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K92" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L92" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J92" t="inlineStr"/>
+      <c r="K92" t="inlineStr"/>
+      <c r="L92" t="inlineStr"/>
       <c r="M92" t="n">
         <v>1</v>
       </c>
@@ -4344,22 +3636,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I93" t="n">
         <v>0</v>
       </c>
-      <c r="J93" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K93" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L93" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J93" t="inlineStr"/>
+      <c r="K93" t="inlineStr"/>
+      <c r="L93" t="inlineStr"/>
       <c r="M93" t="n">
         <v>1</v>
       </c>
@@ -4387,22 +3671,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I94" t="n">
         <v>0</v>
       </c>
-      <c r="J94" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K94" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L94" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J94" t="inlineStr"/>
+      <c r="K94" t="inlineStr"/>
+      <c r="L94" t="inlineStr"/>
       <c r="M94" t="n">
         <v>1</v>
       </c>
@@ -4430,22 +3706,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I95" t="n">
         <v>0</v>
       </c>
-      <c r="J95" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K95" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L95" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J95" t="inlineStr"/>
+      <c r="K95" t="inlineStr"/>
+      <c r="L95" t="inlineStr"/>
       <c r="M95" t="n">
         <v>1</v>
       </c>
@@ -4473,22 +3741,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I96" t="n">
         <v>0</v>
       </c>
-      <c r="J96" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K96" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L96" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J96" t="inlineStr"/>
+      <c r="K96" t="inlineStr"/>
+      <c r="L96" t="inlineStr"/>
       <c r="M96" t="n">
         <v>1</v>
       </c>
@@ -4516,22 +3776,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I97" t="n">
         <v>0</v>
       </c>
-      <c r="J97" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K97" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L97" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J97" t="inlineStr"/>
+      <c r="K97" t="inlineStr"/>
+      <c r="L97" t="inlineStr"/>
       <c r="M97" t="n">
         <v>1</v>
       </c>
@@ -4559,22 +3811,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I98" t="n">
         <v>0</v>
       </c>
-      <c r="J98" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K98" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L98" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J98" t="inlineStr"/>
+      <c r="K98" t="inlineStr"/>
+      <c r="L98" t="inlineStr"/>
       <c r="M98" t="n">
         <v>1</v>
       </c>
@@ -4602,22 +3846,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I99" t="n">
         <v>0</v>
       </c>
-      <c r="J99" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K99" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L99" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J99" t="inlineStr"/>
+      <c r="K99" t="inlineStr"/>
+      <c r="L99" t="inlineStr"/>
       <c r="M99" t="n">
         <v>1</v>
       </c>
@@ -4645,22 +3881,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I100" t="n">
         <v>0</v>
       </c>
-      <c r="J100" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K100" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L100" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J100" t="inlineStr"/>
+      <c r="K100" t="inlineStr"/>
+      <c r="L100" t="inlineStr"/>
       <c r="M100" t="n">
         <v>1</v>
       </c>
@@ -4688,22 +3916,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I101" t="n">
         <v>0</v>
       </c>
-      <c r="J101" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K101" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L101" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J101" t="inlineStr"/>
+      <c r="K101" t="inlineStr"/>
+      <c r="L101" t="inlineStr"/>
       <c r="M101" t="n">
         <v>1</v>
       </c>
@@ -4731,22 +3951,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I102" t="n">
         <v>0</v>
       </c>
-      <c r="J102" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K102" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L102" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J102" t="inlineStr"/>
+      <c r="K102" t="inlineStr"/>
+      <c r="L102" t="inlineStr"/>
       <c r="M102" t="n">
         <v>1</v>
       </c>
@@ -4774,22 +3986,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I103" t="n">
         <v>0</v>
       </c>
-      <c r="J103" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K103" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L103" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J103" t="inlineStr"/>
+      <c r="K103" t="inlineStr"/>
+      <c r="L103" t="inlineStr"/>
       <c r="M103" t="n">
         <v>1</v>
       </c>
@@ -4817,22 +4021,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I104" t="n">
         <v>0</v>
       </c>
-      <c r="J104" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K104" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L104" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J104" t="inlineStr"/>
+      <c r="K104" t="inlineStr"/>
+      <c r="L104" t="inlineStr"/>
       <c r="M104" t="n">
         <v>1</v>
       </c>
@@ -4860,22 +4056,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I105" t="n">
         <v>0</v>
       </c>
-      <c r="J105" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K105" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L105" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J105" t="inlineStr"/>
+      <c r="K105" t="inlineStr"/>
+      <c r="L105" t="inlineStr"/>
       <c r="M105" t="n">
         <v>1</v>
       </c>
@@ -4903,22 +4091,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I106" t="n">
         <v>0</v>
       </c>
-      <c r="J106" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K106" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L106" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J106" t="inlineStr"/>
+      <c r="K106" t="inlineStr"/>
+      <c r="L106" t="inlineStr"/>
       <c r="M106" t="n">
         <v>1</v>
       </c>
@@ -4946,22 +4126,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I107" t="n">
         <v>0</v>
       </c>
-      <c r="J107" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K107" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L107" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J107" t="inlineStr"/>
+      <c r="K107" t="inlineStr"/>
+      <c r="L107" t="inlineStr"/>
       <c r="M107" t="n">
         <v>1</v>
       </c>
@@ -4989,22 +4161,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I108" t="n">
         <v>0</v>
       </c>
-      <c r="J108" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K108" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L108" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J108" t="inlineStr"/>
+      <c r="K108" t="inlineStr"/>
+      <c r="L108" t="inlineStr"/>
       <c r="M108" t="n">
         <v>1</v>
       </c>
@@ -5032,22 +4196,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I109" t="n">
         <v>0</v>
       </c>
-      <c r="J109" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K109" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L109" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J109" t="inlineStr"/>
+      <c r="K109" t="inlineStr"/>
+      <c r="L109" t="inlineStr"/>
       <c r="M109" t="n">
         <v>1</v>
       </c>
@@ -5075,22 +4231,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I110" t="n">
         <v>0</v>
       </c>
-      <c r="J110" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K110" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L110" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J110" t="inlineStr"/>
+      <c r="K110" t="inlineStr"/>
+      <c r="L110" t="inlineStr"/>
       <c r="M110" t="n">
         <v>1</v>
       </c>
@@ -5118,22 +4266,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I111" t="n">
         <v>0</v>
       </c>
-      <c r="J111" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K111" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L111" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J111" t="inlineStr"/>
+      <c r="K111" t="inlineStr"/>
+      <c r="L111" t="inlineStr"/>
       <c r="M111" t="n">
         <v>1</v>
       </c>
@@ -5161,22 +4301,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I112" t="n">
         <v>0</v>
       </c>
-      <c r="J112" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K112" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L112" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J112" t="inlineStr"/>
+      <c r="K112" t="inlineStr"/>
+      <c r="L112" t="inlineStr"/>
       <c r="M112" t="n">
         <v>1</v>
       </c>
@@ -5204,22 +4336,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I113" t="n">
         <v>0</v>
       </c>
-      <c r="J113" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K113" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L113" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J113" t="inlineStr"/>
+      <c r="K113" t="inlineStr"/>
+      <c r="L113" t="inlineStr"/>
       <c r="M113" t="n">
         <v>1</v>
       </c>
@@ -5247,22 +4371,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I114" t="n">
         <v>0</v>
       </c>
-      <c r="J114" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K114" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L114" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J114" t="inlineStr"/>
+      <c r="K114" t="inlineStr"/>
+      <c r="L114" t="inlineStr"/>
       <c r="M114" t="n">
         <v>1</v>
       </c>
@@ -5290,22 +4406,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I115" t="n">
         <v>0</v>
       </c>
-      <c r="J115" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K115" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L115" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J115" t="inlineStr"/>
+      <c r="K115" t="inlineStr"/>
+      <c r="L115" t="inlineStr"/>
       <c r="M115" t="n">
         <v>1</v>
       </c>
@@ -5333,22 +4441,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I116" t="n">
         <v>0</v>
       </c>
-      <c r="J116" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K116" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L116" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J116" t="inlineStr"/>
+      <c r="K116" t="inlineStr"/>
+      <c r="L116" t="inlineStr"/>
       <c r="M116" t="n">
         <v>1</v>
       </c>
@@ -5376,22 +4476,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I117" t="n">
         <v>0</v>
       </c>
-      <c r="J117" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K117" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L117" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J117" t="inlineStr"/>
+      <c r="K117" t="inlineStr"/>
+      <c r="L117" t="inlineStr"/>
       <c r="M117" t="n">
         <v>1</v>
       </c>
@@ -5419,22 +4511,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I118" t="n">
         <v>0</v>
       </c>
-      <c r="J118" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K118" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L118" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J118" t="inlineStr"/>
+      <c r="K118" t="inlineStr"/>
+      <c r="L118" t="inlineStr"/>
       <c r="M118" t="n">
         <v>1</v>
       </c>
@@ -5462,22 +4546,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I119" t="n">
         <v>0</v>
       </c>
-      <c r="J119" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K119" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L119" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J119" t="inlineStr"/>
+      <c r="K119" t="inlineStr"/>
+      <c r="L119" t="inlineStr"/>
       <c r="M119" t="n">
         <v>1</v>
       </c>
@@ -5505,22 +4581,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I120" t="n">
         <v>0</v>
       </c>
-      <c r="J120" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K120" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L120" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J120" t="inlineStr"/>
+      <c r="K120" t="inlineStr"/>
+      <c r="L120" t="inlineStr"/>
       <c r="M120" t="n">
         <v>1</v>
       </c>
@@ -5548,22 +4616,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I121" t="n">
         <v>0</v>
       </c>
-      <c r="J121" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K121" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L121" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J121" t="inlineStr"/>
+      <c r="K121" t="inlineStr"/>
+      <c r="L121" t="inlineStr"/>
       <c r="M121" t="n">
         <v>1</v>
       </c>
@@ -5591,22 +4651,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I122" t="n">
         <v>0</v>
       </c>
-      <c r="J122" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K122" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L122" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J122" t="inlineStr"/>
+      <c r="K122" t="inlineStr"/>
+      <c r="L122" t="inlineStr"/>
       <c r="M122" t="n">
         <v>1</v>
       </c>
@@ -5634,22 +4686,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I123" t="n">
         <v>0</v>
       </c>
-      <c r="J123" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K123" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L123" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J123" t="inlineStr"/>
+      <c r="K123" t="inlineStr"/>
+      <c r="L123" t="inlineStr"/>
       <c r="M123" t="n">
         <v>1</v>
       </c>
@@ -5677,22 +4721,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I124" t="n">
         <v>0</v>
       </c>
-      <c r="J124" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K124" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L124" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J124" t="inlineStr"/>
+      <c r="K124" t="inlineStr"/>
+      <c r="L124" t="inlineStr"/>
       <c r="M124" t="n">
         <v>1</v>
       </c>
@@ -5720,22 +4756,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I125" t="n">
         <v>0</v>
       </c>
-      <c r="J125" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K125" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L125" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J125" t="inlineStr"/>
+      <c r="K125" t="inlineStr"/>
+      <c r="L125" t="inlineStr"/>
       <c r="M125" t="n">
         <v>1</v>
       </c>
@@ -5763,22 +4791,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I126" t="n">
         <v>0</v>
       </c>
-      <c r="J126" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K126" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L126" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J126" t="inlineStr"/>
+      <c r="K126" t="inlineStr"/>
+      <c r="L126" t="inlineStr"/>
       <c r="M126" t="n">
         <v>1</v>
       </c>
@@ -5806,22 +4826,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I127" t="n">
         <v>0</v>
       </c>
-      <c r="J127" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K127" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L127" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J127" t="inlineStr"/>
+      <c r="K127" t="inlineStr"/>
+      <c r="L127" t="inlineStr"/>
       <c r="M127" t="n">
         <v>1</v>
       </c>
@@ -5849,22 +4861,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I128" t="n">
         <v>0</v>
       </c>
-      <c r="J128" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K128" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L128" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J128" t="inlineStr"/>
+      <c r="K128" t="inlineStr"/>
+      <c r="L128" t="inlineStr"/>
       <c r="M128" t="n">
         <v>1</v>
       </c>
@@ -5892,22 +4896,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I129" t="n">
         <v>0</v>
       </c>
-      <c r="J129" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K129" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L129" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J129" t="inlineStr"/>
+      <c r="K129" t="inlineStr"/>
+      <c r="L129" t="inlineStr"/>
       <c r="M129" t="n">
         <v>1</v>
       </c>
@@ -5935,22 +4931,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I130" t="n">
         <v>0</v>
       </c>
-      <c r="J130" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K130" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L130" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J130" t="inlineStr"/>
+      <c r="K130" t="inlineStr"/>
+      <c r="L130" t="inlineStr"/>
       <c r="M130" t="n">
         <v>1</v>
       </c>
@@ -5978,22 +4966,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I131" t="n">
         <v>0</v>
       </c>
-      <c r="J131" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K131" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L131" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J131" t="inlineStr"/>
+      <c r="K131" t="inlineStr"/>
+      <c r="L131" t="inlineStr"/>
       <c r="M131" t="n">
         <v>1</v>
       </c>
@@ -6021,22 +5001,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I132" t="n">
         <v>0</v>
       </c>
-      <c r="J132" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K132" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L132" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J132" t="inlineStr"/>
+      <c r="K132" t="inlineStr"/>
+      <c r="L132" t="inlineStr"/>
       <c r="M132" t="n">
         <v>1</v>
       </c>
@@ -6064,22 +5036,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I133" t="n">
         <v>0</v>
       </c>
-      <c r="J133" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K133" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L133" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J133" t="inlineStr"/>
+      <c r="K133" t="inlineStr"/>
+      <c r="L133" t="inlineStr"/>
       <c r="M133" t="n">
         <v>1</v>
       </c>
@@ -6107,22 +5071,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I134" t="n">
         <v>0</v>
       </c>
-      <c r="J134" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K134" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L134" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J134" t="inlineStr"/>
+      <c r="K134" t="inlineStr"/>
+      <c r="L134" t="inlineStr"/>
       <c r="M134" t="n">
         <v>1</v>
       </c>
@@ -6150,22 +5106,14 @@
         <v>5.336666666666662</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I135" t="n">
         <v>0</v>
       </c>
-      <c r="J135" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K135" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L135" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J135" t="inlineStr"/>
+      <c r="K135" t="inlineStr"/>
+      <c r="L135" t="inlineStr"/>
       <c r="M135" t="n">
         <v>1</v>
       </c>
@@ -6193,22 +5141,14 @@
         <v>5.336666666666662</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I136" t="n">
         <v>0</v>
       </c>
-      <c r="J136" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K136" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L136" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J136" t="inlineStr"/>
+      <c r="K136" t="inlineStr"/>
+      <c r="L136" t="inlineStr"/>
       <c r="M136" t="n">
         <v>1</v>
       </c>
@@ -6236,22 +5176,14 @@
         <v>5.336666666666662</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I137" t="n">
         <v>0</v>
       </c>
-      <c r="J137" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K137" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L137" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J137" t="inlineStr"/>
+      <c r="K137" t="inlineStr"/>
+      <c r="L137" t="inlineStr"/>
       <c r="M137" t="n">
         <v>1</v>
       </c>
@@ -6279,22 +5211,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I138" t="n">
         <v>0</v>
       </c>
-      <c r="J138" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K138" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L138" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J138" t="inlineStr"/>
+      <c r="K138" t="inlineStr"/>
+      <c r="L138" t="inlineStr"/>
       <c r="M138" t="n">
         <v>1</v>
       </c>
@@ -6322,22 +5246,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I139" t="n">
         <v>0</v>
       </c>
-      <c r="J139" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K139" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L139" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J139" t="inlineStr"/>
+      <c r="K139" t="inlineStr"/>
+      <c r="L139" t="inlineStr"/>
       <c r="M139" t="n">
         <v>1</v>
       </c>
@@ -6365,22 +5281,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I140" t="n">
         <v>0</v>
       </c>
-      <c r="J140" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K140" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L140" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J140" t="inlineStr"/>
+      <c r="K140" t="inlineStr"/>
+      <c r="L140" t="inlineStr"/>
       <c r="M140" t="n">
         <v>1</v>
       </c>
@@ -6408,22 +5316,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I141" t="n">
         <v>0</v>
       </c>
-      <c r="J141" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K141" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L141" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J141" t="inlineStr"/>
+      <c r="K141" t="inlineStr"/>
+      <c r="L141" t="inlineStr"/>
       <c r="M141" t="n">
         <v>1</v>
       </c>
@@ -6451,22 +5351,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I142" t="n">
         <v>0</v>
       </c>
-      <c r="J142" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K142" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L142" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J142" t="inlineStr"/>
+      <c r="K142" t="inlineStr"/>
+      <c r="L142" t="inlineStr"/>
       <c r="M142" t="n">
         <v>1</v>
       </c>
@@ -6494,22 +5386,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I143" t="n">
         <v>0</v>
       </c>
-      <c r="J143" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K143" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L143" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J143" t="inlineStr"/>
+      <c r="K143" t="inlineStr"/>
+      <c r="L143" t="inlineStr"/>
       <c r="M143" t="n">
         <v>1</v>
       </c>
@@ -6537,22 +5421,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I144" t="n">
         <v>0</v>
       </c>
-      <c r="J144" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K144" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L144" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J144" t="inlineStr"/>
+      <c r="K144" t="inlineStr"/>
+      <c r="L144" t="inlineStr"/>
       <c r="M144" t="n">
         <v>1</v>
       </c>
@@ -6580,22 +5456,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I145" t="n">
         <v>0</v>
       </c>
-      <c r="J145" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K145" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L145" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J145" t="inlineStr"/>
+      <c r="K145" t="inlineStr"/>
+      <c r="L145" t="inlineStr"/>
       <c r="M145" t="n">
         <v>1</v>
       </c>
@@ -6623,22 +5491,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I146" t="n">
         <v>0</v>
       </c>
-      <c r="J146" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K146" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L146" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J146" t="inlineStr"/>
+      <c r="K146" t="inlineStr"/>
+      <c r="L146" t="inlineStr"/>
       <c r="M146" t="n">
         <v>1</v>
       </c>
@@ -6666,22 +5526,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I147" t="n">
         <v>0</v>
       </c>
-      <c r="J147" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K147" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L147" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J147" t="inlineStr"/>
+      <c r="K147" t="inlineStr"/>
+      <c r="L147" t="inlineStr"/>
       <c r="M147" t="n">
         <v>1</v>
       </c>
@@ -6709,22 +5561,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I148" t="n">
         <v>0</v>
       </c>
-      <c r="J148" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K148" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L148" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J148" t="inlineStr"/>
+      <c r="K148" t="inlineStr"/>
+      <c r="L148" t="inlineStr"/>
       <c r="M148" t="n">
         <v>1</v>
       </c>
@@ -6752,22 +5596,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I149" t="n">
         <v>0</v>
       </c>
-      <c r="J149" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K149" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L149" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J149" t="inlineStr"/>
+      <c r="K149" t="inlineStr"/>
+      <c r="L149" t="inlineStr"/>
       <c r="M149" t="n">
         <v>1</v>
       </c>
@@ -6795,22 +5631,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I150" t="n">
         <v>0</v>
       </c>
-      <c r="J150" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K150" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L150" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J150" t="inlineStr"/>
+      <c r="K150" t="inlineStr"/>
+      <c r="L150" t="inlineStr"/>
       <c r="M150" t="n">
         <v>1</v>
       </c>
@@ -6838,22 +5666,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I151" t="n">
         <v>0</v>
       </c>
-      <c r="J151" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K151" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L151" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J151" t="inlineStr"/>
+      <c r="K151" t="inlineStr"/>
+      <c r="L151" t="inlineStr"/>
       <c r="M151" t="n">
         <v>1</v>
       </c>
@@ -6881,22 +5701,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I152" t="n">
         <v>0</v>
       </c>
-      <c r="J152" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K152" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L152" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J152" t="inlineStr"/>
+      <c r="K152" t="inlineStr"/>
+      <c r="L152" t="inlineStr"/>
       <c r="M152" t="n">
         <v>1</v>
       </c>
@@ -6924,22 +5736,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I153" t="n">
         <v>0</v>
       </c>
-      <c r="J153" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K153" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L153" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J153" t="inlineStr"/>
+      <c r="K153" t="inlineStr"/>
+      <c r="L153" t="inlineStr"/>
       <c r="M153" t="n">
         <v>1</v>
       </c>
@@ -6967,22 +5771,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I154" t="n">
         <v>0</v>
       </c>
-      <c r="J154" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K154" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L154" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J154" t="inlineStr"/>
+      <c r="K154" t="inlineStr"/>
+      <c r="L154" t="inlineStr"/>
       <c r="M154" t="n">
         <v>1</v>
       </c>
@@ -7010,22 +5806,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I155" t="n">
         <v>0</v>
       </c>
-      <c r="J155" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K155" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L155" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J155" t="inlineStr"/>
+      <c r="K155" t="inlineStr"/>
+      <c r="L155" t="inlineStr"/>
       <c r="M155" t="n">
         <v>1</v>
       </c>
@@ -7053,22 +5841,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I156" t="n">
         <v>0</v>
       </c>
-      <c r="J156" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K156" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L156" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J156" t="inlineStr"/>
+      <c r="K156" t="inlineStr"/>
+      <c r="L156" t="inlineStr"/>
       <c r="M156" t="n">
         <v>1</v>
       </c>
@@ -7096,22 +5876,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I157" t="n">
         <v>0</v>
       </c>
-      <c r="J157" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K157" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L157" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J157" t="inlineStr"/>
+      <c r="K157" t="inlineStr"/>
+      <c r="L157" t="inlineStr"/>
       <c r="M157" t="n">
         <v>1</v>
       </c>
@@ -7139,22 +5911,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I158" t="n">
         <v>0</v>
       </c>
-      <c r="J158" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K158" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L158" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J158" t="inlineStr"/>
+      <c r="K158" t="inlineStr"/>
+      <c r="L158" t="inlineStr"/>
       <c r="M158" t="n">
         <v>1</v>
       </c>
@@ -7182,22 +5946,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I159" t="n">
         <v>0</v>
       </c>
-      <c r="J159" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K159" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L159" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J159" t="inlineStr"/>
+      <c r="K159" t="inlineStr"/>
+      <c r="L159" t="inlineStr"/>
       <c r="M159" t="n">
         <v>1</v>
       </c>
@@ -7225,22 +5981,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I160" t="n">
         <v>0</v>
       </c>
-      <c r="J160" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K160" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L160" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J160" t="inlineStr"/>
+      <c r="K160" t="inlineStr"/>
+      <c r="L160" t="inlineStr"/>
       <c r="M160" t="n">
         <v>1</v>
       </c>
@@ -7268,22 +6016,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I161" t="n">
         <v>0</v>
       </c>
-      <c r="J161" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K161" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L161" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J161" t="inlineStr"/>
+      <c r="K161" t="inlineStr"/>
+      <c r="L161" t="inlineStr"/>
       <c r="M161" t="n">
         <v>1</v>
       </c>
@@ -7311,22 +6051,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I162" t="n">
         <v>0</v>
       </c>
-      <c r="J162" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K162" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L162" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J162" t="inlineStr"/>
+      <c r="K162" t="inlineStr"/>
+      <c r="L162" t="inlineStr"/>
       <c r="M162" t="n">
         <v>1</v>
       </c>
@@ -7354,22 +6086,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I163" t="n">
         <v>0</v>
       </c>
-      <c r="J163" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K163" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L163" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J163" t="inlineStr"/>
+      <c r="K163" t="inlineStr"/>
+      <c r="L163" t="inlineStr"/>
       <c r="M163" t="n">
         <v>1</v>
       </c>
@@ -7397,22 +6121,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I164" t="n">
         <v>0</v>
       </c>
-      <c r="J164" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K164" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L164" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J164" t="inlineStr"/>
+      <c r="K164" t="inlineStr"/>
+      <c r="L164" t="inlineStr"/>
       <c r="M164" t="n">
         <v>1</v>
       </c>
@@ -7440,22 +6156,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I165" t="n">
         <v>0</v>
       </c>
-      <c r="J165" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K165" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L165" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J165" t="inlineStr"/>
+      <c r="K165" t="inlineStr"/>
+      <c r="L165" t="inlineStr"/>
       <c r="M165" t="n">
         <v>1</v>
       </c>
@@ -7483,22 +6191,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I166" t="n">
         <v>0</v>
       </c>
-      <c r="J166" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K166" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L166" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J166" t="inlineStr"/>
+      <c r="K166" t="inlineStr"/>
+      <c r="L166" t="inlineStr"/>
       <c r="M166" t="n">
         <v>1</v>
       </c>
@@ -7526,22 +6226,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I167" t="n">
         <v>0</v>
       </c>
-      <c r="J167" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K167" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L167" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J167" t="inlineStr"/>
+      <c r="K167" t="inlineStr"/>
+      <c r="L167" t="inlineStr"/>
       <c r="M167" t="n">
         <v>1</v>
       </c>
@@ -7569,22 +6261,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I168" t="n">
         <v>0</v>
       </c>
-      <c r="J168" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K168" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L168" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J168" t="inlineStr"/>
+      <c r="K168" t="inlineStr"/>
+      <c r="L168" t="inlineStr"/>
       <c r="M168" t="n">
         <v>1</v>
       </c>
@@ -7612,22 +6296,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I169" t="n">
         <v>0</v>
       </c>
-      <c r="J169" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K169" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L169" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J169" t="inlineStr"/>
+      <c r="K169" t="inlineStr"/>
+      <c r="L169" t="inlineStr"/>
       <c r="M169" t="n">
         <v>1</v>
       </c>
@@ -7655,22 +6331,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I170" t="n">
         <v>0</v>
       </c>
-      <c r="J170" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K170" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L170" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J170" t="inlineStr"/>
+      <c r="K170" t="inlineStr"/>
+      <c r="L170" t="inlineStr"/>
       <c r="M170" t="n">
         <v>1</v>
       </c>
@@ -7698,22 +6366,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I171" t="n">
         <v>0</v>
       </c>
-      <c r="J171" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K171" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L171" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J171" t="inlineStr"/>
+      <c r="K171" t="inlineStr"/>
+      <c r="L171" t="inlineStr"/>
       <c r="M171" t="n">
         <v>1</v>
       </c>
@@ -7741,22 +6401,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I172" t="n">
         <v>0</v>
       </c>
-      <c r="J172" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K172" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L172" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J172" t="inlineStr"/>
+      <c r="K172" t="inlineStr"/>
+      <c r="L172" t="inlineStr"/>
       <c r="M172" t="n">
         <v>1</v>
       </c>
@@ -7784,22 +6436,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I173" t="n">
         <v>0</v>
       </c>
-      <c r="J173" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K173" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L173" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J173" t="inlineStr"/>
+      <c r="K173" t="inlineStr"/>
+      <c r="L173" t="inlineStr"/>
       <c r="M173" t="n">
         <v>1</v>
       </c>
@@ -7827,22 +6471,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I174" t="n">
         <v>0</v>
       </c>
-      <c r="J174" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K174" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L174" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J174" t="inlineStr"/>
+      <c r="K174" t="inlineStr"/>
+      <c r="L174" t="inlineStr"/>
       <c r="M174" t="n">
         <v>1</v>
       </c>
@@ -7870,22 +6506,14 @@
         <v>5.336666666666662</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I175" t="n">
         <v>0</v>
       </c>
-      <c r="J175" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K175" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L175" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J175" t="inlineStr"/>
+      <c r="K175" t="inlineStr"/>
+      <c r="L175" t="inlineStr"/>
       <c r="M175" t="n">
         <v>1</v>
       </c>
@@ -7913,22 +6541,14 @@
         <v>5.336666666666662</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I176" t="n">
         <v>0</v>
       </c>
-      <c r="J176" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K176" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L176" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J176" t="inlineStr"/>
+      <c r="K176" t="inlineStr"/>
+      <c r="L176" t="inlineStr"/>
       <c r="M176" t="n">
         <v>1</v>
       </c>
@@ -7956,22 +6576,14 @@
         <v>5.336666666666662</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I177" t="n">
         <v>0</v>
       </c>
-      <c r="J177" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K177" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L177" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J177" t="inlineStr"/>
+      <c r="K177" t="inlineStr"/>
+      <c r="L177" t="inlineStr"/>
       <c r="M177" t="n">
         <v>1</v>
       </c>
@@ -7999,22 +6611,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I178" t="n">
         <v>0</v>
       </c>
-      <c r="J178" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K178" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L178" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J178" t="inlineStr"/>
+      <c r="K178" t="inlineStr"/>
+      <c r="L178" t="inlineStr"/>
       <c r="M178" t="n">
         <v>1</v>
       </c>
@@ -8042,22 +6646,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I179" t="n">
         <v>0</v>
       </c>
-      <c r="J179" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K179" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L179" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J179" t="inlineStr"/>
+      <c r="K179" t="inlineStr"/>
+      <c r="L179" t="inlineStr"/>
       <c r="M179" t="n">
         <v>1</v>
       </c>
@@ -8085,22 +6681,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I180" t="n">
         <v>0</v>
       </c>
-      <c r="J180" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K180" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L180" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J180" t="inlineStr"/>
+      <c r="K180" t="inlineStr"/>
+      <c r="L180" t="inlineStr"/>
       <c r="M180" t="n">
         <v>1</v>
       </c>
@@ -8128,22 +6716,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I181" t="n">
         <v>0</v>
       </c>
-      <c r="J181" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K181" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L181" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J181" t="inlineStr"/>
+      <c r="K181" t="inlineStr"/>
+      <c r="L181" t="inlineStr"/>
       <c r="M181" t="n">
         <v>1</v>
       </c>
@@ -8171,22 +6751,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I182" t="n">
         <v>0</v>
       </c>
-      <c r="J182" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K182" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L182" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J182" t="inlineStr"/>
+      <c r="K182" t="inlineStr"/>
+      <c r="L182" t="inlineStr"/>
       <c r="M182" t="n">
         <v>1</v>
       </c>
@@ -8214,22 +6786,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I183" t="n">
         <v>0</v>
       </c>
-      <c r="J183" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K183" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L183" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J183" t="inlineStr"/>
+      <c r="K183" t="inlineStr"/>
+      <c r="L183" t="inlineStr"/>
       <c r="M183" t="n">
         <v>1</v>
       </c>
@@ -8257,22 +6821,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I184" t="n">
         <v>0</v>
       </c>
-      <c r="J184" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K184" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L184" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J184" t="inlineStr"/>
+      <c r="K184" t="inlineStr"/>
+      <c r="L184" t="inlineStr"/>
       <c r="M184" t="n">
         <v>1</v>
       </c>
@@ -8300,22 +6856,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I185" t="n">
         <v>0</v>
       </c>
-      <c r="J185" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K185" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L185" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J185" t="inlineStr"/>
+      <c r="K185" t="inlineStr"/>
+      <c r="L185" t="inlineStr"/>
       <c r="M185" t="n">
         <v>1</v>
       </c>
@@ -8343,22 +6891,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I186" t="n">
         <v>0</v>
       </c>
-      <c r="J186" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K186" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L186" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J186" t="inlineStr"/>
+      <c r="K186" t="inlineStr"/>
+      <c r="L186" t="inlineStr"/>
       <c r="M186" t="n">
         <v>1</v>
       </c>
@@ -8386,22 +6926,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I187" t="n">
         <v>0</v>
       </c>
-      <c r="J187" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K187" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L187" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J187" t="inlineStr"/>
+      <c r="K187" t="inlineStr"/>
+      <c r="L187" t="inlineStr"/>
       <c r="M187" t="n">
         <v>1</v>
       </c>
@@ -8429,22 +6961,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I188" t="n">
         <v>0</v>
       </c>
-      <c r="J188" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K188" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L188" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J188" t="inlineStr"/>
+      <c r="K188" t="inlineStr"/>
+      <c r="L188" t="inlineStr"/>
       <c r="M188" t="n">
         <v>1</v>
       </c>
@@ -8472,22 +6996,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I189" t="n">
         <v>0</v>
       </c>
-      <c r="J189" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K189" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L189" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="inlineStr"/>
       <c r="M189" t="n">
         <v>1</v>
       </c>
@@ -8515,22 +7031,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I190" t="n">
         <v>0</v>
       </c>
-      <c r="J190" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K190" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L190" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="inlineStr"/>
       <c r="M190" t="n">
         <v>1</v>
       </c>
@@ -8558,22 +7066,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I191" t="n">
         <v>0</v>
       </c>
-      <c r="J191" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K191" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L191" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="inlineStr"/>
       <c r="M191" t="n">
         <v>1</v>
       </c>
@@ -8601,22 +7101,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I192" t="n">
         <v>0</v>
       </c>
-      <c r="J192" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K192" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L192" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J192" t="inlineStr"/>
+      <c r="K192" t="inlineStr"/>
+      <c r="L192" t="inlineStr"/>
       <c r="M192" t="n">
         <v>1</v>
       </c>
@@ -8644,22 +7136,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I193" t="n">
         <v>0</v>
       </c>
-      <c r="J193" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K193" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L193" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J193" t="inlineStr"/>
+      <c r="K193" t="inlineStr"/>
+      <c r="L193" t="inlineStr"/>
       <c r="M193" t="n">
         <v>1</v>
       </c>
@@ -8687,22 +7171,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I194" t="n">
         <v>0</v>
       </c>
-      <c r="J194" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K194" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L194" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J194" t="inlineStr"/>
+      <c r="K194" t="inlineStr"/>
+      <c r="L194" t="inlineStr"/>
       <c r="M194" t="n">
         <v>1</v>
       </c>
@@ -8730,22 +7206,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I195" t="n">
         <v>0</v>
       </c>
-      <c r="J195" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K195" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L195" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J195" t="inlineStr"/>
+      <c r="K195" t="inlineStr"/>
+      <c r="L195" t="inlineStr"/>
       <c r="M195" t="n">
         <v>1</v>
       </c>
@@ -8773,22 +7241,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I196" t="n">
         <v>0</v>
       </c>
-      <c r="J196" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K196" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L196" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="inlineStr"/>
       <c r="M196" t="n">
         <v>1</v>
       </c>
@@ -8816,22 +7276,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I197" t="n">
         <v>0</v>
       </c>
-      <c r="J197" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K197" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L197" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="inlineStr"/>
       <c r="M197" t="n">
         <v>1</v>
       </c>
@@ -8859,22 +7311,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I198" t="n">
         <v>0</v>
       </c>
-      <c r="J198" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K198" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L198" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="inlineStr"/>
       <c r="M198" t="n">
         <v>1</v>
       </c>
@@ -8902,22 +7346,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I199" t="n">
         <v>0</v>
       </c>
-      <c r="J199" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K199" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L199" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="inlineStr"/>
       <c r="M199" t="n">
         <v>1</v>
       </c>
@@ -8945,22 +7381,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="n">
         <v>0</v>
       </c>
-      <c r="J200" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K200" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L200" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="inlineStr"/>
       <c r="M200" t="n">
         <v>1</v>
       </c>
@@ -8988,22 +7416,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I201" t="n">
         <v>0</v>
       </c>
-      <c r="J201" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K201" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L201" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="inlineStr"/>
       <c r="M201" t="n">
         <v>1</v>
       </c>
@@ -9031,22 +7451,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I202" t="n">
         <v>0</v>
       </c>
-      <c r="J202" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K202" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L202" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="inlineStr"/>
       <c r="M202" t="n">
         <v>1</v>
       </c>
@@ -9074,22 +7486,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I203" t="n">
         <v>0</v>
       </c>
-      <c r="J203" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K203" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L203" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="inlineStr"/>
       <c r="M203" t="n">
         <v>1</v>
       </c>
@@ -9117,22 +7521,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I204" t="n">
         <v>0</v>
       </c>
-      <c r="J204" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K204" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L204" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="inlineStr"/>
       <c r="M204" t="n">
         <v>1</v>
       </c>
@@ -9160,22 +7556,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I205" t="n">
         <v>0</v>
       </c>
-      <c r="J205" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K205" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L205" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="inlineStr"/>
       <c r="M205" t="n">
         <v>1</v>
       </c>
@@ -9203,22 +7591,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I206" t="n">
         <v>0</v>
       </c>
-      <c r="J206" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K206" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L206" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J206" t="inlineStr"/>
+      <c r="K206" t="inlineStr"/>
+      <c r="L206" t="inlineStr"/>
       <c r="M206" t="n">
         <v>1</v>
       </c>
@@ -9246,22 +7626,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I207" t="n">
         <v>0</v>
       </c>
-      <c r="J207" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K207" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L207" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J207" t="inlineStr"/>
+      <c r="K207" t="inlineStr"/>
+      <c r="L207" t="inlineStr"/>
       <c r="M207" t="n">
         <v>1</v>
       </c>
@@ -9289,22 +7661,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I208" t="n">
         <v>0</v>
       </c>
-      <c r="J208" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K208" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L208" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J208" t="inlineStr"/>
+      <c r="K208" t="inlineStr"/>
+      <c r="L208" t="inlineStr"/>
       <c r="M208" t="n">
         <v>1</v>
       </c>
@@ -9332,22 +7696,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I209" t="n">
         <v>0</v>
       </c>
-      <c r="J209" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K209" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L209" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J209" t="inlineStr"/>
+      <c r="K209" t="inlineStr"/>
+      <c r="L209" t="inlineStr"/>
       <c r="M209" t="n">
         <v>1</v>
       </c>
@@ -9375,22 +7731,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I210" t="n">
         <v>0</v>
       </c>
-      <c r="J210" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K210" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L210" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J210" t="inlineStr"/>
+      <c r="K210" t="inlineStr"/>
+      <c r="L210" t="inlineStr"/>
       <c r="M210" t="n">
         <v>1</v>
       </c>
@@ -9418,22 +7766,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I211" t="n">
         <v>0</v>
       </c>
-      <c r="J211" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K211" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L211" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J211" t="inlineStr"/>
+      <c r="K211" t="inlineStr"/>
+      <c r="L211" t="inlineStr"/>
       <c r="M211" t="n">
         <v>1</v>
       </c>
@@ -9461,22 +7801,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I212" t="n">
         <v>0</v>
       </c>
-      <c r="J212" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K212" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L212" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J212" t="inlineStr"/>
+      <c r="K212" t="inlineStr"/>
+      <c r="L212" t="inlineStr"/>
       <c r="M212" t="n">
         <v>1</v>
       </c>
@@ -9504,22 +7836,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I213" t="n">
         <v>0</v>
       </c>
-      <c r="J213" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K213" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L213" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J213" t="inlineStr"/>
+      <c r="K213" t="inlineStr"/>
+      <c r="L213" t="inlineStr"/>
       <c r="M213" t="n">
         <v>1</v>
       </c>
@@ -9547,22 +7871,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I214" t="n">
         <v>0</v>
       </c>
-      <c r="J214" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K214" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L214" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J214" t="inlineStr"/>
+      <c r="K214" t="inlineStr"/>
+      <c r="L214" t="inlineStr"/>
       <c r="M214" t="n">
         <v>1</v>
       </c>
@@ -9590,22 +7906,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I215" t="n">
         <v>0</v>
       </c>
-      <c r="J215" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K215" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L215" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J215" t="inlineStr"/>
+      <c r="K215" t="inlineStr"/>
+      <c r="L215" t="inlineStr"/>
       <c r="M215" t="n">
         <v>1</v>
       </c>
@@ -9633,22 +7941,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I216" t="n">
         <v>0</v>
       </c>
-      <c r="J216" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K216" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L216" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J216" t="inlineStr"/>
+      <c r="K216" t="inlineStr"/>
+      <c r="L216" t="inlineStr"/>
       <c r="M216" t="n">
         <v>1</v>
       </c>
@@ -9676,22 +7976,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I217" t="n">
         <v>0</v>
       </c>
-      <c r="J217" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K217" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L217" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J217" t="inlineStr"/>
+      <c r="K217" t="inlineStr"/>
+      <c r="L217" t="inlineStr"/>
       <c r="M217" t="n">
         <v>1</v>
       </c>
@@ -9719,22 +8011,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I218" t="n">
         <v>0</v>
       </c>
-      <c r="J218" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K218" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L218" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J218" t="inlineStr"/>
+      <c r="K218" t="inlineStr"/>
+      <c r="L218" t="inlineStr"/>
       <c r="M218" t="n">
         <v>1</v>
       </c>
@@ -9762,22 +8046,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I219" t="n">
         <v>0</v>
       </c>
-      <c r="J219" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K219" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L219" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J219" t="inlineStr"/>
+      <c r="K219" t="inlineStr"/>
+      <c r="L219" t="inlineStr"/>
       <c r="M219" t="n">
         <v>1</v>
       </c>
@@ -9805,22 +8081,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I220" t="n">
         <v>0</v>
       </c>
-      <c r="J220" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K220" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L220" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J220" t="inlineStr"/>
+      <c r="K220" t="inlineStr"/>
+      <c r="L220" t="inlineStr"/>
       <c r="M220" t="n">
         <v>1</v>
       </c>
@@ -9848,22 +8116,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I221" t="n">
         <v>0</v>
       </c>
-      <c r="J221" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K221" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L221" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J221" t="inlineStr"/>
+      <c r="K221" t="inlineStr"/>
+      <c r="L221" t="inlineStr"/>
       <c r="M221" t="n">
         <v>1</v>
       </c>
@@ -9891,22 +8151,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I222" t="n">
         <v>0</v>
       </c>
-      <c r="J222" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K222" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L222" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J222" t="inlineStr"/>
+      <c r="K222" t="inlineStr"/>
+      <c r="L222" t="inlineStr"/>
       <c r="M222" t="n">
         <v>1</v>
       </c>
@@ -9934,22 +8186,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I223" t="n">
         <v>0</v>
       </c>
-      <c r="J223" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K223" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L223" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J223" t="inlineStr"/>
+      <c r="K223" t="inlineStr"/>
+      <c r="L223" t="inlineStr"/>
       <c r="M223" t="n">
         <v>1</v>
       </c>
@@ -9977,22 +8221,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I224" t="n">
         <v>0</v>
       </c>
-      <c r="J224" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K224" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L224" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J224" t="inlineStr"/>
+      <c r="K224" t="inlineStr"/>
+      <c r="L224" t="inlineStr"/>
       <c r="M224" t="n">
         <v>1</v>
       </c>
@@ -10020,22 +8256,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I225" t="n">
         <v>0</v>
       </c>
-      <c r="J225" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K225" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L225" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J225" t="inlineStr"/>
+      <c r="K225" t="inlineStr"/>
+      <c r="L225" t="inlineStr"/>
       <c r="M225" t="n">
         <v>1</v>
       </c>
@@ -10063,22 +8291,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I226" t="n">
         <v>0</v>
       </c>
-      <c r="J226" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K226" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L226" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J226" t="inlineStr"/>
+      <c r="K226" t="inlineStr"/>
+      <c r="L226" t="inlineStr"/>
       <c r="M226" t="n">
         <v>1</v>
       </c>
@@ -10106,22 +8326,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I227" t="n">
         <v>0</v>
       </c>
-      <c r="J227" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K227" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L227" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J227" t="inlineStr"/>
+      <c r="K227" t="inlineStr"/>
+      <c r="L227" t="inlineStr"/>
       <c r="M227" t="n">
         <v>1</v>
       </c>
@@ -10149,22 +8361,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I228" t="n">
         <v>0</v>
       </c>
-      <c r="J228" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K228" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L228" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J228" t="inlineStr"/>
+      <c r="K228" t="inlineStr"/>
+      <c r="L228" t="inlineStr"/>
       <c r="M228" t="n">
         <v>1</v>
       </c>
@@ -10192,22 +8396,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="n">
         <v>0</v>
       </c>
-      <c r="J229" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K229" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L229" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J229" t="inlineStr"/>
+      <c r="K229" t="inlineStr"/>
+      <c r="L229" t="inlineStr"/>
       <c r="M229" t="n">
         <v>1</v>
       </c>
@@ -10235,22 +8431,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I230" t="n">
         <v>0</v>
       </c>
-      <c r="J230" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K230" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L230" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J230" t="inlineStr"/>
+      <c r="K230" t="inlineStr"/>
+      <c r="L230" t="inlineStr"/>
       <c r="M230" t="n">
         <v>1</v>
       </c>
@@ -10278,22 +8466,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I231" t="n">
         <v>0</v>
       </c>
-      <c r="J231" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K231" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L231" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J231" t="inlineStr"/>
+      <c r="K231" t="inlineStr"/>
+      <c r="L231" t="inlineStr"/>
       <c r="M231" t="n">
         <v>1</v>
       </c>
@@ -10321,22 +8501,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I232" t="n">
         <v>0</v>
       </c>
-      <c r="J232" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K232" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L232" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J232" t="inlineStr"/>
+      <c r="K232" t="inlineStr"/>
+      <c r="L232" t="inlineStr"/>
       <c r="M232" t="n">
         <v>1</v>
       </c>
@@ -10364,22 +8536,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I233" t="n">
         <v>0</v>
       </c>
-      <c r="J233" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K233" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L233" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J233" t="inlineStr"/>
+      <c r="K233" t="inlineStr"/>
+      <c r="L233" t="inlineStr"/>
       <c r="M233" t="n">
         <v>1</v>
       </c>
@@ -10407,22 +8571,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I234" t="n">
         <v>0</v>
       </c>
-      <c r="J234" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K234" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L234" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J234" t="inlineStr"/>
+      <c r="K234" t="inlineStr"/>
+      <c r="L234" t="inlineStr"/>
       <c r="M234" t="n">
         <v>1</v>
       </c>
@@ -10450,22 +8606,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I235" t="n">
         <v>0</v>
       </c>
-      <c r="J235" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K235" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L235" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J235" t="inlineStr"/>
+      <c r="K235" t="inlineStr"/>
+      <c r="L235" t="inlineStr"/>
       <c r="M235" t="n">
         <v>1</v>
       </c>
@@ -10493,22 +8641,14 @@
         <v>5.339999999999996</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I236" t="n">
         <v>0</v>
       </c>
-      <c r="J236" t="n">
-        <v>5.34</v>
-      </c>
-      <c r="K236" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L236" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J236" t="inlineStr"/>
+      <c r="K236" t="inlineStr"/>
+      <c r="L236" t="inlineStr"/>
       <c r="M236" t="n">
         <v>1</v>
       </c>
@@ -10536,22 +8676,14 @@
         <v>5.336666666666662</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I237" t="n">
         <v>0</v>
       </c>
-      <c r="J237" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K237" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L237" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J237" t="inlineStr"/>
+      <c r="K237" t="inlineStr"/>
+      <c r="L237" t="inlineStr"/>
       <c r="M237" t="n">
         <v>1</v>
       </c>
@@ -10579,22 +8711,14 @@
         <v>5.333333333333329</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I238" t="n">
         <v>0</v>
       </c>
-      <c r="J238" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K238" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L238" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J238" t="inlineStr"/>
+      <c r="K238" t="inlineStr"/>
+      <c r="L238" t="inlineStr"/>
       <c r="M238" t="n">
         <v>1</v>
       </c>
@@ -10622,22 +8746,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I239" t="n">
         <v>0</v>
       </c>
-      <c r="J239" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K239" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L239" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J239" t="inlineStr"/>
+      <c r="K239" t="inlineStr"/>
+      <c r="L239" t="inlineStr"/>
       <c r="M239" t="n">
         <v>1</v>
       </c>
@@ -10665,22 +8781,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I240" t="n">
         <v>0</v>
       </c>
-      <c r="J240" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K240" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L240" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J240" t="inlineStr"/>
+      <c r="K240" t="inlineStr"/>
+      <c r="L240" t="inlineStr"/>
       <c r="M240" t="n">
         <v>1</v>
       </c>
@@ -10708,22 +8816,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I241" t="n">
         <v>0</v>
       </c>
-      <c r="J241" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K241" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L241" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J241" t="inlineStr"/>
+      <c r="K241" t="inlineStr"/>
+      <c r="L241" t="inlineStr"/>
       <c r="M241" t="n">
         <v>1</v>
       </c>
@@ -10751,22 +8851,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I242" t="n">
         <v>0</v>
       </c>
-      <c r="J242" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K242" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L242" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J242" t="inlineStr"/>
+      <c r="K242" t="inlineStr"/>
+      <c r="L242" t="inlineStr"/>
       <c r="M242" t="n">
         <v>1</v>
       </c>
@@ -10794,22 +8886,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I243" t="n">
         <v>0</v>
       </c>
-      <c r="J243" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K243" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L243" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J243" t="inlineStr"/>
+      <c r="K243" t="inlineStr"/>
+      <c r="L243" t="inlineStr"/>
       <c r="M243" t="n">
         <v>1</v>
       </c>
@@ -10837,22 +8921,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I244" t="n">
         <v>0</v>
       </c>
-      <c r="J244" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K244" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L244" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J244" t="inlineStr"/>
+      <c r="K244" t="inlineStr"/>
+      <c r="L244" t="inlineStr"/>
       <c r="M244" t="n">
         <v>1</v>
       </c>
@@ -10880,22 +8956,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I245" t="n">
         <v>0</v>
       </c>
-      <c r="J245" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K245" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L245" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J245" t="inlineStr"/>
+      <c r="K245" t="inlineStr"/>
+      <c r="L245" t="inlineStr"/>
       <c r="M245" t="n">
         <v>1</v>
       </c>
@@ -10923,22 +8991,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I246" t="n">
         <v>0</v>
       </c>
-      <c r="J246" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K246" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L246" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J246" t="inlineStr"/>
+      <c r="K246" t="inlineStr"/>
+      <c r="L246" t="inlineStr"/>
       <c r="M246" t="n">
         <v>1</v>
       </c>
@@ -10966,22 +9026,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I247" t="n">
         <v>0</v>
       </c>
-      <c r="J247" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K247" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L247" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J247" t="inlineStr"/>
+      <c r="K247" t="inlineStr"/>
+      <c r="L247" t="inlineStr"/>
       <c r="M247" t="n">
         <v>1</v>
       </c>
@@ -11009,22 +9061,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I248" t="n">
         <v>0</v>
       </c>
-      <c r="J248" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K248" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L248" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J248" t="inlineStr"/>
+      <c r="K248" t="inlineStr"/>
+      <c r="L248" t="inlineStr"/>
       <c r="M248" t="n">
         <v>1</v>
       </c>
@@ -11052,22 +9096,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I249" t="n">
         <v>0</v>
       </c>
-      <c r="J249" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K249" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L249" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J249" t="inlineStr"/>
+      <c r="K249" t="inlineStr"/>
+      <c r="L249" t="inlineStr"/>
       <c r="M249" t="n">
         <v>1</v>
       </c>
@@ -11095,22 +9131,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I250" t="n">
         <v>0</v>
       </c>
-      <c r="J250" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K250" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L250" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J250" t="inlineStr"/>
+      <c r="K250" t="inlineStr"/>
+      <c r="L250" t="inlineStr"/>
       <c r="M250" t="n">
         <v>1</v>
       </c>
@@ -11138,22 +9166,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I251" t="n">
         <v>0</v>
       </c>
-      <c r="J251" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K251" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L251" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J251" t="inlineStr"/>
+      <c r="K251" t="inlineStr"/>
+      <c r="L251" t="inlineStr"/>
       <c r="M251" t="n">
         <v>1</v>
       </c>
@@ -11181,22 +9201,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I252" t="n">
         <v>0</v>
       </c>
-      <c r="J252" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K252" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L252" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J252" t="inlineStr"/>
+      <c r="K252" t="inlineStr"/>
+      <c r="L252" t="inlineStr"/>
       <c r="M252" t="n">
         <v>1</v>
       </c>
@@ -11224,22 +9236,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I253" t="n">
         <v>0</v>
       </c>
-      <c r="J253" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K253" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L253" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J253" t="inlineStr"/>
+      <c r="K253" t="inlineStr"/>
+      <c r="L253" t="inlineStr"/>
       <c r="M253" t="n">
         <v>1</v>
       </c>
@@ -11267,22 +9271,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I254" t="n">
         <v>0</v>
       </c>
-      <c r="J254" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K254" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L254" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J254" t="inlineStr"/>
+      <c r="K254" t="inlineStr"/>
+      <c r="L254" t="inlineStr"/>
       <c r="M254" t="n">
         <v>1</v>
       </c>
@@ -11310,22 +9306,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I255" t="n">
         <v>0</v>
       </c>
-      <c r="J255" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K255" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L255" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J255" t="inlineStr"/>
+      <c r="K255" t="inlineStr"/>
+      <c r="L255" t="inlineStr"/>
       <c r="M255" t="n">
         <v>1</v>
       </c>
@@ -11353,22 +9341,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I256" t="n">
         <v>0</v>
       </c>
-      <c r="J256" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K256" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L256" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J256" t="inlineStr"/>
+      <c r="K256" t="inlineStr"/>
+      <c r="L256" t="inlineStr"/>
       <c r="M256" t="n">
         <v>1</v>
       </c>
@@ -11396,22 +9376,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I257" t="n">
         <v>0</v>
       </c>
-      <c r="J257" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K257" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L257" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J257" t="inlineStr"/>
+      <c r="K257" t="inlineStr"/>
+      <c r="L257" t="inlineStr"/>
       <c r="M257" t="n">
         <v>1</v>
       </c>
@@ -11439,22 +9411,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I258" t="n">
         <v>0</v>
       </c>
-      <c r="J258" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K258" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L258" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J258" t="inlineStr"/>
+      <c r="K258" t="inlineStr"/>
+      <c r="L258" t="inlineStr"/>
       <c r="M258" t="n">
         <v>1</v>
       </c>
@@ -11482,22 +9446,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I259" t="n">
         <v>0</v>
       </c>
-      <c r="J259" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K259" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L259" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J259" t="inlineStr"/>
+      <c r="K259" t="inlineStr"/>
+      <c r="L259" t="inlineStr"/>
       <c r="M259" t="n">
         <v>1</v>
       </c>
@@ -11525,22 +9481,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I260" t="n">
         <v>0</v>
       </c>
-      <c r="J260" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K260" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L260" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J260" t="inlineStr"/>
+      <c r="K260" t="inlineStr"/>
+      <c r="L260" t="inlineStr"/>
       <c r="M260" t="n">
         <v>1</v>
       </c>
@@ -11568,22 +9516,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I261" t="n">
         <v>0</v>
       </c>
-      <c r="J261" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K261" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L261" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J261" t="inlineStr"/>
+      <c r="K261" t="inlineStr"/>
+      <c r="L261" t="inlineStr"/>
       <c r="M261" t="n">
         <v>1</v>
       </c>
@@ -11611,22 +9551,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I262" t="n">
         <v>0</v>
       </c>
-      <c r="J262" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K262" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L262" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J262" t="inlineStr"/>
+      <c r="K262" t="inlineStr"/>
+      <c r="L262" t="inlineStr"/>
       <c r="M262" t="n">
         <v>1</v>
       </c>
@@ -11654,22 +9586,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I263" t="n">
         <v>0</v>
       </c>
-      <c r="J263" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K263" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L263" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J263" t="inlineStr"/>
+      <c r="K263" t="inlineStr"/>
+      <c r="L263" t="inlineStr"/>
       <c r="M263" t="n">
         <v>1</v>
       </c>
@@ -11697,22 +9621,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I264" t="n">
         <v>0</v>
       </c>
-      <c r="J264" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K264" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L264" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J264" t="inlineStr"/>
+      <c r="K264" t="inlineStr"/>
+      <c r="L264" t="inlineStr"/>
       <c r="M264" t="n">
         <v>1</v>
       </c>
@@ -11740,22 +9656,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I265" t="n">
         <v>0</v>
       </c>
-      <c r="J265" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K265" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L265" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J265" t="inlineStr"/>
+      <c r="K265" t="inlineStr"/>
+      <c r="L265" t="inlineStr"/>
       <c r="M265" t="n">
         <v>1</v>
       </c>
@@ -11783,22 +9691,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I266" t="n">
         <v>0</v>
       </c>
-      <c r="J266" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K266" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L266" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J266" t="inlineStr"/>
+      <c r="K266" t="inlineStr"/>
+      <c r="L266" t="inlineStr"/>
       <c r="M266" t="n">
         <v>1</v>
       </c>
@@ -11826,22 +9726,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I267" t="n">
         <v>0</v>
       </c>
-      <c r="J267" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K267" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L267" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J267" t="inlineStr"/>
+      <c r="K267" t="inlineStr"/>
+      <c r="L267" t="inlineStr"/>
       <c r="M267" t="n">
         <v>1</v>
       </c>
@@ -11869,22 +9761,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I268" t="n">
         <v>0</v>
       </c>
-      <c r="J268" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K268" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L268" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J268" t="inlineStr"/>
+      <c r="K268" t="inlineStr"/>
+      <c r="L268" t="inlineStr"/>
       <c r="M268" t="n">
         <v>1</v>
       </c>
@@ -11912,22 +9796,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="n">
         <v>0</v>
       </c>
-      <c r="J269" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K269" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L269" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J269" t="inlineStr"/>
+      <c r="K269" t="inlineStr"/>
+      <c r="L269" t="inlineStr"/>
       <c r="M269" t="n">
         <v>1</v>
       </c>
@@ -11955,22 +9831,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I270" t="n">
         <v>0</v>
       </c>
-      <c r="J270" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K270" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L270" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J270" t="inlineStr"/>
+      <c r="K270" t="inlineStr"/>
+      <c r="L270" t="inlineStr"/>
       <c r="M270" t="n">
         <v>1</v>
       </c>
@@ -11998,22 +9866,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="n">
         <v>0</v>
       </c>
-      <c r="J271" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K271" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L271" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J271" t="inlineStr"/>
+      <c r="K271" t="inlineStr"/>
+      <c r="L271" t="inlineStr"/>
       <c r="M271" t="n">
         <v>1</v>
       </c>
@@ -12041,22 +9901,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="n">
         <v>0</v>
       </c>
-      <c r="J272" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K272" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L272" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J272" t="inlineStr"/>
+      <c r="K272" t="inlineStr"/>
+      <c r="L272" t="inlineStr"/>
       <c r="M272" t="n">
         <v>1</v>
       </c>
@@ -12084,22 +9936,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I273" t="n">
         <v>0</v>
       </c>
-      <c r="J273" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K273" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L273" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J273" t="inlineStr"/>
+      <c r="K273" t="inlineStr"/>
+      <c r="L273" t="inlineStr"/>
       <c r="M273" t="n">
         <v>1</v>
       </c>
@@ -12127,22 +9971,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I274" t="n">
         <v>0</v>
       </c>
-      <c r="J274" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K274" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L274" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J274" t="inlineStr"/>
+      <c r="K274" t="inlineStr"/>
+      <c r="L274" t="inlineStr"/>
       <c r="M274" t="n">
         <v>1</v>
       </c>
@@ -12170,22 +10006,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I275" t="n">
         <v>0</v>
       </c>
-      <c r="J275" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K275" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L275" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J275" t="inlineStr"/>
+      <c r="K275" t="inlineStr"/>
+      <c r="L275" t="inlineStr"/>
       <c r="M275" t="n">
         <v>1</v>
       </c>
@@ -12213,22 +10041,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I276" t="n">
         <v>0</v>
       </c>
-      <c r="J276" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K276" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L276" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J276" t="inlineStr"/>
+      <c r="K276" t="inlineStr"/>
+      <c r="L276" t="inlineStr"/>
       <c r="M276" t="n">
         <v>1</v>
       </c>
@@ -12256,22 +10076,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I277" t="n">
         <v>0</v>
       </c>
-      <c r="J277" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K277" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L277" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J277" t="inlineStr"/>
+      <c r="K277" t="inlineStr"/>
+      <c r="L277" t="inlineStr"/>
       <c r="M277" t="n">
         <v>1</v>
       </c>
@@ -12299,22 +10111,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I278" t="n">
         <v>0</v>
       </c>
-      <c r="J278" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K278" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L278" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J278" t="inlineStr"/>
+      <c r="K278" t="inlineStr"/>
+      <c r="L278" t="inlineStr"/>
       <c r="M278" t="n">
         <v>1</v>
       </c>
@@ -12342,22 +10146,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="n">
         <v>0</v>
       </c>
-      <c r="J279" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K279" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L279" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J279" t="inlineStr"/>
+      <c r="K279" t="inlineStr"/>
+      <c r="L279" t="inlineStr"/>
       <c r="M279" t="n">
         <v>1</v>
       </c>
@@ -12385,22 +10181,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I280" t="n">
         <v>0</v>
       </c>
-      <c r="J280" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K280" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L280" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J280" t="inlineStr"/>
+      <c r="K280" t="inlineStr"/>
+      <c r="L280" t="inlineStr"/>
       <c r="M280" t="n">
         <v>1</v>
       </c>
@@ -12428,22 +10216,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I281" t="n">
         <v>0</v>
       </c>
-      <c r="J281" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K281" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L281" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J281" t="inlineStr"/>
+      <c r="K281" t="inlineStr"/>
+      <c r="L281" t="inlineStr"/>
       <c r="M281" t="n">
         <v>1</v>
       </c>
@@ -12471,22 +10251,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I282" t="n">
         <v>0</v>
       </c>
-      <c r="J282" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K282" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L282" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J282" t="inlineStr"/>
+      <c r="K282" t="inlineStr"/>
+      <c r="L282" t="inlineStr"/>
       <c r="M282" t="n">
         <v>1</v>
       </c>
@@ -12514,22 +10286,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I283" t="n">
         <v>0</v>
       </c>
-      <c r="J283" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K283" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L283" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J283" t="inlineStr"/>
+      <c r="K283" t="inlineStr"/>
+      <c r="L283" t="inlineStr"/>
       <c r="M283" t="n">
         <v>1</v>
       </c>
@@ -12557,22 +10321,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I284" t="n">
         <v>0</v>
       </c>
-      <c r="J284" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K284" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L284" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J284" t="inlineStr"/>
+      <c r="K284" t="inlineStr"/>
+      <c r="L284" t="inlineStr"/>
       <c r="M284" t="n">
         <v>1</v>
       </c>
@@ -12600,22 +10356,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="n">
         <v>0</v>
       </c>
-      <c r="J285" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K285" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L285" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J285" t="inlineStr"/>
+      <c r="K285" t="inlineStr"/>
+      <c r="L285" t="inlineStr"/>
       <c r="M285" t="n">
         <v>1</v>
       </c>
@@ -12643,22 +10391,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I286" t="n">
         <v>0</v>
       </c>
-      <c r="J286" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K286" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L286" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J286" t="inlineStr"/>
+      <c r="K286" t="inlineStr"/>
+      <c r="L286" t="inlineStr"/>
       <c r="M286" t="n">
         <v>1</v>
       </c>
@@ -12686,22 +10426,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="n">
         <v>0</v>
       </c>
-      <c r="J287" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K287" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L287" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J287" t="inlineStr"/>
+      <c r="K287" t="inlineStr"/>
+      <c r="L287" t="inlineStr"/>
       <c r="M287" t="n">
         <v>1</v>
       </c>
@@ -12729,22 +10461,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="n">
         <v>0</v>
       </c>
-      <c r="J288" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K288" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L288" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J288" t="inlineStr"/>
+      <c r="K288" t="inlineStr"/>
+      <c r="L288" t="inlineStr"/>
       <c r="M288" t="n">
         <v>1</v>
       </c>
@@ -12772,22 +10496,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="n">
         <v>0</v>
       </c>
-      <c r="J289" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K289" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L289" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J289" t="inlineStr"/>
+      <c r="K289" t="inlineStr"/>
+      <c r="L289" t="inlineStr"/>
       <c r="M289" t="n">
         <v>1</v>
       </c>
@@ -12815,22 +10531,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="n">
         <v>0</v>
       </c>
-      <c r="J290" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K290" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L290" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J290" t="inlineStr"/>
+      <c r="K290" t="inlineStr"/>
+      <c r="L290" t="inlineStr"/>
       <c r="M290" t="n">
         <v>1</v>
       </c>
@@ -12858,22 +10566,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="n">
         <v>0</v>
       </c>
-      <c r="J291" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K291" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L291" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J291" t="inlineStr"/>
+      <c r="K291" t="inlineStr"/>
+      <c r="L291" t="inlineStr"/>
       <c r="M291" t="n">
         <v>1</v>
       </c>
@@ -12901,22 +10601,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="n">
         <v>0</v>
       </c>
-      <c r="J292" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K292" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L292" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J292" t="inlineStr"/>
+      <c r="K292" t="inlineStr"/>
+      <c r="L292" t="inlineStr"/>
       <c r="M292" t="n">
         <v>1</v>
       </c>
@@ -12944,22 +10636,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="n">
         <v>0</v>
       </c>
-      <c r="J293" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K293" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L293" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J293" t="inlineStr"/>
+      <c r="K293" t="inlineStr"/>
+      <c r="L293" t="inlineStr"/>
       <c r="M293" t="n">
         <v>1</v>
       </c>
@@ -12987,22 +10671,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="n">
         <v>0</v>
       </c>
-      <c r="J294" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K294" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L294" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J294" t="inlineStr"/>
+      <c r="K294" t="inlineStr"/>
+      <c r="L294" t="inlineStr"/>
       <c r="M294" t="n">
         <v>1</v>
       </c>
@@ -13030,22 +10706,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="n">
         <v>0</v>
       </c>
-      <c r="J295" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K295" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L295" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J295" t="inlineStr"/>
+      <c r="K295" t="inlineStr"/>
+      <c r="L295" t="inlineStr"/>
       <c r="M295" t="n">
         <v>1</v>
       </c>
@@ -13073,22 +10741,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="n">
         <v>0</v>
       </c>
-      <c r="J296" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K296" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L296" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J296" t="inlineStr"/>
+      <c r="K296" t="inlineStr"/>
+      <c r="L296" t="inlineStr"/>
       <c r="M296" t="n">
         <v>1</v>
       </c>
@@ -13116,22 +10776,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="n">
         <v>0</v>
       </c>
-      <c r="J297" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K297" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L297" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J297" t="inlineStr"/>
+      <c r="K297" t="inlineStr"/>
+      <c r="L297" t="inlineStr"/>
       <c r="M297" t="n">
         <v>1</v>
       </c>
@@ -13159,22 +10811,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I298" t="n">
         <v>0</v>
       </c>
-      <c r="J298" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K298" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L298" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J298" t="inlineStr"/>
+      <c r="K298" t="inlineStr"/>
+      <c r="L298" t="inlineStr"/>
       <c r="M298" t="n">
         <v>1</v>
       </c>
@@ -13202,22 +10846,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="n">
         <v>0</v>
       </c>
-      <c r="J299" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K299" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L299" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J299" t="inlineStr"/>
+      <c r="K299" t="inlineStr"/>
+      <c r="L299" t="inlineStr"/>
       <c r="M299" t="n">
         <v>1</v>
       </c>
@@ -13245,22 +10881,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I300" t="n">
         <v>0</v>
       </c>
-      <c r="J300" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K300" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L300" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J300" t="inlineStr"/>
+      <c r="K300" t="inlineStr"/>
+      <c r="L300" t="inlineStr"/>
       <c r="M300" t="n">
         <v>1</v>
       </c>
@@ -13288,22 +10916,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I301" t="n">
         <v>0</v>
       </c>
-      <c r="J301" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K301" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L301" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J301" t="inlineStr"/>
+      <c r="K301" t="inlineStr"/>
+      <c r="L301" t="inlineStr"/>
       <c r="M301" t="n">
         <v>1</v>
       </c>
@@ -13331,22 +10951,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I302" t="n">
         <v>0</v>
       </c>
-      <c r="J302" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K302" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L302" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J302" t="inlineStr"/>
+      <c r="K302" t="inlineStr"/>
+      <c r="L302" t="inlineStr"/>
       <c r="M302" t="n">
         <v>1</v>
       </c>
@@ -13374,22 +10986,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I303" t="n">
         <v>0</v>
       </c>
-      <c r="J303" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K303" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L303" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J303" t="inlineStr"/>
+      <c r="K303" t="inlineStr"/>
+      <c r="L303" t="inlineStr"/>
       <c r="M303" t="n">
         <v>1</v>
       </c>
@@ -13417,22 +11021,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I304" t="n">
         <v>0</v>
       </c>
-      <c r="J304" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K304" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L304" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J304" t="inlineStr"/>
+      <c r="K304" t="inlineStr"/>
+      <c r="L304" t="inlineStr"/>
       <c r="M304" t="n">
         <v>1</v>
       </c>
@@ -13460,22 +11056,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I305" t="n">
         <v>0</v>
       </c>
-      <c r="J305" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K305" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L305" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J305" t="inlineStr"/>
+      <c r="K305" t="inlineStr"/>
+      <c r="L305" t="inlineStr"/>
       <c r="M305" t="n">
         <v>1</v>
       </c>
@@ -13503,22 +11091,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I306" t="n">
         <v>0</v>
       </c>
-      <c r="J306" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K306" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L306" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J306" t="inlineStr"/>
+      <c r="K306" t="inlineStr"/>
+      <c r="L306" t="inlineStr"/>
       <c r="M306" t="n">
         <v>1</v>
       </c>
@@ -13546,22 +11126,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I307" t="n">
         <v>0</v>
       </c>
-      <c r="J307" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K307" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L307" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J307" t="inlineStr"/>
+      <c r="K307" t="inlineStr"/>
+      <c r="L307" t="inlineStr"/>
       <c r="M307" t="n">
         <v>1</v>
       </c>
@@ -13589,22 +11161,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I308" t="n">
         <v>0</v>
       </c>
-      <c r="J308" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K308" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L308" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J308" t="inlineStr"/>
+      <c r="K308" t="inlineStr"/>
+      <c r="L308" t="inlineStr"/>
       <c r="M308" t="n">
         <v>1</v>
       </c>
@@ -13632,22 +11196,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I309" t="n">
         <v>0</v>
       </c>
-      <c r="J309" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K309" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L309" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J309" t="inlineStr"/>
+      <c r="K309" t="inlineStr"/>
+      <c r="L309" t="inlineStr"/>
       <c r="M309" t="n">
         <v>1</v>
       </c>
@@ -13675,22 +11231,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I310" t="n">
         <v>0</v>
       </c>
-      <c r="J310" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K310" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L310" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J310" t="inlineStr"/>
+      <c r="K310" t="inlineStr"/>
+      <c r="L310" t="inlineStr"/>
       <c r="M310" t="n">
         <v>1</v>
       </c>
@@ -13718,22 +11266,14 @@
         <v>5.329999999999997</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I311" t="n">
         <v>0</v>
       </c>
-      <c r="J311" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K311" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L311" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J311" t="inlineStr"/>
+      <c r="K311" t="inlineStr"/>
+      <c r="L311" t="inlineStr"/>
       <c r="M311" t="n">
         <v>1</v>
       </c>
@@ -13761,22 +11301,14 @@
         <v>5.336666666666663</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I312" t="n">
         <v>0</v>
       </c>
-      <c r="J312" t="n">
-        <v>5.33</v>
-      </c>
-      <c r="K312" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L312" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J312" t="inlineStr"/>
+      <c r="K312" t="inlineStr"/>
+      <c r="L312" t="inlineStr"/>
       <c r="M312" t="n">
         <v>1</v>
       </c>
@@ -13804,22 +11336,14 @@
         <v>5.356666666666665</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I313" t="n">
         <v>0</v>
       </c>
-      <c r="J313" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K313" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L313" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J313" t="inlineStr"/>
+      <c r="K313" t="inlineStr"/>
+      <c r="L313" t="inlineStr"/>
       <c r="M313" t="n">
         <v>1</v>
       </c>
@@ -13847,22 +11371,14 @@
         <v>5.379999999999998</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I314" t="n">
         <v>0</v>
       </c>
-      <c r="J314" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K314" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L314" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J314" t="inlineStr"/>
+      <c r="K314" t="inlineStr"/>
+      <c r="L314" t="inlineStr"/>
       <c r="M314" t="n">
         <v>1</v>
       </c>
@@ -13890,22 +11406,14 @@
         <v>5.399999999999999</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I315" t="n">
         <v>0</v>
       </c>
-      <c r="J315" t="n">
-        <v>5.4</v>
-      </c>
-      <c r="K315" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L315" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J315" t="inlineStr"/>
+      <c r="K315" t="inlineStr"/>
+      <c r="L315" t="inlineStr"/>
       <c r="M315" t="n">
         <v>1</v>
       </c>
@@ -13933,22 +11441,14 @@
         <v>5.419999999999998</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I316" t="n">
         <v>0</v>
       </c>
-      <c r="J316" t="n">
-        <v>5.42</v>
-      </c>
-      <c r="K316" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L316" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J316" t="inlineStr"/>
+      <c r="K316" t="inlineStr"/>
+      <c r="L316" t="inlineStr"/>
       <c r="M316" t="n">
         <v>1</v>
       </c>
@@ -13982,14 +11482,8 @@
         <v>0</v>
       </c>
       <c r="J317" t="inlineStr"/>
-      <c r="K317" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L317" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K317" t="inlineStr"/>
+      <c r="L317" t="inlineStr"/>
       <c r="M317" t="n">
         <v>1</v>
       </c>
@@ -14023,14 +11517,8 @@
         <v>0</v>
       </c>
       <c r="J318" t="inlineStr"/>
-      <c r="K318" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L318" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K318" t="inlineStr"/>
+      <c r="L318" t="inlineStr"/>
       <c r="M318" t="n">
         <v>1</v>
       </c>
@@ -14064,14 +11552,8 @@
         <v>0</v>
       </c>
       <c r="J319" t="inlineStr"/>
-      <c r="K319" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L319" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K319" t="inlineStr"/>
+      <c r="L319" t="inlineStr"/>
       <c r="M319" t="n">
         <v>1</v>
       </c>
@@ -14105,14 +11587,8 @@
         <v>0</v>
       </c>
       <c r="J320" t="inlineStr"/>
-      <c r="K320" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L320" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K320" t="inlineStr"/>
+      <c r="L320" t="inlineStr"/>
       <c r="M320" t="n">
         <v>1</v>
       </c>
@@ -14143,17 +11619,11 @@
         <v>0</v>
       </c>
       <c r="I321" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="J321" t="inlineStr"/>
-      <c r="K321" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L321" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K321" t="inlineStr"/>
+      <c r="L321" t="inlineStr"/>
       <c r="M321" t="n">
         <v>1</v>
       </c>
@@ -14187,14 +11657,8 @@
         <v>0</v>
       </c>
       <c r="J322" t="inlineStr"/>
-      <c r="K322" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L322" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K322" t="inlineStr"/>
+      <c r="L322" t="inlineStr"/>
       <c r="M322" t="n">
         <v>1</v>
       </c>
@@ -14228,14 +11692,8 @@
         <v>0</v>
       </c>
       <c r="J323" t="inlineStr"/>
-      <c r="K323" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L323" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K323" t="inlineStr"/>
+      <c r="L323" t="inlineStr"/>
       <c r="M323" t="n">
         <v>1</v>
       </c>
@@ -14269,14 +11727,8 @@
         <v>0</v>
       </c>
       <c r="J324" t="inlineStr"/>
-      <c r="K324" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L324" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K324" t="inlineStr"/>
+      <c r="L324" t="inlineStr"/>
       <c r="M324" t="n">
         <v>1</v>
       </c>
@@ -14310,14 +11762,8 @@
         <v>0</v>
       </c>
       <c r="J325" t="inlineStr"/>
-      <c r="K325" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L325" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K325" t="inlineStr"/>
+      <c r="L325" t="inlineStr"/>
       <c r="M325" t="n">
         <v>1</v>
       </c>
@@ -14351,14 +11797,8 @@
         <v>0</v>
       </c>
       <c r="J326" t="inlineStr"/>
-      <c r="K326" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L326" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="K326" t="inlineStr"/>
+      <c r="L326" t="inlineStr"/>
       <c r="M326" t="n">
         <v>1</v>
       </c>
@@ -14389,19 +11829,13 @@
         <v>0</v>
       </c>
       <c r="I327" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J327" t="inlineStr"/>
-      <c r="K327" t="n">
-        <v>5.35</v>
-      </c>
-      <c r="L327" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="K327" t="inlineStr"/>
+      <c r="L327" t="inlineStr"/>
       <c r="M327" t="n">
-        <v>1.049205607476636</v>
+        <v>1</v>
       </c>
     </row>
     <row r="328">
@@ -14430,7 +11864,7 @@
         <v>0</v>
       </c>
       <c r="I328" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J328" t="inlineStr"/>
       <c r="K328" t="inlineStr"/>
@@ -14465,7 +11899,7 @@
         <v>0</v>
       </c>
       <c r="I329" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J329" t="inlineStr"/>
       <c r="K329" t="inlineStr"/>
@@ -35392,17 +32826,13 @@
         <v>5.346666666666661</v>
       </c>
       <c r="H927" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I927" t="n">
         <v>0</v>
       </c>
-      <c r="J927" t="n">
-        <v>5.36</v>
-      </c>
-      <c r="K927" t="n">
-        <v>5.36</v>
-      </c>
+      <c r="J927" t="inlineStr"/>
+      <c r="K927" t="inlineStr"/>
       <c r="L927" t="inlineStr"/>
       <c r="M927" t="n">
         <v>1</v>
@@ -35437,16 +32867,12 @@
         <v>0</v>
       </c>
       <c r="J928" t="n">
-        <v>5.37</v>
+        <v>5.36</v>
       </c>
       <c r="K928" t="n">
         <v>5.36</v>
       </c>
-      <c r="L928" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="L928" t="inlineStr"/>
       <c r="M928" t="n">
         <v>1</v>
       </c>
@@ -35474,12 +32900,14 @@
         <v>5.366666666666663</v>
       </c>
       <c r="H929" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I929" t="n">
         <v>0</v>
       </c>
-      <c r="J929" t="inlineStr"/>
+      <c r="J929" t="n">
+        <v>5.37</v>
+      </c>
       <c r="K929" t="n">
         <v>5.36</v>
       </c>
@@ -35521,8 +32949,14 @@
         <v>0</v>
       </c>
       <c r="J930" t="inlineStr"/>
-      <c r="K930" t="inlineStr"/>
-      <c r="L930" t="inlineStr"/>
+      <c r="K930" t="n">
+        <v>5.36</v>
+      </c>
+      <c r="L930" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
       <c r="M930" t="n">
         <v>1</v>
       </c>
@@ -36078,7 +33512,7 @@
         <v>0</v>
       </c>
       <c r="I946" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="J946" t="inlineStr"/>
       <c r="K946" t="inlineStr"/>

--- a/BackTest/2019-10-27 BackTest CON.xlsx
+++ b/BackTest/2019-10-27 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>1005460.3346</v>
       </c>
       <c r="H2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>1005460.3346</v>
       </c>
       <c r="H3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I3" t="n">
         <v>5.32</v>
@@ -521,7 +521,7 @@
         <v>1005449.3346</v>
       </c>
       <c r="H4" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I4" t="n">
         <v>5.32</v>
@@ -562,7 +562,7 @@
         <v>1245320.8588</v>
       </c>
       <c r="H5" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I5" t="n">
         <v>5.31</v>
@@ -603,7 +603,7 @@
         <v>1245320.8588</v>
       </c>
       <c r="H6" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I6" t="n">
         <v>5.32</v>
@@ -644,7 +644,7 @@
         <v>1243399.1625</v>
       </c>
       <c r="H7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I7" t="n">
         <v>5.32</v>
@@ -685,7 +685,7 @@
         <v>1505913.2043</v>
       </c>
       <c r="H8" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I8" t="n">
         <v>5.31</v>
@@ -726,7 +726,7 @@
         <v>1505888.2043</v>
       </c>
       <c r="H9" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I9" t="n">
         <v>5.32</v>
@@ -767,7 +767,7 @@
         <v>2020192.1727</v>
       </c>
       <c r="H10" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I10" t="n">
         <v>5.31</v>
@@ -808,7 +808,7 @@
         <v>2020192.1727</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I11" t="n">
         <v>5.33</v>
@@ -849,7 +849,7 @@
         <v>2020192.1727</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I12" t="n">
         <v>5.33</v>
@@ -890,11 +890,9 @@
         <v>2020179.1727</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
-      </c>
-      <c r="I13" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I13" t="inlineStr"/>
       <c r="J13" t="n">
         <v>5.32</v>
       </c>
@@ -931,7 +929,7 @@
         <v>2210639.1553</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I14" t="n">
         <v>5.32</v>
@@ -972,11 +970,9 @@
         <v>2210639.1553</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
-      </c>
-      <c r="I15" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I15" t="inlineStr"/>
       <c r="J15" t="n">
         <v>5.32</v>
       </c>
@@ -1013,7 +1009,7 @@
         <v>2350932.808</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I16" t="n">
         <v>5.33</v>
@@ -1093,7 +1089,7 @@
         <v>2350932.808</v>
       </c>
       <c r="H18" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I18" t="n">
         <v>5.34</v>
@@ -1173,11 +1169,9 @@
         <v>2350932.808</v>
       </c>
       <c r="H20" t="n">
-        <v>2</v>
-      </c>
-      <c r="I20" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I20" t="inlineStr"/>
       <c r="J20" t="n">
         <v>5.32</v>
       </c>
@@ -1214,9 +1208,11 @@
         <v>2648785.6067</v>
       </c>
       <c r="H21" t="n">
-        <v>0</v>
-      </c>
-      <c r="I21" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I21" t="n">
+        <v>5.34</v>
+      </c>
       <c r="J21" t="n">
         <v>5.32</v>
       </c>
@@ -1253,11 +1249,9 @@
         <v>2519922.523</v>
       </c>
       <c r="H22" t="n">
-        <v>2</v>
-      </c>
-      <c r="I22" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I22" t="inlineStr"/>
       <c r="J22" t="n">
         <v>5.32</v>
       </c>
@@ -1294,11 +1288,9 @@
         <v>2958669.5204</v>
       </c>
       <c r="H23" t="n">
-        <v>2</v>
-      </c>
-      <c r="I23" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I23" t="inlineStr"/>
       <c r="J23" t="n">
         <v>5.32</v>
       </c>
@@ -1335,11 +1327,9 @@
         <v>3333683.2018</v>
       </c>
       <c r="H24" t="n">
-        <v>2</v>
-      </c>
-      <c r="I24" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I24" t="inlineStr"/>
       <c r="J24" t="n">
         <v>5.32</v>
       </c>
@@ -1376,11 +1366,9 @@
         <v>2898462.4223</v>
       </c>
       <c r="H25" t="n">
-        <v>2</v>
-      </c>
-      <c r="I25" t="n">
-        <v>5.36</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I25" t="inlineStr"/>
       <c r="J25" t="n">
         <v>5.32</v>
       </c>
@@ -1417,11 +1405,9 @@
         <v>2898462.4223</v>
       </c>
       <c r="H26" t="n">
-        <v>2</v>
-      </c>
-      <c r="I26" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I26" t="inlineStr"/>
       <c r="J26" t="n">
         <v>5.32</v>
       </c>
@@ -1458,11 +1444,9 @@
         <v>2750664.935</v>
       </c>
       <c r="H27" t="n">
-        <v>2</v>
-      </c>
-      <c r="I27" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I27" t="inlineStr"/>
       <c r="J27" t="n">
         <v>5.32</v>
       </c>
@@ -1499,11 +1483,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H28" t="n">
-        <v>2</v>
-      </c>
-      <c r="I28" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I28" t="inlineStr"/>
       <c r="J28" t="n">
         <v>5.32</v>
       </c>
@@ -1540,11 +1522,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H29" t="n">
-        <v>2</v>
-      </c>
-      <c r="I29" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I29" t="inlineStr"/>
       <c r="J29" t="n">
         <v>5.32</v>
       </c>
@@ -1581,11 +1561,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H30" t="n">
-        <v>2</v>
-      </c>
-      <c r="I30" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I30" t="inlineStr"/>
       <c r="J30" t="n">
         <v>5.32</v>
       </c>
@@ -1700,11 +1678,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H33" t="n">
-        <v>2</v>
-      </c>
-      <c r="I33" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I33" t="inlineStr"/>
       <c r="J33" t="n">
         <v>5.32</v>
       </c>
@@ -1741,11 +1717,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
-      </c>
-      <c r="I34" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I34" t="inlineStr"/>
       <c r="J34" t="n">
         <v>5.32</v>
       </c>
@@ -2445,11 +2419,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H52" t="n">
-        <v>2</v>
-      </c>
-      <c r="I52" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I52" t="inlineStr"/>
       <c r="J52" t="n">
         <v>5.32</v>
       </c>
@@ -2486,11 +2458,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H53" t="n">
-        <v>2</v>
-      </c>
-      <c r="I53" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I53" t="inlineStr"/>
       <c r="J53" t="n">
         <v>5.32</v>
       </c>
@@ -2644,9 +2614,11 @@
         <v>3037709.5186</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
-      </c>
-      <c r="I57" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I57" t="n">
+        <v>5.35</v>
+      </c>
       <c r="J57" t="n">
         <v>5.32</v>
       </c>
@@ -2839,11 +2811,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
-      </c>
-      <c r="I62" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I62" t="inlineStr"/>
       <c r="J62" t="n">
         <v>5.32</v>
       </c>
@@ -2880,11 +2850,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
-      </c>
-      <c r="I63" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I63" t="inlineStr"/>
       <c r="J63" t="n">
         <v>5.32</v>
       </c>
@@ -2999,11 +2967,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H66" t="n">
-        <v>2</v>
-      </c>
-      <c r="I66" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I66" t="inlineStr"/>
       <c r="J66" t="n">
         <v>5.32</v>
       </c>
@@ -3040,7 +3006,7 @@
         <v>3037709.5186</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I67" t="n">
         <v>5.35</v>
@@ -3081,7 +3047,7 @@
         <v>3037709.5186</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I68" t="n">
         <v>5.35</v>
@@ -3122,7 +3088,7 @@
         <v>3037709.5186</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I69" t="n">
         <v>5.35</v>
@@ -3163,11 +3129,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
-      </c>
-      <c r="I70" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I70" t="inlineStr"/>
       <c r="J70" t="n">
         <v>5.32</v>
       </c>
@@ -3204,7 +3168,7 @@
         <v>3037709.5186</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I71" t="n">
         <v>5.35</v>
@@ -3245,11 +3209,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
-      </c>
-      <c r="I72" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I72" t="inlineStr"/>
       <c r="J72" t="n">
         <v>5.32</v>
       </c>
@@ -3286,11 +3248,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
-      </c>
-      <c r="I73" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I73" t="inlineStr"/>
       <c r="J73" t="n">
         <v>5.32</v>
       </c>
@@ -3327,11 +3287,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
-      </c>
-      <c r="I74" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I74" t="inlineStr"/>
       <c r="J74" t="n">
         <v>5.32</v>
       </c>
@@ -3368,11 +3326,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
-      </c>
-      <c r="I75" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I75" t="inlineStr"/>
       <c r="J75" t="n">
         <v>5.32</v>
       </c>
@@ -3409,7 +3365,7 @@
         <v>2848409.9837</v>
       </c>
       <c r="H76" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I76" t="n">
         <v>5.35</v>
@@ -3450,7 +3406,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H77" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I77" t="n">
         <v>5.33</v>
@@ -3491,7 +3447,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H78" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I78" t="n">
         <v>5.34</v>
@@ -3532,7 +3488,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H79" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I79" t="n">
         <v>5.34</v>
@@ -3573,7 +3529,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H80" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I80" t="n">
         <v>5.34</v>
@@ -3614,7 +3570,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H81" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I81" t="n">
         <v>5.34</v>
@@ -3655,7 +3611,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H82" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I82" t="n">
         <v>5.34</v>
@@ -3696,7 +3652,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H83" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I83" t="n">
         <v>5.34</v>
@@ -3737,7 +3693,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H84" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I84" t="n">
         <v>5.34</v>
@@ -3778,7 +3734,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H85" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I85" t="n">
         <v>5.34</v>
@@ -3819,7 +3775,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H86" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I86" t="n">
         <v>5.34</v>
@@ -3860,7 +3816,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H87" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I87" t="n">
         <v>5.34</v>
@@ -3901,7 +3857,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H88" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I88" t="n">
         <v>5.34</v>
@@ -3942,7 +3898,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H89" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I89" t="n">
         <v>5.34</v>
@@ -3983,7 +3939,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H90" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I90" t="n">
         <v>5.34</v>
@@ -4024,7 +3980,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H91" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I91" t="n">
         <v>5.34</v>
@@ -4065,7 +4021,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H92" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I92" t="n">
         <v>5.34</v>
@@ -4106,7 +4062,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H93" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I93" t="n">
         <v>5.34</v>
@@ -4147,7 +4103,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H94" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I94" t="n">
         <v>5.34</v>
@@ -4188,7 +4144,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H95" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I95" t="n">
         <v>5.34</v>
@@ -4229,7 +4185,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H96" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I96" t="n">
         <v>5.34</v>
@@ -4270,7 +4226,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I97" t="n">
         <v>5.34</v>
@@ -4311,7 +4267,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I98" t="n">
         <v>5.34</v>
@@ -4352,7 +4308,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I99" t="n">
         <v>5.34</v>
@@ -4393,7 +4349,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I100" t="n">
         <v>5.34</v>
@@ -4434,7 +4390,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I101" t="n">
         <v>5.34</v>
@@ -4475,7 +4431,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I102" t="n">
         <v>5.34</v>
@@ -4516,7 +4472,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I103" t="n">
         <v>5.34</v>
@@ -4557,7 +4513,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I104" t="n">
         <v>5.34</v>
@@ -4598,7 +4554,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I105" t="n">
         <v>5.34</v>
@@ -4639,7 +4595,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I106" t="n">
         <v>5.34</v>
@@ -4680,7 +4636,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I107" t="n">
         <v>5.34</v>
@@ -4721,7 +4677,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I108" t="n">
         <v>5.34</v>
@@ -4762,7 +4718,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I109" t="n">
         <v>5.34</v>
@@ -4803,7 +4759,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I110" t="n">
         <v>5.34</v>
@@ -4844,7 +4800,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I111" t="n">
         <v>5.34</v>
@@ -4885,7 +4841,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H112" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I112" t="n">
         <v>5.34</v>
@@ -4926,7 +4882,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H113" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I113" t="n">
         <v>5.34</v>
@@ -4967,7 +4923,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I114" t="n">
         <v>5.34</v>
@@ -5008,7 +4964,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I115" t="n">
         <v>5.34</v>
@@ -5049,7 +5005,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H116" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I116" t="n">
         <v>5.34</v>
@@ -5090,7 +5046,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I117" t="n">
         <v>5.34</v>
@@ -5131,7 +5087,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I118" t="n">
         <v>5.34</v>
@@ -5172,7 +5128,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I119" t="n">
         <v>5.34</v>
@@ -5213,7 +5169,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I120" t="n">
         <v>5.34</v>
@@ -5254,7 +5210,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I121" t="n">
         <v>5.34</v>
@@ -5295,7 +5251,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I122" t="n">
         <v>5.34</v>
@@ -5336,7 +5292,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I123" t="n">
         <v>5.34</v>
@@ -5377,7 +5333,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I124" t="n">
         <v>5.34</v>
@@ -5418,7 +5374,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I125" t="n">
         <v>5.34</v>
@@ -5459,7 +5415,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I126" t="n">
         <v>5.34</v>
@@ -5500,7 +5456,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I127" t="n">
         <v>5.34</v>
@@ -5541,7 +5497,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I128" t="n">
         <v>5.34</v>
@@ -5582,7 +5538,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I129" t="n">
         <v>5.34</v>
@@ -5623,7 +5579,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I130" t="n">
         <v>5.34</v>
@@ -5664,7 +5620,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I131" t="n">
         <v>5.34</v>
@@ -5705,7 +5661,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I132" t="n">
         <v>5.34</v>
@@ -5746,7 +5702,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I133" t="n">
         <v>5.34</v>
@@ -5787,7 +5743,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I134" t="n">
         <v>5.34</v>
@@ -5828,7 +5784,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I135" t="n">
         <v>5.34</v>
@@ -5869,7 +5825,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I136" t="n">
         <v>5.34</v>
@@ -5910,7 +5866,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I137" t="n">
         <v>5.34</v>
@@ -5951,7 +5907,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I138" t="n">
         <v>5.34</v>
@@ -5992,7 +5948,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I139" t="n">
         <v>5.34</v>
@@ -6033,7 +5989,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H140" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I140" t="n">
         <v>5.34</v>
@@ -6074,7 +6030,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I141" t="n">
         <v>5.34</v>
@@ -6115,7 +6071,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I142" t="n">
         <v>5.34</v>
@@ -6156,7 +6112,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I143" t="n">
         <v>5.34</v>
@@ -6197,7 +6153,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I144" t="n">
         <v>5.34</v>
@@ -6238,7 +6194,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I145" t="n">
         <v>5.34</v>
@@ -6279,7 +6235,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I146" t="n">
         <v>5.34</v>
@@ -6320,7 +6276,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I147" t="n">
         <v>5.34</v>
@@ -6361,7 +6317,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I148" t="n">
         <v>5.34</v>
@@ -6402,7 +6358,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I149" t="n">
         <v>5.34</v>
@@ -6443,7 +6399,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I150" t="n">
         <v>5.34</v>
@@ -6484,7 +6440,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I151" t="n">
         <v>5.34</v>
@@ -6525,7 +6481,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I152" t="n">
         <v>5.34</v>
@@ -6566,7 +6522,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H153" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I153" t="n">
         <v>5.34</v>
@@ -6607,7 +6563,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H154" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I154" t="n">
         <v>5.34</v>
@@ -6648,7 +6604,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H155" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I155" t="n">
         <v>5.34</v>
@@ -6689,7 +6645,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H156" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I156" t="n">
         <v>5.34</v>
@@ -6730,7 +6686,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H157" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I157" t="n">
         <v>5.34</v>
@@ -6771,7 +6727,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I158" t="n">
         <v>5.34</v>
@@ -6812,7 +6768,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H159" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I159" t="n">
         <v>5.34</v>
@@ -6853,7 +6809,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H160" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I160" t="n">
         <v>5.34</v>
@@ -6894,7 +6850,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H161" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I161" t="n">
         <v>5.34</v>
@@ -6935,7 +6891,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H162" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I162" t="n">
         <v>5.34</v>
@@ -6976,7 +6932,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I163" t="n">
         <v>5.34</v>
@@ -7017,7 +6973,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I164" t="n">
         <v>5.34</v>
@@ -7058,7 +7014,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I165" t="n">
         <v>5.34</v>
@@ -7099,7 +7055,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I166" t="n">
         <v>5.34</v>
@@ -7140,7 +7096,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I167" t="n">
         <v>5.34</v>
@@ -7181,7 +7137,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I168" t="n">
         <v>5.34</v>
@@ -7222,7 +7178,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I169" t="n">
         <v>5.34</v>
@@ -7263,7 +7219,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I170" t="n">
         <v>5.34</v>
@@ -7304,7 +7260,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I171" t="n">
         <v>5.34</v>
@@ -7345,7 +7301,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H172" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I172" t="n">
         <v>5.34</v>
@@ -7386,7 +7342,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I173" t="n">
         <v>5.34</v>
@@ -7427,7 +7383,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I174" t="n">
         <v>5.34</v>
@@ -7468,7 +7424,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I175" t="n">
         <v>5.34</v>
@@ -7509,7 +7465,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I176" t="n">
         <v>5.34</v>
@@ -7550,7 +7506,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I177" t="n">
         <v>5.34</v>
@@ -7591,7 +7547,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I178" t="n">
         <v>5.34</v>
@@ -7632,7 +7588,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I179" t="n">
         <v>5.34</v>
@@ -7673,7 +7629,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I180" t="n">
         <v>5.34</v>
@@ -7714,7 +7670,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I181" t="n">
         <v>5.34</v>
@@ -7755,7 +7711,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I182" t="n">
         <v>5.34</v>
@@ -7796,7 +7752,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I183" t="n">
         <v>5.34</v>
@@ -7837,7 +7793,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I184" t="n">
         <v>5.34</v>
@@ -7878,7 +7834,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I185" t="n">
         <v>5.34</v>
@@ -7919,7 +7875,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I186" t="n">
         <v>5.34</v>
@@ -7960,7 +7916,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I187" t="n">
         <v>5.34</v>
@@ -8001,7 +7957,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I188" t="n">
         <v>5.34</v>
@@ -8042,7 +7998,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I189" t="n">
         <v>5.34</v>
@@ -8083,7 +8039,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I190" t="n">
         <v>5.34</v>
@@ -8124,7 +8080,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I191" t="n">
         <v>5.34</v>
@@ -8165,7 +8121,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I192" t="n">
         <v>5.34</v>
@@ -8206,7 +8162,7 @@
         <v>2897026.4008</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I193" t="n">
         <v>5.34</v>
@@ -8247,7 +8203,7 @@
         <v>2602586.0419</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I194" t="n">
         <v>5.34</v>
@@ -8288,7 +8244,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I195" t="n">
         <v>5.33</v>
@@ -8329,7 +8285,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I196" t="n">
         <v>5.34</v>
@@ -8370,7 +8326,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I197" t="n">
         <v>5.34</v>
@@ -8411,7 +8367,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I198" t="n">
         <v>5.34</v>
@@ -8452,7 +8408,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I199" t="n">
         <v>5.34</v>
@@ -8493,7 +8449,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H200" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I200" t="n">
         <v>5.34</v>
@@ -8534,7 +8490,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I201" t="n">
         <v>5.34</v>
@@ -8575,7 +8531,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H202" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I202" t="n">
         <v>5.34</v>
@@ -8616,7 +8572,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H203" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I203" t="n">
         <v>5.34</v>
@@ -8657,7 +8613,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H204" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I204" t="n">
         <v>5.34</v>
@@ -8698,7 +8654,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H205" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I205" t="n">
         <v>5.34</v>
@@ -8739,7 +8695,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H206" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I206" t="n">
         <v>5.34</v>
@@ -8780,7 +8736,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H207" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I207" t="n">
         <v>5.34</v>
@@ -8821,7 +8777,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H208" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I208" t="n">
         <v>5.34</v>
@@ -8862,7 +8818,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H209" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I209" t="n">
         <v>5.34</v>
@@ -8903,7 +8859,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H210" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I210" t="n">
         <v>5.34</v>
@@ -8944,7 +8900,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I211" t="n">
         <v>5.34</v>
@@ -8985,7 +8941,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I212" t="n">
         <v>5.34</v>
@@ -9026,7 +8982,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I213" t="n">
         <v>5.34</v>
@@ -9067,7 +9023,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I214" t="n">
         <v>5.34</v>
@@ -9108,7 +9064,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I215" t="n">
         <v>5.34</v>
@@ -9149,7 +9105,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I216" t="n">
         <v>5.34</v>
@@ -9190,7 +9146,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I217" t="n">
         <v>5.34</v>
@@ -9231,7 +9187,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I218" t="n">
         <v>5.34</v>
@@ -9272,7 +9228,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H219" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I219" t="n">
         <v>5.34</v>
@@ -9313,7 +9269,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H220" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I220" t="n">
         <v>5.34</v>
@@ -9354,7 +9310,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H221" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I221" t="n">
         <v>5.34</v>
@@ -9395,7 +9351,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I222" t="n">
         <v>5.34</v>
@@ -9436,7 +9392,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I223" t="n">
         <v>5.34</v>
@@ -9477,7 +9433,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I224" t="n">
         <v>5.34</v>
@@ -9518,7 +9474,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I225" t="n">
         <v>5.34</v>
@@ -9559,7 +9515,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I226" t="n">
         <v>5.34</v>
@@ -9600,7 +9556,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I227" t="n">
         <v>5.34</v>
@@ -9641,7 +9597,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I228" t="n">
         <v>5.34</v>
@@ -9682,7 +9638,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I229" t="n">
         <v>5.34</v>
@@ -9723,7 +9679,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H230" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I230" t="n">
         <v>5.34</v>
@@ -9764,7 +9720,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H231" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I231" t="n">
         <v>5.34</v>
@@ -9805,7 +9761,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H232" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I232" t="n">
         <v>5.34</v>
@@ -9846,7 +9802,7 @@
         <v>2710045.3818</v>
       </c>
       <c r="H233" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I233" t="n">
         <v>5.34</v>
@@ -9887,7 +9843,7 @@
         <v>2658725.298</v>
       </c>
       <c r="H234" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I234" t="n">
         <v>5.34</v>
@@ -9928,7 +9884,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H235" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I235" t="n">
         <v>5.33</v>
@@ -9969,7 +9925,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H236" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I236" t="n">
         <v>5.34</v>
@@ -10010,7 +9966,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I237" t="n">
         <v>5.34</v>
@@ -10051,7 +10007,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I238" t="n">
         <v>5.34</v>
@@ -10092,7 +10048,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I239" t="n">
         <v>5.34</v>
@@ -10133,7 +10089,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I240" t="n">
         <v>5.34</v>
@@ -10174,7 +10130,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I241" t="n">
         <v>5.34</v>
@@ -10215,7 +10171,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I242" t="n">
         <v>5.34</v>
@@ -10256,7 +10212,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I243" t="n">
         <v>5.34</v>
@@ -10297,7 +10253,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I244" t="n">
         <v>5.34</v>
@@ -10338,7 +10294,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I245" t="n">
         <v>5.34</v>
@@ -10379,7 +10335,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I246" t="n">
         <v>5.34</v>
@@ -10420,7 +10376,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I247" t="n">
         <v>5.34</v>
@@ -10461,7 +10417,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I248" t="n">
         <v>5.34</v>
@@ -10502,7 +10458,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I249" t="n">
         <v>5.34</v>
@@ -10543,7 +10499,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I250" t="n">
         <v>5.34</v>
@@ -10584,7 +10540,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I251" t="n">
         <v>5.34</v>
@@ -10625,7 +10581,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H252" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I252" t="n">
         <v>5.34</v>
@@ -10666,7 +10622,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I253" t="n">
         <v>5.34</v>
@@ -10707,7 +10663,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H254" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I254" t="n">
         <v>5.34</v>
@@ -10748,7 +10704,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I255" t="n">
         <v>5.34</v>
@@ -10789,7 +10745,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I256" t="n">
         <v>5.34</v>
@@ -10830,7 +10786,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I257" t="n">
         <v>5.34</v>
@@ -10871,7 +10827,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I258" t="n">
         <v>5.34</v>
@@ -10912,7 +10868,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I259" t="n">
         <v>5.34</v>
@@ -10953,7 +10909,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I260" t="n">
         <v>5.34</v>
@@ -10994,7 +10950,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I261" t="n">
         <v>5.34</v>
@@ -11035,7 +10991,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I262" t="n">
         <v>5.34</v>
@@ -11076,7 +11032,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H263" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I263" t="n">
         <v>5.34</v>
@@ -11117,7 +11073,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I264" t="n">
         <v>5.34</v>
@@ -11158,7 +11114,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I265" t="n">
         <v>5.34</v>
@@ -11199,7 +11155,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I266" t="n">
         <v>5.34</v>
@@ -11240,7 +11196,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I267" t="n">
         <v>5.34</v>
@@ -11281,7 +11237,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I268" t="n">
         <v>5.34</v>
@@ -11322,7 +11278,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H269" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I269" t="n">
         <v>5.34</v>
@@ -11363,7 +11319,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H270" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I270" t="n">
         <v>5.34</v>
@@ -11404,7 +11360,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H271" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I271" t="n">
         <v>5.34</v>
@@ -11445,7 +11401,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H272" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I272" t="n">
         <v>5.34</v>
@@ -11486,7 +11442,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I273" t="n">
         <v>5.34</v>
@@ -11527,7 +11483,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H274" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I274" t="n">
         <v>5.34</v>
@@ -11568,7 +11524,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H275" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I275" t="n">
         <v>5.34</v>
@@ -11609,7 +11565,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I276" t="n">
         <v>5.34</v>
@@ -11650,7 +11606,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H277" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I277" t="n">
         <v>5.34</v>
@@ -11691,7 +11647,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H278" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I278" t="n">
         <v>5.34</v>
@@ -11732,7 +11688,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H279" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I279" t="n">
         <v>5.34</v>
@@ -11773,7 +11729,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H280" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I280" t="n">
         <v>5.34</v>
@@ -11814,7 +11770,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I281" t="n">
         <v>5.34</v>
@@ -11855,7 +11811,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H282" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I282" t="n">
         <v>5.34</v>
@@ -11896,7 +11852,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H283" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I283" t="n">
         <v>5.34</v>
@@ -11937,7 +11893,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I284" t="n">
         <v>5.34</v>
@@ -11978,7 +11934,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H285" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I285" t="n">
         <v>5.34</v>
@@ -12019,7 +11975,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H286" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I286" t="n">
         <v>5.34</v>
@@ -12060,7 +12016,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H287" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I287" t="n">
         <v>5.34</v>
@@ -12101,7 +12057,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H288" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I288" t="n">
         <v>5.34</v>
@@ -12142,7 +12098,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H289" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I289" t="n">
         <v>5.34</v>
@@ -12183,7 +12139,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H290" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I290" t="n">
         <v>5.34</v>
@@ -12224,7 +12180,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H291" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I291" t="n">
         <v>5.34</v>
@@ -12265,7 +12221,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I292" t="n">
         <v>5.34</v>
@@ -12306,7 +12262,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H293" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I293" t="n">
         <v>5.34</v>
@@ -12347,7 +12303,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I294" t="n">
         <v>5.34</v>
@@ -12388,7 +12344,7 @@
         <v>2790941.5244</v>
       </c>
       <c r="H295" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I295" t="n">
         <v>5.34</v>
@@ -12429,7 +12385,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I296" t="n">
         <v>5.34</v>
@@ -12470,7 +12426,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H297" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I297" t="n">
         <v>5.33</v>
@@ -12511,7 +12467,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H298" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I298" t="n">
         <v>5.33</v>
@@ -12552,7 +12508,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H299" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I299" t="n">
         <v>5.33</v>
@@ -12593,7 +12549,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H300" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I300" t="n">
         <v>5.33</v>
@@ -12634,7 +12590,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I301" t="n">
         <v>5.33</v>
@@ -12675,7 +12631,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H302" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I302" t="n">
         <v>5.33</v>
@@ -12716,7 +12672,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I303" t="n">
         <v>5.33</v>
@@ -12757,7 +12713,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H304" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I304" t="n">
         <v>5.33</v>
@@ -12798,7 +12754,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H305" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I305" t="n">
         <v>5.33</v>
@@ -12839,7 +12795,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H306" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I306" t="n">
         <v>5.33</v>
@@ -12880,7 +12836,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H307" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I307" t="n">
         <v>5.33</v>
@@ -12921,7 +12877,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H308" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I308" t="n">
         <v>5.33</v>
@@ -12962,7 +12918,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H309" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I309" t="n">
         <v>5.33</v>
@@ -13003,7 +12959,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H310" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I310" t="n">
         <v>5.33</v>
@@ -13044,7 +13000,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H311" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I311" t="n">
         <v>5.33</v>
@@ -13085,7 +13041,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H312" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I312" t="n">
         <v>5.33</v>
@@ -13126,7 +13082,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H313" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I313" t="n">
         <v>5.33</v>
@@ -13167,7 +13123,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H314" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I314" t="n">
         <v>5.33</v>
@@ -13208,7 +13164,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H315" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I315" t="n">
         <v>5.33</v>
@@ -13249,7 +13205,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H316" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I316" t="n">
         <v>5.33</v>
@@ -13290,7 +13246,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H317" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I317" t="n">
         <v>5.33</v>
@@ -13331,7 +13287,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I318" t="n">
         <v>5.33</v>
@@ -13372,7 +13328,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H319" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I319" t="n">
         <v>5.33</v>
@@ -13413,7 +13369,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H320" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I320" t="n">
         <v>5.33</v>
@@ -13454,7 +13410,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H321" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I321" t="n">
         <v>5.33</v>
@@ -13495,7 +13451,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H322" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I322" t="n">
         <v>5.33</v>
@@ -13536,7 +13492,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H323" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I323" t="n">
         <v>5.33</v>
@@ -13577,7 +13533,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H324" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I324" t="n">
         <v>5.33</v>
@@ -13618,7 +13574,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H325" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I325" t="n">
         <v>5.33</v>
@@ -13659,7 +13615,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H326" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I326" t="n">
         <v>5.33</v>
@@ -13700,7 +13656,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H327" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I327" t="n">
         <v>5.33</v>
@@ -13741,7 +13697,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H328" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I328" t="n">
         <v>5.33</v>
@@ -13782,7 +13738,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H329" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I329" t="n">
         <v>5.33</v>
@@ -13823,7 +13779,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H330" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I330" t="n">
         <v>5.33</v>
@@ -13864,7 +13820,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H331" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I331" t="n">
         <v>5.33</v>
@@ -13905,7 +13861,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H332" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I332" t="n">
         <v>5.33</v>
@@ -13946,7 +13902,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H333" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I333" t="n">
         <v>5.33</v>
@@ -13987,7 +13943,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H334" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I334" t="n">
         <v>5.33</v>
@@ -14028,7 +13984,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H335" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I335" t="n">
         <v>5.33</v>
@@ -14069,7 +14025,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H336" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I336" t="n">
         <v>5.33</v>
@@ -14110,7 +14066,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H337" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I337" t="n">
         <v>5.33</v>
@@ -14151,7 +14107,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H338" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I338" t="n">
         <v>5.33</v>
@@ -14192,7 +14148,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H339" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I339" t="n">
         <v>5.33</v>
@@ -14233,7 +14189,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H340" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I340" t="n">
         <v>5.33</v>
@@ -14274,7 +14230,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H341" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I341" t="n">
         <v>5.33</v>
@@ -14315,7 +14271,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H342" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I342" t="n">
         <v>5.33</v>
@@ -14356,7 +14312,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H343" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I343" t="n">
         <v>5.33</v>
@@ -14397,7 +14353,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H344" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I344" t="n">
         <v>5.33</v>
@@ -14438,7 +14394,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H345" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I345" t="n">
         <v>5.33</v>
@@ -14479,7 +14435,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H346" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I346" t="n">
         <v>5.33</v>
@@ -14520,7 +14476,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H347" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I347" t="n">
         <v>5.33</v>
@@ -14561,7 +14517,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H348" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I348" t="n">
         <v>5.33</v>
@@ -14602,7 +14558,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H349" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I349" t="n">
         <v>5.33</v>
@@ -14643,7 +14599,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I350" t="n">
         <v>5.33</v>
@@ -14684,7 +14640,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I351" t="n">
         <v>5.33</v>
@@ -14725,7 +14681,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I352" t="n">
         <v>5.33</v>
@@ -14766,7 +14722,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I353" t="n">
         <v>5.33</v>
@@ -14807,7 +14763,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I354" t="n">
         <v>5.33</v>
@@ -14848,7 +14804,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I355" t="n">
         <v>5.33</v>
@@ -14889,7 +14845,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I356" t="n">
         <v>5.33</v>
@@ -14930,7 +14886,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I357" t="n">
         <v>5.33</v>
@@ -14971,7 +14927,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H358" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I358" t="n">
         <v>5.33</v>
@@ -15012,7 +14968,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H359" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I359" t="n">
         <v>5.33</v>
@@ -15053,7 +15009,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H360" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I360" t="n">
         <v>5.33</v>
@@ -15094,7 +15050,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H361" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I361" t="n">
         <v>5.33</v>
@@ -15135,7 +15091,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H362" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I362" t="n">
         <v>5.33</v>
@@ -15176,7 +15132,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I363" t="n">
         <v>5.33</v>
@@ -15217,7 +15173,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I364" t="n">
         <v>5.33</v>
@@ -15258,7 +15214,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I365" t="n">
         <v>5.33</v>
@@ -15299,7 +15255,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I366" t="n">
         <v>5.33</v>
@@ -15340,7 +15296,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I367" t="n">
         <v>5.33</v>
@@ -15381,7 +15337,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I368" t="n">
         <v>5.33</v>
@@ -15422,7 +15378,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I369" t="n">
         <v>5.33</v>
@@ -15463,7 +15419,7 @@
         <v>2783674.9994</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I370" t="n">
         <v>5.33</v>
@@ -15504,7 +15460,7 @@
         <v>3803875.7338</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I371" t="n">
         <v>5.33</v>
@@ -15545,7 +15501,7 @@
         <v>4295164.8776</v>
       </c>
       <c r="H372" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I372" t="n">
         <v>5.35</v>
@@ -15586,7 +15542,7 @@
         <v>4423348.9203</v>
       </c>
       <c r="H373" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I373" t="n">
         <v>5.39</v>
@@ -15627,7 +15583,7 @@
         <v>5031011.167507978</v>
       </c>
       <c r="H374" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I374" t="n">
         <v>5.4</v>
@@ -15668,11 +15624,9 @@
         <v>5895615.866707978</v>
       </c>
       <c r="H375" t="n">
-        <v>2</v>
-      </c>
-      <c r="I375" t="n">
-        <v>5.41</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
       <c r="J375" t="n">
         <v>5.32</v>
       </c>
@@ -15709,11 +15663,9 @@
         <v>5895615.866707978</v>
       </c>
       <c r="H376" t="n">
-        <v>2</v>
-      </c>
-      <c r="I376" t="n">
-        <v>5.45</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
       <c r="J376" t="n">
         <v>5.32</v>
       </c>
@@ -15945,7 +15897,7 @@
         <v>7632753.395141989</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I382" t="inlineStr"/>
       <c r="J382" t="n">
@@ -15984,7 +15936,7 @@
         <v>7555424.868541989</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I383" t="inlineStr"/>
       <c r="J383" t="n">
@@ -16062,7 +16014,7 @@
         <v>8007162.080141988</v>
       </c>
       <c r="H385" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I385" t="inlineStr"/>
       <c r="J385" t="n">
@@ -16101,7 +16053,7 @@
         <v>8007162.080141988</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
@@ -16140,7 +16092,7 @@
         <v>7802958.236241988</v>
       </c>
       <c r="H387" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
@@ -16569,7 +16521,7 @@
         <v>6815756.546741989</v>
       </c>
       <c r="H398" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
@@ -16686,7 +16638,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
       <c r="J401" t="n">
@@ -16725,7 +16677,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
       <c r="J402" t="n">
@@ -16764,7 +16716,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
       <c r="J403" t="n">
@@ -16842,7 +16794,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="n">
@@ -16881,7 +16833,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H406" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
@@ -16920,7 +16872,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H407" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
@@ -16998,7 +16950,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H409" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
@@ -17037,7 +16989,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H410" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
@@ -17076,7 +17028,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H411" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
@@ -17154,7 +17106,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H413" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
@@ -17193,7 +17145,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H414" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
@@ -17232,7 +17184,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H415" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
@@ -17856,7 +17808,7 @@
         <v>7659856.54254199</v>
       </c>
       <c r="H431" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
@@ -17864,11 +17816,11 @@
       </c>
       <c r="K431" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L431" t="n">
-        <v>1.040112781954887</v>
+        <v>1</v>
       </c>
       <c r="M431" t="inlineStr"/>
     </row>
@@ -17898,8 +17850,14 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="inlineStr"/>
-      <c r="K432" t="inlineStr"/>
+      <c r="J432" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K432" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17928,11 +17886,17 @@
         <v>7335350.47104199</v>
       </c>
       <c r="H433" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="inlineStr"/>
-      <c r="K433" t="inlineStr"/>
+      <c r="J433" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K433" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17961,11 +17925,17 @@
         <v>7335350.47104199</v>
       </c>
       <c r="H434" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="inlineStr"/>
-      <c r="K434" t="inlineStr"/>
+      <c r="J434" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K434" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17994,11 +17964,17 @@
         <v>7335350.47104199</v>
       </c>
       <c r="H435" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="inlineStr"/>
-      <c r="K435" t="inlineStr"/>
+      <c r="J435" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K435" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -18027,11 +18003,17 @@
         <v>7335350.47104199</v>
       </c>
       <c r="H436" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="inlineStr"/>
-      <c r="K436" t="inlineStr"/>
+      <c r="J436" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K436" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -18060,11 +18042,17 @@
         <v>7335350.47104199</v>
       </c>
       <c r="H437" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="inlineStr"/>
-      <c r="K437" t="inlineStr"/>
+      <c r="J437" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K437" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -18096,8 +18084,14 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="inlineStr"/>
-      <c r="K438" t="inlineStr"/>
+      <c r="J438" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K438" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -18129,8 +18123,14 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="inlineStr"/>
-      <c r="K439" t="inlineStr"/>
+      <c r="J439" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K439" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -18159,11 +18159,17 @@
         <v>7335350.47104199</v>
       </c>
       <c r="H440" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="inlineStr"/>
-      <c r="K440" t="inlineStr"/>
+      <c r="J440" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K440" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -18192,11 +18198,17 @@
         <v>7508833.821641991</v>
       </c>
       <c r="H441" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="inlineStr"/>
-      <c r="K441" t="inlineStr"/>
+      <c r="J441" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K441" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -18225,11 +18237,17 @@
         <v>7635897.723941991</v>
       </c>
       <c r="H442" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="inlineStr"/>
-      <c r="K442" t="inlineStr"/>
+      <c r="J442" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K442" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -18258,11 +18276,17 @@
         <v>7737109.269541991</v>
       </c>
       <c r="H443" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="inlineStr"/>
-      <c r="K443" t="inlineStr"/>
+      <c r="J443" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K443" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -18291,11 +18315,17 @@
         <v>7900271.825341991</v>
       </c>
       <c r="H444" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="inlineStr"/>
-      <c r="K444" t="inlineStr"/>
+      <c r="J444" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K444" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -18324,11 +18354,17 @@
         <v>8353966.957841991</v>
       </c>
       <c r="H445" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="inlineStr"/>
-      <c r="K445" t="inlineStr"/>
+      <c r="J445" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K445" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -18357,11 +18393,17 @@
         <v>8353966.957841991</v>
       </c>
       <c r="H446" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="inlineStr"/>
-      <c r="K446" t="inlineStr"/>
+      <c r="J446" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K446" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -18390,11 +18432,17 @@
         <v>8353966.957841991</v>
       </c>
       <c r="H447" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="inlineStr"/>
-      <c r="K447" t="inlineStr"/>
+      <c r="J447" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K447" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -18423,11 +18471,17 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H448" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="inlineStr"/>
-      <c r="K448" t="inlineStr"/>
+      <c r="J448" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K448" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -18456,15 +18510,23 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H449" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="inlineStr"/>
-      <c r="K449" t="inlineStr"/>
+      <c r="J449" t="n">
+        <v>5.32</v>
+      </c>
+      <c r="K449" t="inlineStr">
+        <is>
+          <t>매도 체결</t>
+        </is>
+      </c>
       <c r="L449" t="n">
-        <v>1</v>
-      </c>
-      <c r="M449" t="inlineStr"/>
+        <v>1.053270676691729</v>
+      </c>
+      <c r="M449" t="n">
+        <v>1.001883239171375</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -18489,7 +18551,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H450" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -18522,7 +18584,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H451" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -18555,7 +18617,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H452" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -18588,7 +18650,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H453" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -18621,7 +18683,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H454" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -18654,7 +18716,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H455" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -18687,7 +18749,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -18720,7 +18782,7 @@
         <v>8076954.982141992</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -18753,7 +18815,7 @@
         <v>8076954.982141992</v>
       </c>
       <c r="H458" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -18786,7 +18848,7 @@
         <v>7888655.882141992</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -18819,7 +18881,7 @@
         <v>7428899.653641992</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18852,7 +18914,7 @@
         <v>7428899.653641992</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18885,7 +18947,7 @@
         <v>7428899.653641992</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18918,7 +18980,7 @@
         <v>7428899.653641992</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -18951,7 +19013,7 @@
         <v>7288984.029341992</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -18984,7 +19046,7 @@
         <v>6890812.875341992</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -19017,7 +19079,7 @@
         <v>6714167.542441992</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -19050,7 +19112,7 @@
         <v>6714167.542441992</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -19083,7 +19145,7 @@
         <v>6628798.609941992</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -19116,7 +19178,7 @@
         <v>6628798.609941992</v>
       </c>
       <c r="H469" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -19149,7 +19211,7 @@
         <v>6628798.609941992</v>
       </c>
       <c r="H470" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -19182,7 +19244,7 @@
         <v>6628798.609941992</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -19215,7 +19277,7 @@
         <v>6529791.349241992</v>
       </c>
       <c r="H472" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -19248,7 +19310,7 @@
         <v>6529791.349241992</v>
       </c>
       <c r="H473" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -19281,7 +19343,7 @@
         <v>6529791.349241992</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -19314,7 +19376,7 @@
         <v>6529791.349241992</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -19347,7 +19409,7 @@
         <v>6529791.349241992</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -19380,7 +19442,7 @@
         <v>6546396.772641991</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -19413,7 +19475,7 @@
         <v>6546396.772641991</v>
       </c>
       <c r="H478" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -19446,7 +19508,7 @@
         <v>6799607.937241991</v>
       </c>
       <c r="H479" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -19479,7 +19541,7 @@
         <v>7127680.394350884</v>
       </c>
       <c r="H480" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -19512,7 +19574,7 @@
         <v>6996485.647950884</v>
       </c>
       <c r="H481" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -19545,7 +19607,7 @@
         <v>6996485.647950884</v>
       </c>
       <c r="H482" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -19578,7 +19640,7 @@
         <v>7349674.691050884</v>
       </c>
       <c r="H483" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -19611,7 +19673,7 @@
         <v>7349674.691050884</v>
       </c>
       <c r="H484" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -19644,7 +19706,7 @@
         <v>7348838.369650885</v>
       </c>
       <c r="H485" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -19677,7 +19739,7 @@
         <v>7348838.369650885</v>
       </c>
       <c r="H486" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -19710,7 +19772,7 @@
         <v>7348838.369650885</v>
       </c>
       <c r="H487" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -19842,7 +19904,7 @@
         <v>7348838.369650885</v>
       </c>
       <c r="H491" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19875,7 +19937,7 @@
         <v>7348838.369650885</v>
       </c>
       <c r="H492" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -23307,7 +23369,7 @@
         <v>10223968.46414199</v>
       </c>
       <c r="H596" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I596" t="inlineStr"/>
       <c r="J596" t="inlineStr"/>
@@ -23340,7 +23402,7 @@
         <v>10223968.46414199</v>
       </c>
       <c r="H597" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I597" t="inlineStr"/>
       <c r="J597" t="inlineStr"/>
@@ -23439,7 +23501,7 @@
         <v>9931522.926909195</v>
       </c>
       <c r="H600" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I600" t="inlineStr"/>
       <c r="J600" t="inlineStr"/>
@@ -23472,7 +23534,7 @@
         <v>9931522.926909195</v>
       </c>
       <c r="H601" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I601" t="inlineStr"/>
       <c r="J601" t="inlineStr"/>
@@ -23670,7 +23732,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H607" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23703,7 +23765,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H608" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -23736,7 +23798,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H609" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -23769,7 +23831,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H610" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -23802,7 +23864,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H611" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -23835,7 +23897,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H612" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -23868,7 +23930,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H613" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23901,7 +23963,7 @@
         <v>9328230.343809197</v>
       </c>
       <c r="H614" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23934,7 +23996,7 @@
         <v>9328230.343809197</v>
       </c>
       <c r="H615" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23967,7 +24029,7 @@
         <v>9328230.343809197</v>
       </c>
       <c r="H616" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -24000,7 +24062,7 @@
         <v>9327227.334009197</v>
       </c>
       <c r="H617" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -24033,7 +24095,7 @@
         <v>9327227.334009197</v>
       </c>
       <c r="H618" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -24066,7 +24128,7 @@
         <v>9045602.919809196</v>
       </c>
       <c r="H619" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -24099,7 +24161,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H620" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -24132,7 +24194,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H621" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -24165,7 +24227,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H622" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -24198,7 +24260,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H623" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -24231,7 +24293,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H624" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -24264,7 +24326,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H625" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -24297,7 +24359,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H626" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24330,7 +24392,7 @@
         <v>9397976.515909197</v>
       </c>
       <c r="H627" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24363,7 +24425,7 @@
         <v>9397976.515909197</v>
       </c>
       <c r="H628" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -24396,7 +24458,7 @@
         <v>9397976.515909197</v>
       </c>
       <c r="H629" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24429,7 +24491,7 @@
         <v>9397976.515909197</v>
       </c>
       <c r="H630" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24462,7 +24524,7 @@
         <v>9104259.181909196</v>
       </c>
       <c r="H631" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24495,7 +24557,7 @@
         <v>9311238.645209197</v>
       </c>
       <c r="H632" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24528,7 +24590,7 @@
         <v>9311238.645209197</v>
       </c>
       <c r="H633" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24561,7 +24623,7 @@
         <v>9362815.377009196</v>
       </c>
       <c r="H634" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24594,7 +24656,7 @@
         <v>9362815.377009196</v>
       </c>
       <c r="H635" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24627,7 +24689,7 @@
         <v>9362815.377009196</v>
       </c>
       <c r="H636" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -24660,7 +24722,7 @@
         <v>9327029.096609196</v>
       </c>
       <c r="H637" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24693,7 +24755,7 @@
         <v>9327029.096609196</v>
       </c>
       <c r="H638" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -24726,7 +24788,7 @@
         <v>9174871.043809196</v>
       </c>
       <c r="H639" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -24759,7 +24821,7 @@
         <v>9308219.474909196</v>
       </c>
       <c r="H640" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24792,7 +24854,7 @@
         <v>9308219.474909196</v>
       </c>
       <c r="H641" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24825,7 +24887,7 @@
         <v>9308219.474909196</v>
       </c>
       <c r="H642" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24858,7 +24920,7 @@
         <v>9308207.474909196</v>
       </c>
       <c r="H643" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24891,7 +24953,7 @@
         <v>9346503.407609196</v>
       </c>
       <c r="H644" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -24924,7 +24986,7 @@
         <v>9346503.407609196</v>
       </c>
       <c r="H645" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -24957,7 +25019,7 @@
         <v>9264167.715109196</v>
       </c>
       <c r="H646" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -24990,7 +25052,7 @@
         <v>9670424.572809195</v>
       </c>
       <c r="H647" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -25023,7 +25085,7 @@
         <v>9670424.572809195</v>
       </c>
       <c r="H648" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -25056,7 +25118,7 @@
         <v>9670424.572809195</v>
       </c>
       <c r="H649" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -25089,7 +25151,7 @@
         <v>9670413.572809195</v>
       </c>
       <c r="H650" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -25122,7 +25184,7 @@
         <v>9910442.693609195</v>
       </c>
       <c r="H651" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -25155,7 +25217,7 @@
         <v>9910442.693609195</v>
       </c>
       <c r="H652" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -25188,7 +25250,7 @@
         <v>9491450.969309194</v>
       </c>
       <c r="H653" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -25221,7 +25283,7 @@
         <v>9491450.969309194</v>
       </c>
       <c r="H654" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -25254,7 +25316,7 @@
         <v>9491450.969309194</v>
       </c>
       <c r="H655" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -25287,7 +25349,7 @@
         <v>9491450.969309194</v>
       </c>
       <c r="H656" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -25320,7 +25382,7 @@
         <v>9766307.536809195</v>
       </c>
       <c r="H657" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -25353,7 +25415,7 @@
         <v>9766307.536809195</v>
       </c>
       <c r="H658" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -25386,7 +25448,7 @@
         <v>9766307.536809195</v>
       </c>
       <c r="H659" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25419,7 +25481,7 @@
         <v>9482023.132609194</v>
       </c>
       <c r="H660" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -25452,7 +25514,7 @@
         <v>9629746.364509195</v>
       </c>
       <c r="H661" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25485,7 +25547,7 @@
         <v>9629746.364509195</v>
       </c>
       <c r="H662" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -25518,7 +25580,7 @@
         <v>9629746.364509195</v>
       </c>
       <c r="H663" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25551,7 +25613,7 @@
         <v>9629746.364509195</v>
       </c>
       <c r="H664" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -25584,7 +25646,7 @@
         <v>9629746.364509195</v>
       </c>
       <c r="H665" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25617,7 +25679,7 @@
         <v>9629735.364509195</v>
       </c>
       <c r="H666" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25650,7 +25712,7 @@
         <v>9842515.291109195</v>
       </c>
       <c r="H667" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25683,7 +25745,7 @@
         <v>9010929.123809194</v>
       </c>
       <c r="H668" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25716,7 +25778,7 @@
         <v>9010915.123809194</v>
       </c>
       <c r="H669" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25749,7 +25811,7 @@
         <v>9287959.543109193</v>
       </c>
       <c r="H670" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25782,7 +25844,7 @@
         <v>9287946.543109193</v>
       </c>
       <c r="H671" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25815,7 +25877,7 @@
         <v>9334136.188809194</v>
       </c>
       <c r="H672" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25848,7 +25910,7 @@
         <v>9334136.188809194</v>
       </c>
       <c r="H673" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25881,7 +25943,7 @@
         <v>9182546.435009195</v>
       </c>
       <c r="H674" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25914,7 +25976,7 @@
         <v>9391202.631109195</v>
       </c>
       <c r="H675" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -25947,7 +26009,7 @@
         <v>9391202.631109195</v>
       </c>
       <c r="H676" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -25980,7 +26042,7 @@
         <v>9391202.631109195</v>
       </c>
       <c r="H677" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26013,7 +26075,7 @@
         <v>9391189.631109195</v>
       </c>
       <c r="H678" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26046,7 +26108,7 @@
         <v>9664611.607309194</v>
       </c>
       <c r="H679" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26079,7 +26141,7 @@
         <v>9645516.073409194</v>
       </c>
       <c r="H680" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26112,7 +26174,7 @@
         <v>9762052.683009194</v>
       </c>
       <c r="H681" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26145,7 +26207,7 @@
         <v>9850449.193909194</v>
       </c>
       <c r="H682" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26178,7 +26240,7 @@
         <v>9850449.193909194</v>
       </c>
       <c r="H683" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26211,7 +26273,7 @@
         <v>9850449.193909194</v>
       </c>
       <c r="H684" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -26244,7 +26306,7 @@
         <v>9850449.193909194</v>
       </c>
       <c r="H685" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -26277,7 +26339,7 @@
         <v>9850449.193909194</v>
       </c>
       <c r="H686" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -26310,7 +26372,7 @@
         <v>9850449.193909194</v>
       </c>
       <c r="H687" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -26343,7 +26405,7 @@
         <v>9850435.193909194</v>
       </c>
       <c r="H688" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -26376,7 +26438,7 @@
         <v>10164019.54500919</v>
       </c>
       <c r="H689" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -26409,7 +26471,7 @@
         <v>10164019.54500919</v>
       </c>
       <c r="H690" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -26442,7 +26504,7 @@
         <v>9931750.719409194</v>
       </c>
       <c r="H691" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -26475,7 +26537,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H692" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -26508,7 +26570,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H693" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -26541,7 +26603,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H694" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -26574,7 +26636,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H695" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26607,7 +26669,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H696" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26640,7 +26702,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H697" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26673,7 +26735,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H698" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26706,7 +26768,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H699" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26739,7 +26801,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H700" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26772,7 +26834,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H701" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26805,7 +26867,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H702" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26838,7 +26900,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H703" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26871,7 +26933,7 @@
         <v>10032769.42780919</v>
       </c>
       <c r="H704" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26904,7 +26966,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H705" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26937,7 +26999,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H706" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -26970,7 +27032,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H707" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -27003,7 +27065,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H708" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -27036,7 +27098,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H709" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -27069,7 +27131,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H710" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -27102,7 +27164,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H711" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -27135,7 +27197,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H712" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -27168,7 +27230,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H713" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -27201,7 +27263,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H714" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -27234,7 +27296,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H715" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -27267,7 +27329,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H716" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -27300,7 +27362,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H717" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -27333,7 +27395,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H718" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -27366,7 +27428,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H719" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -27399,7 +27461,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H720" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -27432,7 +27494,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H721" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -27465,7 +27527,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H722" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -27498,7 +27560,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H723" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27531,7 +27593,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H724" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27564,7 +27626,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H725" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27597,7 +27659,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H726" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27630,7 +27692,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H727" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27663,7 +27725,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H728" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27696,7 +27758,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H729" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27729,7 +27791,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H730" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27762,7 +27824,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H731" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27795,7 +27857,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H732" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27828,7 +27890,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H733" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27861,7 +27923,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H734" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27894,7 +27956,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H735" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27927,7 +27989,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H736" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -27960,7 +28022,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H737" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -27993,7 +28055,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H738" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -28026,7 +28088,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H739" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -28059,7 +28121,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H740" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -28092,7 +28154,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H741" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -28125,7 +28187,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H742" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -28158,7 +28220,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H743" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -28191,7 +28253,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H744" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -28224,7 +28286,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H745" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -28257,7 +28319,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H746" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -28290,7 +28352,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H747" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -28323,7 +28385,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H748" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -28356,7 +28418,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H749" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -28389,7 +28451,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H750" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -28422,7 +28484,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H751" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -28455,7 +28517,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H752" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -28488,7 +28550,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H753" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -28521,7 +28583,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H754" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -28554,7 +28616,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H755" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -28587,7 +28649,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H756" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28620,7 +28682,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H757" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28653,7 +28715,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H758" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -28686,7 +28748,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H759" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28719,7 +28781,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H760" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -28752,7 +28814,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H761" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28785,7 +28847,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H762" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28818,7 +28880,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H763" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -28851,7 +28913,7 @@
         <v>9792279.465609193</v>
       </c>
       <c r="H764" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28884,7 +28946,7 @@
         <v>9792279.465609193</v>
       </c>
       <c r="H765" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28917,7 +28979,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H766" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -28950,7 +29012,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H767" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -28983,7 +29045,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H768" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -29016,7 +29078,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H769" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -29049,7 +29111,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H770" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -29082,7 +29144,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H771" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -29115,7 +29177,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H772" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -29148,7 +29210,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H773" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -29181,7 +29243,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H774" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -29214,7 +29276,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H775" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -29247,7 +29309,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H776" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -29280,7 +29342,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H777" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -29313,7 +29375,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H778" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -29346,7 +29408,7 @@
         <v>9696320.045309193</v>
       </c>
       <c r="H779" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -29379,7 +29441,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H780" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -29412,7 +29474,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H781" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -29445,7 +29507,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H782" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -29478,7 +29540,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H783" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -29511,7 +29573,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H784" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -29544,7 +29606,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H785" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -29577,7 +29639,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H786" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -29610,7 +29672,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H787" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -29643,7 +29705,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H788" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -29676,7 +29738,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H789" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29709,7 +29771,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H790" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -29742,7 +29804,7 @@
         <v>10360570.73960919</v>
       </c>
       <c r="H791" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -29775,7 +29837,7 @@
         <v>10360570.73960919</v>
       </c>
       <c r="H792" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -29808,7 +29870,7 @@
         <v>10360570.73960919</v>
       </c>
       <c r="H793" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -29841,7 +29903,7 @@
         <v>10360570.73960919</v>
       </c>
       <c r="H794" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29874,7 +29936,7 @@
         <v>10360570.73960919</v>
       </c>
       <c r="H795" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -29907,7 +29969,7 @@
         <v>10360570.73960919</v>
       </c>
       <c r="H796" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -29940,7 +30002,7 @@
         <v>10149026.10630919</v>
       </c>
       <c r="H797" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -29973,7 +30035,7 @@
         <v>10149026.10630919</v>
       </c>
       <c r="H798" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -30006,7 +30068,7 @@
         <v>9197147.621909192</v>
       </c>
       <c r="H799" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -30039,7 +30101,7 @@
         <v>9197147.621909192</v>
       </c>
       <c r="H800" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -30072,7 +30134,7 @@
         <v>9171945.004909191</v>
       </c>
       <c r="H801" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -30105,7 +30167,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H802" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -30138,7 +30200,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H803" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -30171,7 +30233,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H804" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -30204,7 +30266,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H805" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -30237,7 +30299,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H806" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -30270,7 +30332,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H807" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -30303,7 +30365,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H808" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -30336,7 +30398,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H809" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -30369,7 +30431,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H810" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -30402,7 +30464,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H811" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -30435,7 +30497,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H812" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -30468,7 +30530,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H813" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -30501,7 +30563,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H814" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -30534,7 +30596,7 @@
         <v>9244636.241409192</v>
       </c>
       <c r="H815" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -30567,7 +30629,7 @@
         <v>9244636.241409192</v>
       </c>
       <c r="H816" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -30633,7 +30695,7 @@
         <v>9244636.241409192</v>
       </c>
       <c r="H818" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -30666,7 +30728,7 @@
         <v>9012072.725409191</v>
       </c>
       <c r="H819" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -30699,7 +30761,7 @@
         <v>7951173.627909191</v>
       </c>
       <c r="H820" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -37629,7 +37691,7 @@
         <v>10247760.47850919</v>
       </c>
       <c r="H1030" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -37695,7 +37757,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1032" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -37893,7 +37955,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1038" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -37926,7 +37988,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1039" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -38025,7 +38087,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1042" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -38058,7 +38120,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1043" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -38091,7 +38153,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1044" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -38124,7 +38186,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1045" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -38157,7 +38219,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1046" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -38256,7 +38318,7 @@
         <v>9995119.921409186</v>
       </c>
       <c r="H1049" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -38322,7 +38384,7 @@
         <v>9995119.921409186</v>
       </c>
       <c r="H1051" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -38751,7 +38813,7 @@
         <v>11486989.62610918</v>
       </c>
       <c r="H1064" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1064" t="inlineStr"/>
       <c r="J1064" t="inlineStr"/>
@@ -38784,7 +38846,7 @@
         <v>11471323.30450919</v>
       </c>
       <c r="H1065" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1065" t="inlineStr"/>
       <c r="J1065" t="inlineStr"/>
@@ -38817,7 +38879,7 @@
         <v>11471323.30450919</v>
       </c>
       <c r="H1066" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1066" t="inlineStr"/>
       <c r="J1066" t="inlineStr"/>
@@ -38850,7 +38912,7 @@
         <v>11471323.30450919</v>
       </c>
       <c r="H1067" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I1067" t="inlineStr"/>
       <c r="J1067" t="inlineStr"/>
@@ -38861,6 +38923,6 @@
       <c r="M1067" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest CON.xlsx
+++ b/BackTest/2019-10-27 BackTest CON.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -890,9 +890,11 @@
         <v>2020179.1727</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
-      </c>
-      <c r="I13" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I13" t="n">
+        <v>5.33</v>
+      </c>
       <c r="J13" t="n">
         <v>5.32</v>
       </c>
@@ -970,9 +972,11 @@
         <v>2210639.1553</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
-      </c>
-      <c r="I15" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I15" t="n">
+        <v>5.33</v>
+      </c>
       <c r="J15" t="n">
         <v>5.32</v>
       </c>
@@ -1089,11 +1093,9 @@
         <v>2350932.808</v>
       </c>
       <c r="H18" t="n">
-        <v>1</v>
-      </c>
-      <c r="I18" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I18" t="inlineStr"/>
       <c r="J18" t="n">
         <v>5.32</v>
       </c>
@@ -1208,11 +1210,9 @@
         <v>2648785.6067</v>
       </c>
       <c r="H21" t="n">
-        <v>1</v>
-      </c>
-      <c r="I21" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I21" t="inlineStr"/>
       <c r="J21" t="n">
         <v>5.32</v>
       </c>
@@ -2614,11 +2614,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H57" t="n">
-        <v>1</v>
-      </c>
-      <c r="I57" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I57" t="inlineStr"/>
       <c r="J57" t="n">
         <v>5.32</v>
       </c>
@@ -3006,11 +3004,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H67" t="n">
-        <v>1</v>
-      </c>
-      <c r="I67" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I67" t="inlineStr"/>
       <c r="J67" t="n">
         <v>5.32</v>
       </c>
@@ -3047,11 +3043,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H68" t="n">
-        <v>1</v>
-      </c>
-      <c r="I68" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I68" t="inlineStr"/>
       <c r="J68" t="n">
         <v>5.32</v>
       </c>
@@ -3088,11 +3082,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H69" t="n">
-        <v>1</v>
-      </c>
-      <c r="I69" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I69" t="inlineStr"/>
       <c r="J69" t="n">
         <v>5.32</v>
       </c>
@@ -3168,11 +3160,9 @@
         <v>3037709.5186</v>
       </c>
       <c r="H71" t="n">
-        <v>1</v>
-      </c>
-      <c r="I71" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I71" t="inlineStr"/>
       <c r="J71" t="n">
         <v>5.32</v>
       </c>
@@ -3365,11 +3355,9 @@
         <v>2848409.9837</v>
       </c>
       <c r="H76" t="n">
-        <v>1</v>
-      </c>
-      <c r="I76" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I76" t="inlineStr"/>
       <c r="J76" t="n">
         <v>5.32</v>
       </c>
@@ -3406,11 +3394,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H77" t="n">
-        <v>1</v>
-      </c>
-      <c r="I77" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I77" t="inlineStr"/>
       <c r="J77" t="n">
         <v>5.32</v>
       </c>
@@ -3447,11 +3433,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H78" t="n">
-        <v>1</v>
-      </c>
-      <c r="I78" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I78" t="inlineStr"/>
       <c r="J78" t="n">
         <v>5.32</v>
       </c>
@@ -3488,11 +3472,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H79" t="n">
-        <v>1</v>
-      </c>
-      <c r="I79" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I79" t="inlineStr"/>
       <c r="J79" t="n">
         <v>5.32</v>
       </c>
@@ -3529,11 +3511,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H80" t="n">
-        <v>1</v>
-      </c>
-      <c r="I80" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I80" t="inlineStr"/>
       <c r="J80" t="n">
         <v>5.32</v>
       </c>
@@ -3570,11 +3550,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H81" t="n">
-        <v>1</v>
-      </c>
-      <c r="I81" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I81" t="inlineStr"/>
       <c r="J81" t="n">
         <v>5.32</v>
       </c>
@@ -3611,11 +3589,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H82" t="n">
-        <v>1</v>
-      </c>
-      <c r="I82" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I82" t="inlineStr"/>
       <c r="J82" t="n">
         <v>5.32</v>
       </c>
@@ -3652,11 +3628,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H83" t="n">
-        <v>1</v>
-      </c>
-      <c r="I83" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I83" t="inlineStr"/>
       <c r="J83" t="n">
         <v>5.32</v>
       </c>
@@ -3693,11 +3667,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H84" t="n">
-        <v>1</v>
-      </c>
-      <c r="I84" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I84" t="inlineStr"/>
       <c r="J84" t="n">
         <v>5.32</v>
       </c>
@@ -3734,11 +3706,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H85" t="n">
-        <v>1</v>
-      </c>
-      <c r="I85" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I85" t="inlineStr"/>
       <c r="J85" t="n">
         <v>5.32</v>
       </c>
@@ -3775,11 +3745,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H86" t="n">
-        <v>1</v>
-      </c>
-      <c r="I86" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I86" t="inlineStr"/>
       <c r="J86" t="n">
         <v>5.32</v>
       </c>
@@ -3816,11 +3784,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H87" t="n">
-        <v>1</v>
-      </c>
-      <c r="I87" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I87" t="inlineStr"/>
       <c r="J87" t="n">
         <v>5.32</v>
       </c>
@@ -3857,11 +3823,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H88" t="n">
-        <v>1</v>
-      </c>
-      <c r="I88" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I88" t="inlineStr"/>
       <c r="J88" t="n">
         <v>5.32</v>
       </c>
@@ -3898,11 +3862,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H89" t="n">
-        <v>1</v>
-      </c>
-      <c r="I89" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I89" t="inlineStr"/>
       <c r="J89" t="n">
         <v>5.32</v>
       </c>
@@ -3939,11 +3901,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H90" t="n">
-        <v>1</v>
-      </c>
-      <c r="I90" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I90" t="inlineStr"/>
       <c r="J90" t="n">
         <v>5.32</v>
       </c>
@@ -3980,11 +3940,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H91" t="n">
-        <v>1</v>
-      </c>
-      <c r="I91" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I91" t="inlineStr"/>
       <c r="J91" t="n">
         <v>5.32</v>
       </c>
@@ -4021,11 +3979,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H92" t="n">
-        <v>1</v>
-      </c>
-      <c r="I92" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I92" t="inlineStr"/>
       <c r="J92" t="n">
         <v>5.32</v>
       </c>
@@ -4062,11 +4018,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H93" t="n">
-        <v>1</v>
-      </c>
-      <c r="I93" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I93" t="inlineStr"/>
       <c r="J93" t="n">
         <v>5.32</v>
       </c>
@@ -4103,11 +4057,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H94" t="n">
-        <v>1</v>
-      </c>
-      <c r="I94" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I94" t="inlineStr"/>
       <c r="J94" t="n">
         <v>5.32</v>
       </c>
@@ -4144,11 +4096,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H95" t="n">
-        <v>1</v>
-      </c>
-      <c r="I95" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I95" t="inlineStr"/>
       <c r="J95" t="n">
         <v>5.32</v>
       </c>
@@ -4185,11 +4135,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H96" t="n">
-        <v>1</v>
-      </c>
-      <c r="I96" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I96" t="inlineStr"/>
       <c r="J96" t="n">
         <v>5.32</v>
       </c>
@@ -4226,11 +4174,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H97" t="n">
-        <v>1</v>
-      </c>
-      <c r="I97" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I97" t="inlineStr"/>
       <c r="J97" t="n">
         <v>5.32</v>
       </c>
@@ -4267,11 +4213,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H98" t="n">
-        <v>1</v>
-      </c>
-      <c r="I98" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I98" t="inlineStr"/>
       <c r="J98" t="n">
         <v>5.32</v>
       </c>
@@ -4308,11 +4252,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H99" t="n">
-        <v>1</v>
-      </c>
-      <c r="I99" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I99" t="inlineStr"/>
       <c r="J99" t="n">
         <v>5.32</v>
       </c>
@@ -4349,11 +4291,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H100" t="n">
-        <v>1</v>
-      </c>
-      <c r="I100" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I100" t="inlineStr"/>
       <c r="J100" t="n">
         <v>5.32</v>
       </c>
@@ -4390,11 +4330,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H101" t="n">
-        <v>1</v>
-      </c>
-      <c r="I101" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I101" t="inlineStr"/>
       <c r="J101" t="n">
         <v>5.32</v>
       </c>
@@ -4431,11 +4369,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
-      </c>
-      <c r="I102" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I102" t="inlineStr"/>
       <c r="J102" t="n">
         <v>5.32</v>
       </c>
@@ -4472,11 +4408,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H103" t="n">
-        <v>1</v>
-      </c>
-      <c r="I103" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I103" t="inlineStr"/>
       <c r="J103" t="n">
         <v>5.32</v>
       </c>
@@ -4513,11 +4447,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H104" t="n">
-        <v>1</v>
-      </c>
-      <c r="I104" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I104" t="inlineStr"/>
       <c r="J104" t="n">
         <v>5.32</v>
       </c>
@@ -4554,11 +4486,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H105" t="n">
-        <v>1</v>
-      </c>
-      <c r="I105" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I105" t="inlineStr"/>
       <c r="J105" t="n">
         <v>5.32</v>
       </c>
@@ -4595,11 +4525,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H106" t="n">
-        <v>1</v>
-      </c>
-      <c r="I106" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I106" t="inlineStr"/>
       <c r="J106" t="n">
         <v>5.32</v>
       </c>
@@ -4636,11 +4564,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H107" t="n">
-        <v>1</v>
-      </c>
-      <c r="I107" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I107" t="inlineStr"/>
       <c r="J107" t="n">
         <v>5.32</v>
       </c>
@@ -4677,11 +4603,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H108" t="n">
-        <v>1</v>
-      </c>
-      <c r="I108" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I108" t="inlineStr"/>
       <c r="J108" t="n">
         <v>5.32</v>
       </c>
@@ -4718,11 +4642,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H109" t="n">
-        <v>1</v>
-      </c>
-      <c r="I109" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I109" t="inlineStr"/>
       <c r="J109" t="n">
         <v>5.32</v>
       </c>
@@ -4759,11 +4681,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H110" t="n">
-        <v>1</v>
-      </c>
-      <c r="I110" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I110" t="inlineStr"/>
       <c r="J110" t="n">
         <v>5.32</v>
       </c>
@@ -4800,11 +4720,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H111" t="n">
-        <v>1</v>
-      </c>
-      <c r="I111" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I111" t="inlineStr"/>
       <c r="J111" t="n">
         <v>5.32</v>
       </c>
@@ -4841,11 +4759,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H112" t="n">
-        <v>1</v>
-      </c>
-      <c r="I112" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I112" t="inlineStr"/>
       <c r="J112" t="n">
         <v>5.32</v>
       </c>
@@ -4882,11 +4798,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H113" t="n">
-        <v>1</v>
-      </c>
-      <c r="I113" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I113" t="inlineStr"/>
       <c r="J113" t="n">
         <v>5.32</v>
       </c>
@@ -4923,11 +4837,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H114" t="n">
-        <v>1</v>
-      </c>
-      <c r="I114" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I114" t="inlineStr"/>
       <c r="J114" t="n">
         <v>5.32</v>
       </c>
@@ -4964,11 +4876,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H115" t="n">
-        <v>1</v>
-      </c>
-      <c r="I115" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I115" t="inlineStr"/>
       <c r="J115" t="n">
         <v>5.32</v>
       </c>
@@ -5005,11 +4915,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H116" t="n">
-        <v>1</v>
-      </c>
-      <c r="I116" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I116" t="inlineStr"/>
       <c r="J116" t="n">
         <v>5.32</v>
       </c>
@@ -5046,11 +4954,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H117" t="n">
-        <v>1</v>
-      </c>
-      <c r="I117" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I117" t="inlineStr"/>
       <c r="J117" t="n">
         <v>5.32</v>
       </c>
@@ -5087,11 +4993,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H118" t="n">
-        <v>1</v>
-      </c>
-      <c r="I118" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I118" t="inlineStr"/>
       <c r="J118" t="n">
         <v>5.32</v>
       </c>
@@ -5128,11 +5032,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H119" t="n">
-        <v>1</v>
-      </c>
-      <c r="I119" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I119" t="inlineStr"/>
       <c r="J119" t="n">
         <v>5.32</v>
       </c>
@@ -5169,11 +5071,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H120" t="n">
-        <v>1</v>
-      </c>
-      <c r="I120" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I120" t="inlineStr"/>
       <c r="J120" t="n">
         <v>5.32</v>
       </c>
@@ -5210,11 +5110,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H121" t="n">
-        <v>1</v>
-      </c>
-      <c r="I121" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I121" t="inlineStr"/>
       <c r="J121" t="n">
         <v>5.32</v>
       </c>
@@ -5251,11 +5149,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H122" t="n">
-        <v>1</v>
-      </c>
-      <c r="I122" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I122" t="inlineStr"/>
       <c r="J122" t="n">
         <v>5.32</v>
       </c>
@@ -5292,11 +5188,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H123" t="n">
-        <v>1</v>
-      </c>
-      <c r="I123" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I123" t="inlineStr"/>
       <c r="J123" t="n">
         <v>5.32</v>
       </c>
@@ -5333,11 +5227,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H124" t="n">
-        <v>1</v>
-      </c>
-      <c r="I124" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I124" t="inlineStr"/>
       <c r="J124" t="n">
         <v>5.32</v>
       </c>
@@ -5374,11 +5266,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H125" t="n">
-        <v>1</v>
-      </c>
-      <c r="I125" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I125" t="inlineStr"/>
       <c r="J125" t="n">
         <v>5.32</v>
       </c>
@@ -5415,11 +5305,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H126" t="n">
-        <v>1</v>
-      </c>
-      <c r="I126" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I126" t="inlineStr"/>
       <c r="J126" t="n">
         <v>5.32</v>
       </c>
@@ -5456,11 +5344,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H127" t="n">
-        <v>1</v>
-      </c>
-      <c r="I127" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I127" t="inlineStr"/>
       <c r="J127" t="n">
         <v>5.32</v>
       </c>
@@ -5497,11 +5383,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H128" t="n">
-        <v>1</v>
-      </c>
-      <c r="I128" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I128" t="inlineStr"/>
       <c r="J128" t="n">
         <v>5.32</v>
       </c>
@@ -5538,11 +5422,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H129" t="n">
-        <v>1</v>
-      </c>
-      <c r="I129" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I129" t="inlineStr"/>
       <c r="J129" t="n">
         <v>5.32</v>
       </c>
@@ -5579,11 +5461,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H130" t="n">
-        <v>1</v>
-      </c>
-      <c r="I130" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I130" t="inlineStr"/>
       <c r="J130" t="n">
         <v>5.32</v>
       </c>
@@ -5620,11 +5500,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H131" t="n">
-        <v>1</v>
-      </c>
-      <c r="I131" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I131" t="inlineStr"/>
       <c r="J131" t="n">
         <v>5.32</v>
       </c>
@@ -5661,11 +5539,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H132" t="n">
-        <v>1</v>
-      </c>
-      <c r="I132" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I132" t="inlineStr"/>
       <c r="J132" t="n">
         <v>5.32</v>
       </c>
@@ -5702,11 +5578,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H133" t="n">
-        <v>1</v>
-      </c>
-      <c r="I133" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I133" t="inlineStr"/>
       <c r="J133" t="n">
         <v>5.32</v>
       </c>
@@ -5743,11 +5617,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H134" t="n">
-        <v>1</v>
-      </c>
-      <c r="I134" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I134" t="inlineStr"/>
       <c r="J134" t="n">
         <v>5.32</v>
       </c>
@@ -5784,11 +5656,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H135" t="n">
-        <v>1</v>
-      </c>
-      <c r="I135" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I135" t="inlineStr"/>
       <c r="J135" t="n">
         <v>5.32</v>
       </c>
@@ -5825,11 +5695,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H136" t="n">
-        <v>1</v>
-      </c>
-      <c r="I136" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I136" t="inlineStr"/>
       <c r="J136" t="n">
         <v>5.32</v>
       </c>
@@ -5866,11 +5734,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H137" t="n">
-        <v>1</v>
-      </c>
-      <c r="I137" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I137" t="inlineStr"/>
       <c r="J137" t="n">
         <v>5.32</v>
       </c>
@@ -5907,11 +5773,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H138" t="n">
-        <v>1</v>
-      </c>
-      <c r="I138" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I138" t="inlineStr"/>
       <c r="J138" t="n">
         <v>5.32</v>
       </c>
@@ -5948,11 +5812,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H139" t="n">
-        <v>1</v>
-      </c>
-      <c r="I139" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I139" t="inlineStr"/>
       <c r="J139" t="n">
         <v>5.32</v>
       </c>
@@ -5989,11 +5851,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H140" t="n">
-        <v>1</v>
-      </c>
-      <c r="I140" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I140" t="inlineStr"/>
       <c r="J140" t="n">
         <v>5.32</v>
       </c>
@@ -6030,11 +5890,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H141" t="n">
-        <v>1</v>
-      </c>
-      <c r="I141" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I141" t="inlineStr"/>
       <c r="J141" t="n">
         <v>5.32</v>
       </c>
@@ -6071,11 +5929,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H142" t="n">
-        <v>1</v>
-      </c>
-      <c r="I142" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I142" t="inlineStr"/>
       <c r="J142" t="n">
         <v>5.32</v>
       </c>
@@ -6112,11 +5968,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H143" t="n">
-        <v>1</v>
-      </c>
-      <c r="I143" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I143" t="inlineStr"/>
       <c r="J143" t="n">
         <v>5.32</v>
       </c>
@@ -6153,11 +6007,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H144" t="n">
-        <v>1</v>
-      </c>
-      <c r="I144" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I144" t="inlineStr"/>
       <c r="J144" t="n">
         <v>5.32</v>
       </c>
@@ -6194,11 +6046,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H145" t="n">
-        <v>1</v>
-      </c>
-      <c r="I145" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I145" t="inlineStr"/>
       <c r="J145" t="n">
         <v>5.32</v>
       </c>
@@ -6235,11 +6085,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H146" t="n">
-        <v>1</v>
-      </c>
-      <c r="I146" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I146" t="inlineStr"/>
       <c r="J146" t="n">
         <v>5.32</v>
       </c>
@@ -6276,11 +6124,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H147" t="n">
-        <v>1</v>
-      </c>
-      <c r="I147" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I147" t="inlineStr"/>
       <c r="J147" t="n">
         <v>5.32</v>
       </c>
@@ -6317,11 +6163,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H148" t="n">
-        <v>1</v>
-      </c>
-      <c r="I148" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I148" t="inlineStr"/>
       <c r="J148" t="n">
         <v>5.32</v>
       </c>
@@ -6358,11 +6202,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H149" t="n">
-        <v>1</v>
-      </c>
-      <c r="I149" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I149" t="inlineStr"/>
       <c r="J149" t="n">
         <v>5.32</v>
       </c>
@@ -6399,11 +6241,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H150" t="n">
-        <v>1</v>
-      </c>
-      <c r="I150" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I150" t="inlineStr"/>
       <c r="J150" t="n">
         <v>5.32</v>
       </c>
@@ -6440,11 +6280,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H151" t="n">
-        <v>1</v>
-      </c>
-      <c r="I151" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I151" t="inlineStr"/>
       <c r="J151" t="n">
         <v>5.32</v>
       </c>
@@ -6481,11 +6319,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H152" t="n">
-        <v>1</v>
-      </c>
-      <c r="I152" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I152" t="inlineStr"/>
       <c r="J152" t="n">
         <v>5.32</v>
       </c>
@@ -6522,11 +6358,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H153" t="n">
-        <v>1</v>
-      </c>
-      <c r="I153" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I153" t="inlineStr"/>
       <c r="J153" t="n">
         <v>5.32</v>
       </c>
@@ -6563,11 +6397,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H154" t="n">
-        <v>1</v>
-      </c>
-      <c r="I154" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I154" t="inlineStr"/>
       <c r="J154" t="n">
         <v>5.32</v>
       </c>
@@ -6604,11 +6436,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H155" t="n">
-        <v>1</v>
-      </c>
-      <c r="I155" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I155" t="inlineStr"/>
       <c r="J155" t="n">
         <v>5.32</v>
       </c>
@@ -6645,11 +6475,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H156" t="n">
-        <v>1</v>
-      </c>
-      <c r="I156" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I156" t="inlineStr"/>
       <c r="J156" t="n">
         <v>5.32</v>
       </c>
@@ -6686,11 +6514,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H157" t="n">
-        <v>1</v>
-      </c>
-      <c r="I157" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I157" t="inlineStr"/>
       <c r="J157" t="n">
         <v>5.32</v>
       </c>
@@ -6727,11 +6553,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H158" t="n">
-        <v>1</v>
-      </c>
-      <c r="I158" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I158" t="inlineStr"/>
       <c r="J158" t="n">
         <v>5.32</v>
       </c>
@@ -6768,11 +6592,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H159" t="n">
-        <v>1</v>
-      </c>
-      <c r="I159" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I159" t="inlineStr"/>
       <c r="J159" t="n">
         <v>5.32</v>
       </c>
@@ -6809,11 +6631,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H160" t="n">
-        <v>1</v>
-      </c>
-      <c r="I160" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I160" t="inlineStr"/>
       <c r="J160" t="n">
         <v>5.32</v>
       </c>
@@ -6850,11 +6670,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H161" t="n">
-        <v>1</v>
-      </c>
-      <c r="I161" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I161" t="inlineStr"/>
       <c r="J161" t="n">
         <v>5.32</v>
       </c>
@@ -6891,11 +6709,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H162" t="n">
-        <v>1</v>
-      </c>
-      <c r="I162" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I162" t="inlineStr"/>
       <c r="J162" t="n">
         <v>5.32</v>
       </c>
@@ -6932,11 +6748,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H163" t="n">
-        <v>1</v>
-      </c>
-      <c r="I163" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I163" t="inlineStr"/>
       <c r="J163" t="n">
         <v>5.32</v>
       </c>
@@ -6973,11 +6787,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H164" t="n">
-        <v>1</v>
-      </c>
-      <c r="I164" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I164" t="inlineStr"/>
       <c r="J164" t="n">
         <v>5.32</v>
       </c>
@@ -7014,11 +6826,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H165" t="n">
-        <v>1</v>
-      </c>
-      <c r="I165" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I165" t="inlineStr"/>
       <c r="J165" t="n">
         <v>5.32</v>
       </c>
@@ -7055,11 +6865,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H166" t="n">
-        <v>1</v>
-      </c>
-      <c r="I166" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I166" t="inlineStr"/>
       <c r="J166" t="n">
         <v>5.32</v>
       </c>
@@ -7096,11 +6904,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H167" t="n">
-        <v>1</v>
-      </c>
-      <c r="I167" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I167" t="inlineStr"/>
       <c r="J167" t="n">
         <v>5.32</v>
       </c>
@@ -7137,11 +6943,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H168" t="n">
-        <v>1</v>
-      </c>
-      <c r="I168" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I168" t="inlineStr"/>
       <c r="J168" t="n">
         <v>5.32</v>
       </c>
@@ -7178,11 +6982,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H169" t="n">
-        <v>1</v>
-      </c>
-      <c r="I169" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I169" t="inlineStr"/>
       <c r="J169" t="n">
         <v>5.32</v>
       </c>
@@ -7219,11 +7021,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H170" t="n">
-        <v>1</v>
-      </c>
-      <c r="I170" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I170" t="inlineStr"/>
       <c r="J170" t="n">
         <v>5.32</v>
       </c>
@@ -7260,11 +7060,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H171" t="n">
-        <v>1</v>
-      </c>
-      <c r="I171" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I171" t="inlineStr"/>
       <c r="J171" t="n">
         <v>5.32</v>
       </c>
@@ -7301,11 +7099,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H172" t="n">
-        <v>1</v>
-      </c>
-      <c r="I172" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I172" t="inlineStr"/>
       <c r="J172" t="n">
         <v>5.32</v>
       </c>
@@ -7342,11 +7138,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H173" t="n">
-        <v>1</v>
-      </c>
-      <c r="I173" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I173" t="inlineStr"/>
       <c r="J173" t="n">
         <v>5.32</v>
       </c>
@@ -7383,11 +7177,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H174" t="n">
-        <v>1</v>
-      </c>
-      <c r="I174" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I174" t="inlineStr"/>
       <c r="J174" t="n">
         <v>5.32</v>
       </c>
@@ -7424,11 +7216,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H175" t="n">
-        <v>1</v>
-      </c>
-      <c r="I175" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I175" t="inlineStr"/>
       <c r="J175" t="n">
         <v>5.32</v>
       </c>
@@ -7465,11 +7255,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H176" t="n">
-        <v>1</v>
-      </c>
-      <c r="I176" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I176" t="inlineStr"/>
       <c r="J176" t="n">
         <v>5.32</v>
       </c>
@@ -7506,11 +7294,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H177" t="n">
-        <v>1</v>
-      </c>
-      <c r="I177" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I177" t="inlineStr"/>
       <c r="J177" t="n">
         <v>5.32</v>
       </c>
@@ -7547,11 +7333,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H178" t="n">
-        <v>1</v>
-      </c>
-      <c r="I178" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I178" t="inlineStr"/>
       <c r="J178" t="n">
         <v>5.32</v>
       </c>
@@ -7588,11 +7372,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H179" t="n">
-        <v>1</v>
-      </c>
-      <c r="I179" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I179" t="inlineStr"/>
       <c r="J179" t="n">
         <v>5.32</v>
       </c>
@@ -7629,11 +7411,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H180" t="n">
-        <v>1</v>
-      </c>
-      <c r="I180" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I180" t="inlineStr"/>
       <c r="J180" t="n">
         <v>5.32</v>
       </c>
@@ -7670,11 +7450,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H181" t="n">
-        <v>1</v>
-      </c>
-      <c r="I181" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I181" t="inlineStr"/>
       <c r="J181" t="n">
         <v>5.32</v>
       </c>
@@ -7711,11 +7489,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H182" t="n">
-        <v>1</v>
-      </c>
-      <c r="I182" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I182" t="inlineStr"/>
       <c r="J182" t="n">
         <v>5.32</v>
       </c>
@@ -7752,11 +7528,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H183" t="n">
-        <v>1</v>
-      </c>
-      <c r="I183" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I183" t="inlineStr"/>
       <c r="J183" t="n">
         <v>5.32</v>
       </c>
@@ -7793,11 +7567,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H184" t="n">
-        <v>1</v>
-      </c>
-      <c r="I184" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I184" t="inlineStr"/>
       <c r="J184" t="n">
         <v>5.32</v>
       </c>
@@ -7834,11 +7606,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H185" t="n">
-        <v>1</v>
-      </c>
-      <c r="I185" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I185" t="inlineStr"/>
       <c r="J185" t="n">
         <v>5.32</v>
       </c>
@@ -7875,11 +7645,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H186" t="n">
-        <v>1</v>
-      </c>
-      <c r="I186" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I186" t="inlineStr"/>
       <c r="J186" t="n">
         <v>5.32</v>
       </c>
@@ -7916,11 +7684,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H187" t="n">
-        <v>1</v>
-      </c>
-      <c r="I187" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I187" t="inlineStr"/>
       <c r="J187" t="n">
         <v>5.32</v>
       </c>
@@ -7957,11 +7723,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
-      </c>
-      <c r="I188" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I188" t="inlineStr"/>
       <c r="J188" t="n">
         <v>5.32</v>
       </c>
@@ -7998,11 +7762,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
-      </c>
-      <c r="I189" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I189" t="inlineStr"/>
       <c r="J189" t="n">
         <v>5.32</v>
       </c>
@@ -8039,11 +7801,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
-      </c>
-      <c r="I190" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I190" t="inlineStr"/>
       <c r="J190" t="n">
         <v>5.32</v>
       </c>
@@ -8080,11 +7840,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H191" t="n">
-        <v>1</v>
-      </c>
-      <c r="I191" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I191" t="inlineStr"/>
       <c r="J191" t="n">
         <v>5.32</v>
       </c>
@@ -8121,11 +7879,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H192" t="n">
-        <v>1</v>
-      </c>
-      <c r="I192" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I192" t="inlineStr"/>
       <c r="J192" t="n">
         <v>5.32</v>
       </c>
@@ -8162,11 +7918,9 @@
         <v>2897026.4008</v>
       </c>
       <c r="H193" t="n">
-        <v>1</v>
-      </c>
-      <c r="I193" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I193" t="inlineStr"/>
       <c r="J193" t="n">
         <v>5.32</v>
       </c>
@@ -8203,11 +7957,9 @@
         <v>2602586.0419</v>
       </c>
       <c r="H194" t="n">
-        <v>1</v>
-      </c>
-      <c r="I194" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I194" t="inlineStr"/>
       <c r="J194" t="n">
         <v>5.32</v>
       </c>
@@ -8244,11 +7996,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H195" t="n">
-        <v>1</v>
-      </c>
-      <c r="I195" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I195" t="inlineStr"/>
       <c r="J195" t="n">
         <v>5.32</v>
       </c>
@@ -8285,11 +8035,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H196" t="n">
-        <v>1</v>
-      </c>
-      <c r="I196" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I196" t="inlineStr"/>
       <c r="J196" t="n">
         <v>5.32</v>
       </c>
@@ -8449,11 +8197,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
-      </c>
-      <c r="I200" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I200" t="inlineStr"/>
       <c r="J200" t="n">
         <v>5.32</v>
       </c>
@@ -8490,11 +8236,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H201" t="n">
-        <v>1</v>
-      </c>
-      <c r="I201" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I201" t="inlineStr"/>
       <c r="J201" t="n">
         <v>5.32</v>
       </c>
@@ -8531,11 +8275,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H202" t="n">
-        <v>1</v>
-      </c>
-      <c r="I202" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I202" t="inlineStr"/>
       <c r="J202" t="n">
         <v>5.32</v>
       </c>
@@ -8572,11 +8314,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H203" t="n">
-        <v>1</v>
-      </c>
-      <c r="I203" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I203" t="inlineStr"/>
       <c r="J203" t="n">
         <v>5.32</v>
       </c>
@@ -8613,11 +8353,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H204" t="n">
-        <v>1</v>
-      </c>
-      <c r="I204" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I204" t="inlineStr"/>
       <c r="J204" t="n">
         <v>5.32</v>
       </c>
@@ -8654,11 +8392,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H205" t="n">
-        <v>1</v>
-      </c>
-      <c r="I205" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I205" t="inlineStr"/>
       <c r="J205" t="n">
         <v>5.32</v>
       </c>
@@ -8695,11 +8431,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H206" t="n">
-        <v>1</v>
-      </c>
-      <c r="I206" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I206" t="inlineStr"/>
       <c r="J206" t="n">
         <v>5.32</v>
       </c>
@@ -8736,11 +8470,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H207" t="n">
-        <v>1</v>
-      </c>
-      <c r="I207" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I207" t="inlineStr"/>
       <c r="J207" t="n">
         <v>5.32</v>
       </c>
@@ -8777,11 +8509,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H208" t="n">
-        <v>1</v>
-      </c>
-      <c r="I208" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I208" t="inlineStr"/>
       <c r="J208" t="n">
         <v>5.32</v>
       </c>
@@ -8818,11 +8548,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H209" t="n">
-        <v>1</v>
-      </c>
-      <c r="I209" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I209" t="inlineStr"/>
       <c r="J209" t="n">
         <v>5.32</v>
       </c>
@@ -8859,11 +8587,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H210" t="n">
-        <v>1</v>
-      </c>
-      <c r="I210" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I210" t="inlineStr"/>
       <c r="J210" t="n">
         <v>5.32</v>
       </c>
@@ -8900,11 +8626,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
-      </c>
-      <c r="I211" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I211" t="inlineStr"/>
       <c r="J211" t="n">
         <v>5.32</v>
       </c>
@@ -8941,11 +8665,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H212" t="n">
-        <v>1</v>
-      </c>
-      <c r="I212" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I212" t="inlineStr"/>
       <c r="J212" t="n">
         <v>5.32</v>
       </c>
@@ -8982,11 +8704,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
-      </c>
-      <c r="I213" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I213" t="inlineStr"/>
       <c r="J213" t="n">
         <v>5.32</v>
       </c>
@@ -9023,11 +8743,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H214" t="n">
-        <v>1</v>
-      </c>
-      <c r="I214" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I214" t="inlineStr"/>
       <c r="J214" t="n">
         <v>5.32</v>
       </c>
@@ -9064,11 +8782,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H215" t="n">
-        <v>1</v>
-      </c>
-      <c r="I215" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I215" t="inlineStr"/>
       <c r="J215" t="n">
         <v>5.32</v>
       </c>
@@ -9105,11 +8821,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H216" t="n">
-        <v>1</v>
-      </c>
-      <c r="I216" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I216" t="inlineStr"/>
       <c r="J216" t="n">
         <v>5.32</v>
       </c>
@@ -9146,11 +8860,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
-      </c>
-      <c r="I217" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I217" t="inlineStr"/>
       <c r="J217" t="n">
         <v>5.32</v>
       </c>
@@ -9187,11 +8899,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H218" t="n">
-        <v>1</v>
-      </c>
-      <c r="I218" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I218" t="inlineStr"/>
       <c r="J218" t="n">
         <v>5.32</v>
       </c>
@@ -9228,11 +8938,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H219" t="n">
-        <v>1</v>
-      </c>
-      <c r="I219" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I219" t="inlineStr"/>
       <c r="J219" t="n">
         <v>5.32</v>
       </c>
@@ -9269,11 +8977,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H220" t="n">
-        <v>1</v>
-      </c>
-      <c r="I220" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I220" t="inlineStr"/>
       <c r="J220" t="n">
         <v>5.32</v>
       </c>
@@ -9310,11 +9016,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H221" t="n">
-        <v>1</v>
-      </c>
-      <c r="I221" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I221" t="inlineStr"/>
       <c r="J221" t="n">
         <v>5.32</v>
       </c>
@@ -9351,11 +9055,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H222" t="n">
-        <v>1</v>
-      </c>
-      <c r="I222" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I222" t="inlineStr"/>
       <c r="J222" t="n">
         <v>5.32</v>
       </c>
@@ -9392,11 +9094,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H223" t="n">
-        <v>1</v>
-      </c>
-      <c r="I223" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I223" t="inlineStr"/>
       <c r="J223" t="n">
         <v>5.32</v>
       </c>
@@ -9433,11 +9133,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H224" t="n">
-        <v>1</v>
-      </c>
-      <c r="I224" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I224" t="inlineStr"/>
       <c r="J224" t="n">
         <v>5.32</v>
       </c>
@@ -9474,11 +9172,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
-      </c>
-      <c r="I225" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I225" t="inlineStr"/>
       <c r="J225" t="n">
         <v>5.32</v>
       </c>
@@ -9515,11 +9211,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H226" t="n">
-        <v>1</v>
-      </c>
-      <c r="I226" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I226" t="inlineStr"/>
       <c r="J226" t="n">
         <v>5.32</v>
       </c>
@@ -9556,11 +9250,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
-      </c>
-      <c r="I227" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I227" t="inlineStr"/>
       <c r="J227" t="n">
         <v>5.32</v>
       </c>
@@ -9597,11 +9289,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H228" t="n">
-        <v>1</v>
-      </c>
-      <c r="I228" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I228" t="inlineStr"/>
       <c r="J228" t="n">
         <v>5.32</v>
       </c>
@@ -9638,11 +9328,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
-      </c>
-      <c r="I229" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I229" t="inlineStr"/>
       <c r="J229" t="n">
         <v>5.32</v>
       </c>
@@ -9679,11 +9367,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H230" t="n">
-        <v>1</v>
-      </c>
-      <c r="I230" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I230" t="inlineStr"/>
       <c r="J230" t="n">
         <v>5.32</v>
       </c>
@@ -9720,11 +9406,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H231" t="n">
-        <v>1</v>
-      </c>
-      <c r="I231" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I231" t="inlineStr"/>
       <c r="J231" t="n">
         <v>5.32</v>
       </c>
@@ -9761,11 +9445,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H232" t="n">
-        <v>1</v>
-      </c>
-      <c r="I232" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I232" t="inlineStr"/>
       <c r="J232" t="n">
         <v>5.32</v>
       </c>
@@ -9802,11 +9484,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H233" t="n">
-        <v>1</v>
-      </c>
-      <c r="I233" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I233" t="inlineStr"/>
       <c r="J233" t="n">
         <v>5.32</v>
       </c>
@@ -9843,11 +9523,9 @@
         <v>2658725.298</v>
       </c>
       <c r="H234" t="n">
-        <v>1</v>
-      </c>
-      <c r="I234" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I234" t="inlineStr"/>
       <c r="J234" t="n">
         <v>5.32</v>
       </c>
@@ -9884,11 +9562,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H235" t="n">
-        <v>1</v>
-      </c>
-      <c r="I235" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I235" t="inlineStr"/>
       <c r="J235" t="n">
         <v>5.32</v>
       </c>
@@ -9925,11 +9601,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H236" t="n">
-        <v>1</v>
-      </c>
-      <c r="I236" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I236" t="inlineStr"/>
       <c r="J236" t="n">
         <v>5.32</v>
       </c>
@@ -9966,11 +9640,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H237" t="n">
-        <v>1</v>
-      </c>
-      <c r="I237" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I237" t="inlineStr"/>
       <c r="J237" t="n">
         <v>5.32</v>
       </c>
@@ -10007,11 +9679,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H238" t="n">
-        <v>1</v>
-      </c>
-      <c r="I238" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I238" t="inlineStr"/>
       <c r="J238" t="n">
         <v>5.32</v>
       </c>
@@ -10048,11 +9718,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H239" t="n">
-        <v>1</v>
-      </c>
-      <c r="I239" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I239" t="inlineStr"/>
       <c r="J239" t="n">
         <v>5.32</v>
       </c>
@@ -10089,11 +9757,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H240" t="n">
-        <v>1</v>
-      </c>
-      <c r="I240" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I240" t="inlineStr"/>
       <c r="J240" t="n">
         <v>5.32</v>
       </c>
@@ -10130,11 +9796,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H241" t="n">
-        <v>1</v>
-      </c>
-      <c r="I241" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I241" t="inlineStr"/>
       <c r="J241" t="n">
         <v>5.32</v>
       </c>
@@ -10171,11 +9835,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H242" t="n">
-        <v>1</v>
-      </c>
-      <c r="I242" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I242" t="inlineStr"/>
       <c r="J242" t="n">
         <v>5.32</v>
       </c>
@@ -10212,11 +9874,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H243" t="n">
-        <v>1</v>
-      </c>
-      <c r="I243" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I243" t="inlineStr"/>
       <c r="J243" t="n">
         <v>5.32</v>
       </c>
@@ -10253,11 +9913,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H244" t="n">
-        <v>1</v>
-      </c>
-      <c r="I244" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I244" t="inlineStr"/>
       <c r="J244" t="n">
         <v>5.32</v>
       </c>
@@ -10294,11 +9952,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
-      </c>
-      <c r="I245" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I245" t="inlineStr"/>
       <c r="J245" t="n">
         <v>5.32</v>
       </c>
@@ -10335,11 +9991,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H246" t="n">
-        <v>1</v>
-      </c>
-      <c r="I246" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I246" t="inlineStr"/>
       <c r="J246" t="n">
         <v>5.32</v>
       </c>
@@ -10376,11 +10030,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H247" t="n">
-        <v>1</v>
-      </c>
-      <c r="I247" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I247" t="inlineStr"/>
       <c r="J247" t="n">
         <v>5.32</v>
       </c>
@@ -10417,11 +10069,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H248" t="n">
-        <v>1</v>
-      </c>
-      <c r="I248" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I248" t="inlineStr"/>
       <c r="J248" t="n">
         <v>5.32</v>
       </c>
@@ -10458,11 +10108,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H249" t="n">
-        <v>1</v>
-      </c>
-      <c r="I249" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I249" t="inlineStr"/>
       <c r="J249" t="n">
         <v>5.32</v>
       </c>
@@ -10499,11 +10147,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H250" t="n">
-        <v>1</v>
-      </c>
-      <c r="I250" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I250" t="inlineStr"/>
       <c r="J250" t="n">
         <v>5.32</v>
       </c>
@@ -10540,11 +10186,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H251" t="n">
-        <v>1</v>
-      </c>
-      <c r="I251" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I251" t="inlineStr"/>
       <c r="J251" t="n">
         <v>5.32</v>
       </c>
@@ -10581,11 +10225,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H252" t="n">
-        <v>1</v>
-      </c>
-      <c r="I252" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I252" t="inlineStr"/>
       <c r="J252" t="n">
         <v>5.32</v>
       </c>
@@ -10622,11 +10264,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
-      </c>
-      <c r="I253" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I253" t="inlineStr"/>
       <c r="J253" t="n">
         <v>5.32</v>
       </c>
@@ -10663,11 +10303,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H254" t="n">
-        <v>1</v>
-      </c>
-      <c r="I254" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I254" t="inlineStr"/>
       <c r="J254" t="n">
         <v>5.32</v>
       </c>
@@ -10704,11 +10342,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
-      </c>
-      <c r="I255" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I255" t="inlineStr"/>
       <c r="J255" t="n">
         <v>5.32</v>
       </c>
@@ -10745,11 +10381,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H256" t="n">
-        <v>1</v>
-      </c>
-      <c r="I256" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I256" t="inlineStr"/>
       <c r="J256" t="n">
         <v>5.32</v>
       </c>
@@ -10786,11 +10420,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H257" t="n">
-        <v>1</v>
-      </c>
-      <c r="I257" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I257" t="inlineStr"/>
       <c r="J257" t="n">
         <v>5.32</v>
       </c>
@@ -10827,11 +10459,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H258" t="n">
-        <v>1</v>
-      </c>
-      <c r="I258" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I258" t="inlineStr"/>
       <c r="J258" t="n">
         <v>5.32</v>
       </c>
@@ -10868,11 +10498,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H259" t="n">
-        <v>1</v>
-      </c>
-      <c r="I259" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I259" t="inlineStr"/>
       <c r="J259" t="n">
         <v>5.32</v>
       </c>
@@ -10909,11 +10537,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
-      </c>
-      <c r="I260" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I260" t="inlineStr"/>
       <c r="J260" t="n">
         <v>5.32</v>
       </c>
@@ -10950,11 +10576,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
-      </c>
-      <c r="I261" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I261" t="inlineStr"/>
       <c r="J261" t="n">
         <v>5.32</v>
       </c>
@@ -10991,11 +10615,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H262" t="n">
-        <v>1</v>
-      </c>
-      <c r="I262" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I262" t="inlineStr"/>
       <c r="J262" t="n">
         <v>5.32</v>
       </c>
@@ -11032,11 +10654,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H263" t="n">
-        <v>1</v>
-      </c>
-      <c r="I263" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I263" t="inlineStr"/>
       <c r="J263" t="n">
         <v>5.32</v>
       </c>
@@ -11073,11 +10693,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H264" t="n">
-        <v>1</v>
-      </c>
-      <c r="I264" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I264" t="inlineStr"/>
       <c r="J264" t="n">
         <v>5.32</v>
       </c>
@@ -11114,11 +10732,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H265" t="n">
-        <v>1</v>
-      </c>
-      <c r="I265" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I265" t="inlineStr"/>
       <c r="J265" t="n">
         <v>5.32</v>
       </c>
@@ -11155,11 +10771,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H266" t="n">
-        <v>1</v>
-      </c>
-      <c r="I266" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I266" t="inlineStr"/>
       <c r="J266" t="n">
         <v>5.32</v>
       </c>
@@ -11196,11 +10810,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
-      </c>
-      <c r="I267" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I267" t="inlineStr"/>
       <c r="J267" t="n">
         <v>5.32</v>
       </c>
@@ -11237,11 +10849,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
-      </c>
-      <c r="I268" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I268" t="inlineStr"/>
       <c r="J268" t="n">
         <v>5.32</v>
       </c>
@@ -11278,11 +10888,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
-      </c>
-      <c r="I269" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I269" t="inlineStr"/>
       <c r="J269" t="n">
         <v>5.32</v>
       </c>
@@ -11319,11 +10927,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H270" t="n">
-        <v>1</v>
-      </c>
-      <c r="I270" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I270" t="inlineStr"/>
       <c r="J270" t="n">
         <v>5.32</v>
       </c>
@@ -11360,11 +10966,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
-      </c>
-      <c r="I271" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I271" t="inlineStr"/>
       <c r="J271" t="n">
         <v>5.32</v>
       </c>
@@ -11401,11 +11005,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
-      </c>
-      <c r="I272" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I272" t="inlineStr"/>
       <c r="J272" t="n">
         <v>5.32</v>
       </c>
@@ -11442,11 +11044,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H273" t="n">
-        <v>1</v>
-      </c>
-      <c r="I273" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I273" t="inlineStr"/>
       <c r="J273" t="n">
         <v>5.32</v>
       </c>
@@ -11483,11 +11083,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H274" t="n">
-        <v>1</v>
-      </c>
-      <c r="I274" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I274" t="inlineStr"/>
       <c r="J274" t="n">
         <v>5.32</v>
       </c>
@@ -11524,11 +11122,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H275" t="n">
-        <v>1</v>
-      </c>
-      <c r="I275" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I275" t="inlineStr"/>
       <c r="J275" t="n">
         <v>5.32</v>
       </c>
@@ -11565,11 +11161,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H276" t="n">
-        <v>1</v>
-      </c>
-      <c r="I276" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I276" t="inlineStr"/>
       <c r="J276" t="n">
         <v>5.32</v>
       </c>
@@ -11606,11 +11200,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H277" t="n">
-        <v>1</v>
-      </c>
-      <c r="I277" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I277" t="inlineStr"/>
       <c r="J277" t="n">
         <v>5.32</v>
       </c>
@@ -11647,11 +11239,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H278" t="n">
-        <v>1</v>
-      </c>
-      <c r="I278" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I278" t="inlineStr"/>
       <c r="J278" t="n">
         <v>5.32</v>
       </c>
@@ -11688,11 +11278,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
-      </c>
-      <c r="I279" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I279" t="inlineStr"/>
       <c r="J279" t="n">
         <v>5.32</v>
       </c>
@@ -11729,11 +11317,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H280" t="n">
-        <v>1</v>
-      </c>
-      <c r="I280" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I280" t="inlineStr"/>
       <c r="J280" t="n">
         <v>5.32</v>
       </c>
@@ -11770,11 +11356,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H281" t="n">
-        <v>1</v>
-      </c>
-      <c r="I281" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I281" t="inlineStr"/>
       <c r="J281" t="n">
         <v>5.32</v>
       </c>
@@ -11811,11 +11395,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H282" t="n">
-        <v>1</v>
-      </c>
-      <c r="I282" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I282" t="inlineStr"/>
       <c r="J282" t="n">
         <v>5.32</v>
       </c>
@@ -11852,11 +11434,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H283" t="n">
-        <v>1</v>
-      </c>
-      <c r="I283" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I283" t="inlineStr"/>
       <c r="J283" t="n">
         <v>5.32</v>
       </c>
@@ -11893,11 +11473,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H284" t="n">
-        <v>1</v>
-      </c>
-      <c r="I284" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I284" t="inlineStr"/>
       <c r="J284" t="n">
         <v>5.32</v>
       </c>
@@ -11934,11 +11512,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
-      </c>
-      <c r="I285" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I285" t="inlineStr"/>
       <c r="J285" t="n">
         <v>5.32</v>
       </c>
@@ -11975,11 +11551,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H286" t="n">
-        <v>1</v>
-      </c>
-      <c r="I286" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I286" t="inlineStr"/>
       <c r="J286" t="n">
         <v>5.32</v>
       </c>
@@ -12016,11 +11590,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
-      </c>
-      <c r="I287" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I287" t="inlineStr"/>
       <c r="J287" t="n">
         <v>5.32</v>
       </c>
@@ -12057,11 +11629,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
-      </c>
-      <c r="I288" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I288" t="inlineStr"/>
       <c r="J288" t="n">
         <v>5.32</v>
       </c>
@@ -12098,11 +11668,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
-      </c>
-      <c r="I289" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I289" t="inlineStr"/>
       <c r="J289" t="n">
         <v>5.32</v>
       </c>
@@ -12139,11 +11707,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
-      </c>
-      <c r="I290" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I290" t="inlineStr"/>
       <c r="J290" t="n">
         <v>5.32</v>
       </c>
@@ -12180,11 +11746,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
-      </c>
-      <c r="I291" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I291" t="inlineStr"/>
       <c r="J291" t="n">
         <v>5.32</v>
       </c>
@@ -12221,11 +11785,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
-      </c>
-      <c r="I292" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I292" t="inlineStr"/>
       <c r="J292" t="n">
         <v>5.32</v>
       </c>
@@ -12262,11 +11824,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
-      </c>
-      <c r="I293" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I293" t="inlineStr"/>
       <c r="J293" t="n">
         <v>5.32</v>
       </c>
@@ -12303,11 +11863,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
-      </c>
-      <c r="I294" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I294" t="inlineStr"/>
       <c r="J294" t="n">
         <v>5.32</v>
       </c>
@@ -12344,11 +11902,9 @@
         <v>2790941.5244</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
-      </c>
-      <c r="I295" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I295" t="inlineStr"/>
       <c r="J295" t="n">
         <v>5.32</v>
       </c>
@@ -12385,11 +11941,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
-      </c>
-      <c r="I296" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I296" t="inlineStr"/>
       <c r="J296" t="n">
         <v>5.32</v>
       </c>
@@ -12426,11 +11980,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
-      </c>
-      <c r="I297" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I297" t="inlineStr"/>
       <c r="J297" t="n">
         <v>5.32</v>
       </c>
@@ -12467,11 +12019,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H298" t="n">
-        <v>1</v>
-      </c>
-      <c r="I298" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I298" t="inlineStr"/>
       <c r="J298" t="n">
         <v>5.32</v>
       </c>
@@ -12508,11 +12058,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
-      </c>
-      <c r="I299" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I299" t="inlineStr"/>
       <c r="J299" t="n">
         <v>5.32</v>
       </c>
@@ -12549,11 +12097,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H300" t="n">
-        <v>1</v>
-      </c>
-      <c r="I300" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I300" t="inlineStr"/>
       <c r="J300" t="n">
         <v>5.32</v>
       </c>
@@ -12590,11 +12136,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H301" t="n">
-        <v>1</v>
-      </c>
-      <c r="I301" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I301" t="inlineStr"/>
       <c r="J301" t="n">
         <v>5.32</v>
       </c>
@@ -12631,11 +12175,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H302" t="n">
-        <v>1</v>
-      </c>
-      <c r="I302" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I302" t="inlineStr"/>
       <c r="J302" t="n">
         <v>5.32</v>
       </c>
@@ -12672,11 +12214,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H303" t="n">
-        <v>1</v>
-      </c>
-      <c r="I303" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I303" t="inlineStr"/>
       <c r="J303" t="n">
         <v>5.32</v>
       </c>
@@ -12713,11 +12253,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H304" t="n">
-        <v>1</v>
-      </c>
-      <c r="I304" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I304" t="inlineStr"/>
       <c r="J304" t="n">
         <v>5.32</v>
       </c>
@@ -12754,11 +12292,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H305" t="n">
-        <v>1</v>
-      </c>
-      <c r="I305" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I305" t="inlineStr"/>
       <c r="J305" t="n">
         <v>5.32</v>
       </c>
@@ -12795,11 +12331,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H306" t="n">
-        <v>1</v>
-      </c>
-      <c r="I306" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I306" t="inlineStr"/>
       <c r="J306" t="n">
         <v>5.32</v>
       </c>
@@ -12836,11 +12370,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H307" t="n">
-        <v>1</v>
-      </c>
-      <c r="I307" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I307" t="inlineStr"/>
       <c r="J307" t="n">
         <v>5.32</v>
       </c>
@@ -12877,11 +12409,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H308" t="n">
-        <v>1</v>
-      </c>
-      <c r="I308" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I308" t="inlineStr"/>
       <c r="J308" t="n">
         <v>5.32</v>
       </c>
@@ -12918,11 +12448,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H309" t="n">
-        <v>1</v>
-      </c>
-      <c r="I309" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I309" t="inlineStr"/>
       <c r="J309" t="n">
         <v>5.32</v>
       </c>
@@ -12959,11 +12487,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H310" t="n">
-        <v>1</v>
-      </c>
-      <c r="I310" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I310" t="inlineStr"/>
       <c r="J310" t="n">
         <v>5.32</v>
       </c>
@@ -13082,11 +12608,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H313" t="n">
-        <v>1</v>
-      </c>
-      <c r="I313" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I313" t="inlineStr"/>
       <c r="J313" t="n">
         <v>5.32</v>
       </c>
@@ -13123,11 +12647,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H314" t="n">
-        <v>1</v>
-      </c>
-      <c r="I314" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I314" t="inlineStr"/>
       <c r="J314" t="n">
         <v>5.32</v>
       </c>
@@ -13164,11 +12686,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H315" t="n">
-        <v>1</v>
-      </c>
-      <c r="I315" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I315" t="inlineStr"/>
       <c r="J315" t="n">
         <v>5.32</v>
       </c>
@@ -13205,11 +12725,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H316" t="n">
-        <v>1</v>
-      </c>
-      <c r="I316" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I316" t="inlineStr"/>
       <c r="J316" t="n">
         <v>5.32</v>
       </c>
@@ -13246,11 +12764,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H317" t="n">
-        <v>1</v>
-      </c>
-      <c r="I317" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I317" t="inlineStr"/>
       <c r="J317" t="n">
         <v>5.32</v>
       </c>
@@ -13287,11 +12803,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H318" t="n">
-        <v>1</v>
-      </c>
-      <c r="I318" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I318" t="inlineStr"/>
       <c r="J318" t="n">
         <v>5.32</v>
       </c>
@@ -13328,11 +12842,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H319" t="n">
-        <v>1</v>
-      </c>
-      <c r="I319" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I319" t="inlineStr"/>
       <c r="J319" t="n">
         <v>5.32</v>
       </c>
@@ -13369,11 +12881,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H320" t="n">
-        <v>1</v>
-      </c>
-      <c r="I320" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I320" t="inlineStr"/>
       <c r="J320" t="n">
         <v>5.32</v>
       </c>
@@ -13410,11 +12920,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H321" t="n">
-        <v>1</v>
-      </c>
-      <c r="I321" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I321" t="inlineStr"/>
       <c r="J321" t="n">
         <v>5.32</v>
       </c>
@@ -13451,11 +12959,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H322" t="n">
-        <v>1</v>
-      </c>
-      <c r="I322" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I322" t="inlineStr"/>
       <c r="J322" t="n">
         <v>5.32</v>
       </c>
@@ -13492,11 +12998,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H323" t="n">
-        <v>1</v>
-      </c>
-      <c r="I323" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I323" t="inlineStr"/>
       <c r="J323" t="n">
         <v>5.32</v>
       </c>
@@ -13533,11 +13037,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H324" t="n">
-        <v>1</v>
-      </c>
-      <c r="I324" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I324" t="inlineStr"/>
       <c r="J324" t="n">
         <v>5.32</v>
       </c>
@@ -13574,11 +13076,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H325" t="n">
-        <v>1</v>
-      </c>
-      <c r="I325" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I325" t="inlineStr"/>
       <c r="J325" t="n">
         <v>5.32</v>
       </c>
@@ -13615,11 +13115,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H326" t="n">
-        <v>1</v>
-      </c>
-      <c r="I326" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I326" t="inlineStr"/>
       <c r="J326" t="n">
         <v>5.32</v>
       </c>
@@ -13656,11 +13154,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H327" t="n">
-        <v>1</v>
-      </c>
-      <c r="I327" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I327" t="inlineStr"/>
       <c r="J327" t="n">
         <v>5.32</v>
       </c>
@@ -13738,11 +13234,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H329" t="n">
-        <v>1</v>
-      </c>
-      <c r="I329" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I329" t="inlineStr"/>
       <c r="J329" t="n">
         <v>5.32</v>
       </c>
@@ -13779,11 +13273,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H330" t="n">
-        <v>1</v>
-      </c>
-      <c r="I330" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I330" t="inlineStr"/>
       <c r="J330" t="n">
         <v>5.32</v>
       </c>
@@ -13820,11 +13312,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H331" t="n">
-        <v>1</v>
-      </c>
-      <c r="I331" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I331" t="inlineStr"/>
       <c r="J331" t="n">
         <v>5.32</v>
       </c>
@@ -13861,11 +13351,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H332" t="n">
-        <v>1</v>
-      </c>
-      <c r="I332" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I332" t="inlineStr"/>
       <c r="J332" t="n">
         <v>5.32</v>
       </c>
@@ -13902,11 +13390,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H333" t="n">
-        <v>1</v>
-      </c>
-      <c r="I333" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I333" t="inlineStr"/>
       <c r="J333" t="n">
         <v>5.32</v>
       </c>
@@ -13943,11 +13429,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H334" t="n">
-        <v>1</v>
-      </c>
-      <c r="I334" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I334" t="inlineStr"/>
       <c r="J334" t="n">
         <v>5.32</v>
       </c>
@@ -13984,11 +13468,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H335" t="n">
-        <v>1</v>
-      </c>
-      <c r="I335" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I335" t="inlineStr"/>
       <c r="J335" t="n">
         <v>5.32</v>
       </c>
@@ -14025,11 +13507,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H336" t="n">
-        <v>1</v>
-      </c>
-      <c r="I336" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I336" t="inlineStr"/>
       <c r="J336" t="n">
         <v>5.32</v>
       </c>
@@ -14066,11 +13546,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H337" t="n">
-        <v>1</v>
-      </c>
-      <c r="I337" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I337" t="inlineStr"/>
       <c r="J337" t="n">
         <v>5.32</v>
       </c>
@@ -14107,11 +13585,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H338" t="n">
-        <v>1</v>
-      </c>
-      <c r="I338" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I338" t="inlineStr"/>
       <c r="J338" t="n">
         <v>5.32</v>
       </c>
@@ -14148,11 +13624,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H339" t="n">
-        <v>1</v>
-      </c>
-      <c r="I339" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I339" t="inlineStr"/>
       <c r="J339" t="n">
         <v>5.32</v>
       </c>
@@ -14189,11 +13663,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H340" t="n">
-        <v>1</v>
-      </c>
-      <c r="I340" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I340" t="inlineStr"/>
       <c r="J340" t="n">
         <v>5.32</v>
       </c>
@@ -14230,11 +13702,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H341" t="n">
-        <v>1</v>
-      </c>
-      <c r="I341" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I341" t="inlineStr"/>
       <c r="J341" t="n">
         <v>5.32</v>
       </c>
@@ -14271,11 +13741,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H342" t="n">
-        <v>1</v>
-      </c>
-      <c r="I342" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I342" t="inlineStr"/>
       <c r="J342" t="n">
         <v>5.32</v>
       </c>
@@ -14312,11 +13780,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H343" t="n">
-        <v>1</v>
-      </c>
-      <c r="I343" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I343" t="inlineStr"/>
       <c r="J343" t="n">
         <v>5.32</v>
       </c>
@@ -14353,11 +13819,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H344" t="n">
-        <v>1</v>
-      </c>
-      <c r="I344" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I344" t="inlineStr"/>
       <c r="J344" t="n">
         <v>5.32</v>
       </c>
@@ -14394,11 +13858,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H345" t="n">
-        <v>1</v>
-      </c>
-      <c r="I345" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I345" t="inlineStr"/>
       <c r="J345" t="n">
         <v>5.32</v>
       </c>
@@ -14435,11 +13897,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H346" t="n">
-        <v>1</v>
-      </c>
-      <c r="I346" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I346" t="inlineStr"/>
       <c r="J346" t="n">
         <v>5.32</v>
       </c>
@@ -14476,11 +13936,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H347" t="n">
-        <v>1</v>
-      </c>
-      <c r="I347" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I347" t="inlineStr"/>
       <c r="J347" t="n">
         <v>5.32</v>
       </c>
@@ -14517,11 +13975,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H348" t="n">
-        <v>1</v>
-      </c>
-      <c r="I348" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I348" t="inlineStr"/>
       <c r="J348" t="n">
         <v>5.32</v>
       </c>
@@ -14558,11 +14014,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H349" t="n">
-        <v>1</v>
-      </c>
-      <c r="I349" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I349" t="inlineStr"/>
       <c r="J349" t="n">
         <v>5.32</v>
       </c>
@@ -14599,11 +14053,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H350" t="n">
-        <v>1</v>
-      </c>
-      <c r="I350" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I350" t="inlineStr"/>
       <c r="J350" t="n">
         <v>5.32</v>
       </c>
@@ -14640,11 +14092,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H351" t="n">
-        <v>1</v>
-      </c>
-      <c r="I351" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I351" t="inlineStr"/>
       <c r="J351" t="n">
         <v>5.32</v>
       </c>
@@ -14681,11 +14131,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H352" t="n">
-        <v>1</v>
-      </c>
-      <c r="I352" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I352" t="inlineStr"/>
       <c r="J352" t="n">
         <v>5.32</v>
       </c>
@@ -14722,11 +14170,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H353" t="n">
-        <v>1</v>
-      </c>
-      <c r="I353" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I353" t="inlineStr"/>
       <c r="J353" t="n">
         <v>5.32</v>
       </c>
@@ -14804,11 +14250,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H355" t="n">
-        <v>1</v>
-      </c>
-      <c r="I355" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
       <c r="J355" t="n">
         <v>5.32</v>
       </c>
@@ -14845,11 +14289,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H356" t="n">
-        <v>1</v>
-      </c>
-      <c r="I356" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
       <c r="J356" t="n">
         <v>5.32</v>
       </c>
@@ -14886,11 +14328,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H357" t="n">
-        <v>1</v>
-      </c>
-      <c r="I357" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
       <c r="J357" t="n">
         <v>5.32</v>
       </c>
@@ -14968,11 +14408,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H359" t="n">
-        <v>1</v>
-      </c>
-      <c r="I359" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
       <c r="J359" t="n">
         <v>5.32</v>
       </c>
@@ -15050,11 +14488,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H361" t="n">
-        <v>1</v>
-      </c>
-      <c r="I361" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
       <c r="J361" t="n">
         <v>5.32</v>
       </c>
@@ -15132,11 +14568,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H363" t="n">
-        <v>1</v>
-      </c>
-      <c r="I363" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
       <c r="J363" t="n">
         <v>5.32</v>
       </c>
@@ -15214,11 +14648,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H365" t="n">
-        <v>1</v>
-      </c>
-      <c r="I365" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
       <c r="J365" t="n">
         <v>5.32</v>
       </c>
@@ -15419,11 +14851,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H370" t="n">
-        <v>1</v>
-      </c>
-      <c r="I370" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
         <v>5.32</v>
       </c>
@@ -15501,11 +14931,9 @@
         <v>4295164.8776</v>
       </c>
       <c r="H372" t="n">
-        <v>1</v>
-      </c>
-      <c r="I372" t="n">
-        <v>5.35</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
         <v>5.32</v>
       </c>
@@ -15542,11 +14970,9 @@
         <v>4423348.9203</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>5.39</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="n">
         <v>5.32</v>
       </c>
@@ -15583,11 +15009,9 @@
         <v>5031011.167507978</v>
       </c>
       <c r="H374" t="n">
-        <v>1</v>
-      </c>
-      <c r="I374" t="n">
-        <v>5.4</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I374" t="inlineStr"/>
       <c r="J374" t="n">
         <v>5.32</v>
       </c>
@@ -16755,7 +16179,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I404" t="inlineStr"/>
       <c r="J404" t="n">
@@ -16763,11 +16187,11 @@
       </c>
       <c r="K404" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L404" t="n">
-        <v>1</v>
+        <v>1.025075187969925</v>
       </c>
       <c r="M404" t="inlineStr"/>
     </row>
@@ -16794,17 +16218,11 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I405" t="inlineStr"/>
-      <c r="J405" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K405" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J405" t="inlineStr"/>
+      <c r="K405" t="inlineStr"/>
       <c r="L405" t="n">
         <v>1</v>
       </c>
@@ -16833,17 +16251,11 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H406" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K406" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J406" t="inlineStr"/>
+      <c r="K406" t="inlineStr"/>
       <c r="L406" t="n">
         <v>1</v>
       </c>
@@ -16872,17 +16284,11 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H407" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K407" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J407" t="inlineStr"/>
+      <c r="K407" t="inlineStr"/>
       <c r="L407" t="n">
         <v>1</v>
       </c>
@@ -16911,17 +16317,11 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H408" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K408" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J408" t="inlineStr"/>
+      <c r="K408" t="inlineStr"/>
       <c r="L408" t="n">
         <v>1</v>
       </c>
@@ -16950,17 +16350,11 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H409" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K409" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J409" t="inlineStr"/>
+      <c r="K409" t="inlineStr"/>
       <c r="L409" t="n">
         <v>1</v>
       </c>
@@ -16989,17 +16383,11 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H410" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K410" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J410" t="inlineStr"/>
+      <c r="K410" t="inlineStr"/>
       <c r="L410" t="n">
         <v>1</v>
       </c>
@@ -17028,17 +16416,11 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H411" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K411" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J411" t="inlineStr"/>
+      <c r="K411" t="inlineStr"/>
       <c r="L411" t="n">
         <v>1</v>
       </c>
@@ -17067,17 +16449,11 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H412" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K412" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J412" t="inlineStr"/>
+      <c r="K412" t="inlineStr"/>
       <c r="L412" t="n">
         <v>1</v>
       </c>
@@ -17106,17 +16482,11 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K413" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J413" t="inlineStr"/>
+      <c r="K413" t="inlineStr"/>
       <c r="L413" t="n">
         <v>1</v>
       </c>
@@ -17145,17 +16515,11 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H414" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K414" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J414" t="inlineStr"/>
+      <c r="K414" t="inlineStr"/>
       <c r="L414" t="n">
         <v>1</v>
       </c>
@@ -17187,14 +16551,8 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K415" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J415" t="inlineStr"/>
+      <c r="K415" t="inlineStr"/>
       <c r="L415" t="n">
         <v>1</v>
       </c>
@@ -17226,14 +16584,8 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K416" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J416" t="inlineStr"/>
+      <c r="K416" t="inlineStr"/>
       <c r="L416" t="n">
         <v>1</v>
       </c>
@@ -17265,14 +16617,8 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K417" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J417" t="inlineStr"/>
+      <c r="K417" t="inlineStr"/>
       <c r="L417" t="n">
         <v>1</v>
       </c>
@@ -17304,14 +16650,8 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K418" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J418" t="inlineStr"/>
+      <c r="K418" t="inlineStr"/>
       <c r="L418" t="n">
         <v>1</v>
       </c>
@@ -17343,14 +16683,8 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K419" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J419" t="inlineStr"/>
+      <c r="K419" t="inlineStr"/>
       <c r="L419" t="n">
         <v>1</v>
       </c>
@@ -17382,14 +16716,8 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K420" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J420" t="inlineStr"/>
+      <c r="K420" t="inlineStr"/>
       <c r="L420" t="n">
         <v>1</v>
       </c>
@@ -17421,14 +16749,8 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K421" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J421" t="inlineStr"/>
+      <c r="K421" t="inlineStr"/>
       <c r="L421" t="n">
         <v>1</v>
       </c>
@@ -17460,14 +16782,8 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K422" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J422" t="inlineStr"/>
+      <c r="K422" t="inlineStr"/>
       <c r="L422" t="n">
         <v>1</v>
       </c>
@@ -17499,14 +16815,8 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K423" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J423" t="inlineStr"/>
+      <c r="K423" t="inlineStr"/>
       <c r="L423" t="n">
         <v>1</v>
       </c>
@@ -17538,14 +16848,8 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K424" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J424" t="inlineStr"/>
+      <c r="K424" t="inlineStr"/>
       <c r="L424" t="n">
         <v>1</v>
       </c>
@@ -17577,14 +16881,8 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K425" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J425" t="inlineStr"/>
+      <c r="K425" t="inlineStr"/>
       <c r="L425" t="n">
         <v>1</v>
       </c>
@@ -17616,14 +16914,8 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K426" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J426" t="inlineStr"/>
+      <c r="K426" t="inlineStr"/>
       <c r="L426" t="n">
         <v>1</v>
       </c>
@@ -17655,14 +16947,8 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K427" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J427" t="inlineStr"/>
+      <c r="K427" t="inlineStr"/>
       <c r="L427" t="n">
         <v>1</v>
       </c>
@@ -17694,14 +16980,8 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K428" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J428" t="inlineStr"/>
+      <c r="K428" t="inlineStr"/>
       <c r="L428" t="n">
         <v>1</v>
       </c>
@@ -17733,14 +17013,8 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K429" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J429" t="inlineStr"/>
+      <c r="K429" t="inlineStr"/>
       <c r="L429" t="n">
         <v>1</v>
       </c>
@@ -17772,14 +17046,8 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K430" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J430" t="inlineStr"/>
+      <c r="K430" t="inlineStr"/>
       <c r="L430" t="n">
         <v>1</v>
       </c>
@@ -17811,14 +17079,8 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K431" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J431" t="inlineStr"/>
+      <c r="K431" t="inlineStr"/>
       <c r="L431" t="n">
         <v>1</v>
       </c>
@@ -17850,14 +17112,8 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K432" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J432" t="inlineStr"/>
+      <c r="K432" t="inlineStr"/>
       <c r="L432" t="n">
         <v>1</v>
       </c>
@@ -17889,14 +17145,8 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K433" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J433" t="inlineStr"/>
+      <c r="K433" t="inlineStr"/>
       <c r="L433" t="n">
         <v>1</v>
       </c>
@@ -17928,14 +17178,8 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K434" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J434" t="inlineStr"/>
+      <c r="K434" t="inlineStr"/>
       <c r="L434" t="n">
         <v>1</v>
       </c>
@@ -17967,14 +17211,8 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K435" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J435" t="inlineStr"/>
+      <c r="K435" t="inlineStr"/>
       <c r="L435" t="n">
         <v>1</v>
       </c>
@@ -18006,14 +17244,8 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K436" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J436" t="inlineStr"/>
+      <c r="K436" t="inlineStr"/>
       <c r="L436" t="n">
         <v>1</v>
       </c>
@@ -18045,14 +17277,8 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K437" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J437" t="inlineStr"/>
+      <c r="K437" t="inlineStr"/>
       <c r="L437" t="n">
         <v>1</v>
       </c>
@@ -18084,14 +17310,8 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K438" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J438" t="inlineStr"/>
+      <c r="K438" t="inlineStr"/>
       <c r="L438" t="n">
         <v>1</v>
       </c>
@@ -18123,14 +17343,8 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K439" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J439" t="inlineStr"/>
+      <c r="K439" t="inlineStr"/>
       <c r="L439" t="n">
         <v>1</v>
       </c>
@@ -18162,14 +17376,8 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K440" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J440" t="inlineStr"/>
+      <c r="K440" t="inlineStr"/>
       <c r="L440" t="n">
         <v>1</v>
       </c>
@@ -18201,14 +17409,8 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K441" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J441" t="inlineStr"/>
+      <c r="K441" t="inlineStr"/>
       <c r="L441" t="n">
         <v>1</v>
       </c>
@@ -18240,14 +17442,8 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K442" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J442" t="inlineStr"/>
+      <c r="K442" t="inlineStr"/>
       <c r="L442" t="n">
         <v>1</v>
       </c>
@@ -18279,14 +17475,8 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K443" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J443" t="inlineStr"/>
+      <c r="K443" t="inlineStr"/>
       <c r="L443" t="n">
         <v>1</v>
       </c>
@@ -18318,14 +17508,8 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K444" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J444" t="inlineStr"/>
+      <c r="K444" t="inlineStr"/>
       <c r="L444" t="n">
         <v>1</v>
       </c>
@@ -18357,14 +17541,8 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K445" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J445" t="inlineStr"/>
+      <c r="K445" t="inlineStr"/>
       <c r="L445" t="n">
         <v>1</v>
       </c>
@@ -18396,14 +17574,8 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K446" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J446" t="inlineStr"/>
+      <c r="K446" t="inlineStr"/>
       <c r="L446" t="n">
         <v>1</v>
       </c>
@@ -18435,14 +17607,8 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K447" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J447" t="inlineStr"/>
+      <c r="K447" t="inlineStr"/>
       <c r="L447" t="n">
         <v>1</v>
       </c>
@@ -18474,14 +17640,8 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K448" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J448" t="inlineStr"/>
+      <c r="K448" t="inlineStr"/>
       <c r="L448" t="n">
         <v>1</v>
       </c>
@@ -18510,23 +17670,15 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K449" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J449" t="inlineStr"/>
+      <c r="K449" t="inlineStr"/>
       <c r="L449" t="n">
-        <v>1.053270676691729</v>
-      </c>
-      <c r="M449" t="n">
-        <v>1.001883239171375</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="M449" t="inlineStr"/>
     </row>
     <row r="450">
       <c r="A450" s="1" t="n">
@@ -18551,7 +17703,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -18584,7 +17736,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -18617,7 +17769,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -18650,7 +17802,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -18683,7 +17835,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -18716,7 +17868,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -18749,7 +17901,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -18782,7 +17934,7 @@
         <v>8076954.982141992</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -18815,7 +17967,7 @@
         <v>8076954.982141992</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -18848,7 +18000,7 @@
         <v>7888655.882141992</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -18881,7 +18033,7 @@
         <v>7428899.653641992</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18914,7 +18066,7 @@
         <v>7428899.653641992</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -18947,7 +18099,7 @@
         <v>7428899.653641992</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
       <c r="J462" t="inlineStr"/>
@@ -18980,7 +18132,7 @@
         <v>7428899.653641992</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
       <c r="J463" t="inlineStr"/>
@@ -19013,7 +18165,7 @@
         <v>7288984.029341992</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
       <c r="J464" t="inlineStr"/>
@@ -19046,7 +18198,7 @@
         <v>6890812.875341992</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I465" t="inlineStr"/>
       <c r="J465" t="inlineStr"/>
@@ -19079,7 +18231,7 @@
         <v>6714167.542441992</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I466" t="inlineStr"/>
       <c r="J466" t="inlineStr"/>
@@ -19112,7 +18264,7 @@
         <v>6714167.542441992</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
       <c r="J467" t="inlineStr"/>
@@ -19145,7 +18297,7 @@
         <v>6628798.609941992</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
       <c r="J468" t="inlineStr"/>
@@ -19178,7 +18330,7 @@
         <v>6628798.609941992</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
       <c r="J469" t="inlineStr"/>
@@ -19211,7 +18363,7 @@
         <v>6628798.609941992</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
       <c r="J470" t="inlineStr"/>
@@ -19244,7 +18396,7 @@
         <v>6628798.609941992</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
       <c r="J471" t="inlineStr"/>
@@ -19277,7 +18429,7 @@
         <v>6529791.349241992</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
       <c r="J472" t="inlineStr"/>
@@ -19310,7 +18462,7 @@
         <v>6529791.349241992</v>
       </c>
       <c r="H473" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="inlineStr"/>
@@ -19343,7 +18495,7 @@
         <v>6529791.349241992</v>
       </c>
       <c r="H474" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I474" t="inlineStr"/>
       <c r="J474" t="inlineStr"/>
@@ -19376,7 +18528,7 @@
         <v>6529791.349241992</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I475" t="inlineStr"/>
       <c r="J475" t="inlineStr"/>
@@ -19409,7 +18561,7 @@
         <v>6529791.349241992</v>
       </c>
       <c r="H476" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I476" t="inlineStr"/>
       <c r="J476" t="inlineStr"/>
@@ -19442,7 +18594,7 @@
         <v>6546396.772641991</v>
       </c>
       <c r="H477" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I477" t="inlineStr"/>
       <c r="J477" t="inlineStr"/>
@@ -19475,7 +18627,7 @@
         <v>6546396.772641991</v>
       </c>
       <c r="H478" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I478" t="inlineStr"/>
       <c r="J478" t="inlineStr"/>
@@ -19508,7 +18660,7 @@
         <v>6799607.937241991</v>
       </c>
       <c r="H479" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I479" t="inlineStr"/>
       <c r="J479" t="inlineStr"/>
@@ -19541,7 +18693,7 @@
         <v>7127680.394350884</v>
       </c>
       <c r="H480" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I480" t="inlineStr"/>
       <c r="J480" t="inlineStr"/>
@@ -19574,7 +18726,7 @@
         <v>6996485.647950884</v>
       </c>
       <c r="H481" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I481" t="inlineStr"/>
       <c r="J481" t="inlineStr"/>
@@ -19607,7 +18759,7 @@
         <v>6996485.647950884</v>
       </c>
       <c r="H482" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I482" t="inlineStr"/>
       <c r="J482" t="inlineStr"/>
@@ -19640,7 +18792,7 @@
         <v>7349674.691050884</v>
       </c>
       <c r="H483" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I483" t="inlineStr"/>
       <c r="J483" t="inlineStr"/>
@@ -19673,7 +18825,7 @@
         <v>7349674.691050884</v>
       </c>
       <c r="H484" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I484" t="inlineStr"/>
       <c r="J484" t="inlineStr"/>
@@ -19706,7 +18858,7 @@
         <v>7348838.369650885</v>
       </c>
       <c r="H485" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I485" t="inlineStr"/>
       <c r="J485" t="inlineStr"/>
@@ -19739,7 +18891,7 @@
         <v>7348838.369650885</v>
       </c>
       <c r="H486" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I486" t="inlineStr"/>
       <c r="J486" t="inlineStr"/>
@@ -19772,7 +18924,7 @@
         <v>7348838.369650885</v>
       </c>
       <c r="H487" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I487" t="inlineStr"/>
       <c r="J487" t="inlineStr"/>
@@ -19904,7 +19056,7 @@
         <v>7348838.369650885</v>
       </c>
       <c r="H491" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I491" t="inlineStr"/>
       <c r="J491" t="inlineStr"/>
@@ -19937,7 +19089,7 @@
         <v>7348838.369650885</v>
       </c>
       <c r="H492" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I492" t="inlineStr"/>
       <c r="J492" t="inlineStr"/>
@@ -23732,7 +22884,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H607" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I607" t="inlineStr"/>
       <c r="J607" t="inlineStr"/>
@@ -23765,7 +22917,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H608" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I608" t="inlineStr"/>
       <c r="J608" t="inlineStr"/>
@@ -23798,7 +22950,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H609" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I609" t="inlineStr"/>
       <c r="J609" t="inlineStr"/>
@@ -23831,7 +22983,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H610" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I610" t="inlineStr"/>
       <c r="J610" t="inlineStr"/>
@@ -23864,7 +23016,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H611" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I611" t="inlineStr"/>
       <c r="J611" t="inlineStr"/>
@@ -23897,7 +23049,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H612" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I612" t="inlineStr"/>
       <c r="J612" t="inlineStr"/>
@@ -23930,7 +23082,7 @@
         <v>9350736.806509197</v>
       </c>
       <c r="H613" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I613" t="inlineStr"/>
       <c r="J613" t="inlineStr"/>
@@ -23963,7 +23115,7 @@
         <v>9328230.343809197</v>
       </c>
       <c r="H614" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I614" t="inlineStr"/>
       <c r="J614" t="inlineStr"/>
@@ -23996,7 +23148,7 @@
         <v>9328230.343809197</v>
       </c>
       <c r="H615" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -24029,7 +23181,7 @@
         <v>9328230.343809197</v>
       </c>
       <c r="H616" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I616" t="inlineStr"/>
       <c r="J616" t="inlineStr"/>
@@ -24062,7 +23214,7 @@
         <v>9327227.334009197</v>
       </c>
       <c r="H617" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -24095,7 +23247,7 @@
         <v>9327227.334009197</v>
       </c>
       <c r="H618" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I618" t="inlineStr"/>
       <c r="J618" t="inlineStr"/>
@@ -24128,7 +23280,7 @@
         <v>9045602.919809196</v>
       </c>
       <c r="H619" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
@@ -24161,7 +23313,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H620" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I620" t="inlineStr"/>
       <c r="J620" t="inlineStr"/>
@@ -24194,7 +23346,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H621" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I621" t="inlineStr"/>
       <c r="J621" t="inlineStr"/>
@@ -24227,7 +23379,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H622" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I622" t="inlineStr"/>
       <c r="J622" t="inlineStr"/>
@@ -24260,7 +23412,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H623" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I623" t="inlineStr"/>
       <c r="J623" t="inlineStr"/>
@@ -24293,7 +23445,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H624" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I624" t="inlineStr"/>
       <c r="J624" t="inlineStr"/>
@@ -24326,7 +23478,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H625" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I625" t="inlineStr"/>
       <c r="J625" t="inlineStr"/>
@@ -24359,7 +23511,7 @@
         <v>9412046.771709196</v>
       </c>
       <c r="H626" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I626" t="inlineStr"/>
       <c r="J626" t="inlineStr"/>
@@ -24392,7 +23544,7 @@
         <v>9397976.515909197</v>
       </c>
       <c r="H627" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I627" t="inlineStr"/>
       <c r="J627" t="inlineStr"/>
@@ -24425,7 +23577,7 @@
         <v>9397976.515909197</v>
       </c>
       <c r="H628" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I628" t="inlineStr"/>
       <c r="J628" t="inlineStr"/>
@@ -24458,7 +23610,7 @@
         <v>9397976.515909197</v>
       </c>
       <c r="H629" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I629" t="inlineStr"/>
       <c r="J629" t="inlineStr"/>
@@ -24491,7 +23643,7 @@
         <v>9397976.515909197</v>
       </c>
       <c r="H630" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I630" t="inlineStr"/>
       <c r="J630" t="inlineStr"/>
@@ -24524,7 +23676,7 @@
         <v>9104259.181909196</v>
       </c>
       <c r="H631" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I631" t="inlineStr"/>
       <c r="J631" t="inlineStr"/>
@@ -24557,7 +23709,7 @@
         <v>9311238.645209197</v>
       </c>
       <c r="H632" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I632" t="inlineStr"/>
       <c r="J632" t="inlineStr"/>
@@ -24590,7 +23742,7 @@
         <v>9311238.645209197</v>
       </c>
       <c r="H633" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I633" t="inlineStr"/>
       <c r="J633" t="inlineStr"/>
@@ -24623,7 +23775,7 @@
         <v>9362815.377009196</v>
       </c>
       <c r="H634" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I634" t="inlineStr"/>
       <c r="J634" t="inlineStr"/>
@@ -24656,7 +23808,7 @@
         <v>9362815.377009196</v>
       </c>
       <c r="H635" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I635" t="inlineStr"/>
       <c r="J635" t="inlineStr"/>
@@ -24689,7 +23841,7 @@
         <v>9362815.377009196</v>
       </c>
       <c r="H636" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I636" t="inlineStr"/>
       <c r="J636" t="inlineStr"/>
@@ -24722,7 +23874,7 @@
         <v>9327029.096609196</v>
       </c>
       <c r="H637" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I637" t="inlineStr"/>
       <c r="J637" t="inlineStr"/>
@@ -24755,7 +23907,7 @@
         <v>9327029.096609196</v>
       </c>
       <c r="H638" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I638" t="inlineStr"/>
       <c r="J638" t="inlineStr"/>
@@ -24788,7 +23940,7 @@
         <v>9174871.043809196</v>
       </c>
       <c r="H639" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I639" t="inlineStr"/>
       <c r="J639" t="inlineStr"/>
@@ -24821,7 +23973,7 @@
         <v>9308219.474909196</v>
       </c>
       <c r="H640" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I640" t="inlineStr"/>
       <c r="J640" t="inlineStr"/>
@@ -24854,7 +24006,7 @@
         <v>9308219.474909196</v>
       </c>
       <c r="H641" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I641" t="inlineStr"/>
       <c r="J641" t="inlineStr"/>
@@ -24887,7 +24039,7 @@
         <v>9308219.474909196</v>
       </c>
       <c r="H642" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I642" t="inlineStr"/>
       <c r="J642" t="inlineStr"/>
@@ -24920,7 +24072,7 @@
         <v>9308207.474909196</v>
       </c>
       <c r="H643" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I643" t="inlineStr"/>
       <c r="J643" t="inlineStr"/>
@@ -24953,7 +24105,7 @@
         <v>9346503.407609196</v>
       </c>
       <c r="H644" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I644" t="inlineStr"/>
       <c r="J644" t="inlineStr"/>
@@ -24986,7 +24138,7 @@
         <v>9346503.407609196</v>
       </c>
       <c r="H645" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I645" t="inlineStr"/>
       <c r="J645" t="inlineStr"/>
@@ -25019,7 +24171,7 @@
         <v>9264167.715109196</v>
       </c>
       <c r="H646" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I646" t="inlineStr"/>
       <c r="J646" t="inlineStr"/>
@@ -25052,7 +24204,7 @@
         <v>9670424.572809195</v>
       </c>
       <c r="H647" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I647" t="inlineStr"/>
       <c r="J647" t="inlineStr"/>
@@ -25085,7 +24237,7 @@
         <v>9670424.572809195</v>
       </c>
       <c r="H648" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I648" t="inlineStr"/>
       <c r="J648" t="inlineStr"/>
@@ -25118,7 +24270,7 @@
         <v>9670424.572809195</v>
       </c>
       <c r="H649" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I649" t="inlineStr"/>
       <c r="J649" t="inlineStr"/>
@@ -25151,7 +24303,7 @@
         <v>9670413.572809195</v>
       </c>
       <c r="H650" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I650" t="inlineStr"/>
       <c r="J650" t="inlineStr"/>
@@ -25184,7 +24336,7 @@
         <v>9910442.693609195</v>
       </c>
       <c r="H651" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I651" t="inlineStr"/>
       <c r="J651" t="inlineStr"/>
@@ -25217,7 +24369,7 @@
         <v>9910442.693609195</v>
       </c>
       <c r="H652" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I652" t="inlineStr"/>
       <c r="J652" t="inlineStr"/>
@@ -25250,7 +24402,7 @@
         <v>9491450.969309194</v>
       </c>
       <c r="H653" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I653" t="inlineStr"/>
       <c r="J653" t="inlineStr"/>
@@ -25283,7 +24435,7 @@
         <v>9491450.969309194</v>
       </c>
       <c r="H654" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I654" t="inlineStr"/>
       <c r="J654" t="inlineStr"/>
@@ -25316,7 +24468,7 @@
         <v>9491450.969309194</v>
       </c>
       <c r="H655" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I655" t="inlineStr"/>
       <c r="J655" t="inlineStr"/>
@@ -25349,7 +24501,7 @@
         <v>9491450.969309194</v>
       </c>
       <c r="H656" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I656" t="inlineStr"/>
       <c r="J656" t="inlineStr"/>
@@ -25382,7 +24534,7 @@
         <v>9766307.536809195</v>
       </c>
       <c r="H657" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I657" t="inlineStr"/>
       <c r="J657" t="inlineStr"/>
@@ -25415,7 +24567,7 @@
         <v>9766307.536809195</v>
       </c>
       <c r="H658" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I658" t="inlineStr"/>
       <c r="J658" t="inlineStr"/>
@@ -25448,7 +24600,7 @@
         <v>9766307.536809195</v>
       </c>
       <c r="H659" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I659" t="inlineStr"/>
       <c r="J659" t="inlineStr"/>
@@ -25481,7 +24633,7 @@
         <v>9482023.132609194</v>
       </c>
       <c r="H660" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I660" t="inlineStr"/>
       <c r="J660" t="inlineStr"/>
@@ -25514,7 +24666,7 @@
         <v>9629746.364509195</v>
       </c>
       <c r="H661" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I661" t="inlineStr"/>
       <c r="J661" t="inlineStr"/>
@@ -25547,7 +24699,7 @@
         <v>9629746.364509195</v>
       </c>
       <c r="H662" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I662" t="inlineStr"/>
       <c r="J662" t="inlineStr"/>
@@ -25580,7 +24732,7 @@
         <v>9629746.364509195</v>
       </c>
       <c r="H663" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I663" t="inlineStr"/>
       <c r="J663" t="inlineStr"/>
@@ -25613,7 +24765,7 @@
         <v>9629746.364509195</v>
       </c>
       <c r="H664" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I664" t="inlineStr"/>
       <c r="J664" t="inlineStr"/>
@@ -25646,7 +24798,7 @@
         <v>9629746.364509195</v>
       </c>
       <c r="H665" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I665" t="inlineStr"/>
       <c r="J665" t="inlineStr"/>
@@ -25679,7 +24831,7 @@
         <v>9629735.364509195</v>
       </c>
       <c r="H666" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I666" t="inlineStr"/>
       <c r="J666" t="inlineStr"/>
@@ -25712,7 +24864,7 @@
         <v>9842515.291109195</v>
       </c>
       <c r="H667" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I667" t="inlineStr"/>
       <c r="J667" t="inlineStr"/>
@@ -25745,7 +24897,7 @@
         <v>9010929.123809194</v>
       </c>
       <c r="H668" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I668" t="inlineStr"/>
       <c r="J668" t="inlineStr"/>
@@ -25778,7 +24930,7 @@
         <v>9010915.123809194</v>
       </c>
       <c r="H669" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I669" t="inlineStr"/>
       <c r="J669" t="inlineStr"/>
@@ -25811,7 +24963,7 @@
         <v>9287959.543109193</v>
       </c>
       <c r="H670" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I670" t="inlineStr"/>
       <c r="J670" t="inlineStr"/>
@@ -25844,7 +24996,7 @@
         <v>9287946.543109193</v>
       </c>
       <c r="H671" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I671" t="inlineStr"/>
       <c r="J671" t="inlineStr"/>
@@ -25877,7 +25029,7 @@
         <v>9334136.188809194</v>
       </c>
       <c r="H672" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I672" t="inlineStr"/>
       <c r="J672" t="inlineStr"/>
@@ -25910,7 +25062,7 @@
         <v>9334136.188809194</v>
       </c>
       <c r="H673" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I673" t="inlineStr"/>
       <c r="J673" t="inlineStr"/>
@@ -25943,7 +25095,7 @@
         <v>9182546.435009195</v>
       </c>
       <c r="H674" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I674" t="inlineStr"/>
       <c r="J674" t="inlineStr"/>
@@ -25976,7 +25128,7 @@
         <v>9391202.631109195</v>
       </c>
       <c r="H675" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I675" t="inlineStr"/>
       <c r="J675" t="inlineStr"/>
@@ -26009,7 +25161,7 @@
         <v>9391202.631109195</v>
       </c>
       <c r="H676" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I676" t="inlineStr"/>
       <c r="J676" t="inlineStr"/>
@@ -26042,7 +25194,7 @@
         <v>9391202.631109195</v>
       </c>
       <c r="H677" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I677" t="inlineStr"/>
       <c r="J677" t="inlineStr"/>
@@ -26075,7 +25227,7 @@
         <v>9391189.631109195</v>
       </c>
       <c r="H678" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I678" t="inlineStr"/>
       <c r="J678" t="inlineStr"/>
@@ -26108,7 +25260,7 @@
         <v>9664611.607309194</v>
       </c>
       <c r="H679" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I679" t="inlineStr"/>
       <c r="J679" t="inlineStr"/>
@@ -26141,7 +25293,7 @@
         <v>9645516.073409194</v>
       </c>
       <c r="H680" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I680" t="inlineStr"/>
       <c r="J680" t="inlineStr"/>
@@ -26174,7 +25326,7 @@
         <v>9762052.683009194</v>
       </c>
       <c r="H681" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I681" t="inlineStr"/>
       <c r="J681" t="inlineStr"/>
@@ -26207,7 +25359,7 @@
         <v>9850449.193909194</v>
       </c>
       <c r="H682" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I682" t="inlineStr"/>
       <c r="J682" t="inlineStr"/>
@@ -26240,7 +25392,7 @@
         <v>9850449.193909194</v>
       </c>
       <c r="H683" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I683" t="inlineStr"/>
       <c r="J683" t="inlineStr"/>
@@ -26273,7 +25425,7 @@
         <v>9850449.193909194</v>
       </c>
       <c r="H684" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I684" t="inlineStr"/>
       <c r="J684" t="inlineStr"/>
@@ -26306,7 +25458,7 @@
         <v>9850449.193909194</v>
       </c>
       <c r="H685" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I685" t="inlineStr"/>
       <c r="J685" t="inlineStr"/>
@@ -26339,7 +25491,7 @@
         <v>9850449.193909194</v>
       </c>
       <c r="H686" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I686" t="inlineStr"/>
       <c r="J686" t="inlineStr"/>
@@ -26372,7 +25524,7 @@
         <v>9850449.193909194</v>
       </c>
       <c r="H687" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I687" t="inlineStr"/>
       <c r="J687" t="inlineStr"/>
@@ -26405,7 +25557,7 @@
         <v>9850435.193909194</v>
       </c>
       <c r="H688" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I688" t="inlineStr"/>
       <c r="J688" t="inlineStr"/>
@@ -26438,7 +25590,7 @@
         <v>10164019.54500919</v>
       </c>
       <c r="H689" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I689" t="inlineStr"/>
       <c r="J689" t="inlineStr"/>
@@ -26471,7 +25623,7 @@
         <v>10164019.54500919</v>
       </c>
       <c r="H690" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I690" t="inlineStr"/>
       <c r="J690" t="inlineStr"/>
@@ -26504,7 +25656,7 @@
         <v>9931750.719409194</v>
       </c>
       <c r="H691" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I691" t="inlineStr"/>
       <c r="J691" t="inlineStr"/>
@@ -26537,7 +25689,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H692" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I692" t="inlineStr"/>
       <c r="J692" t="inlineStr"/>
@@ -26570,7 +25722,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H693" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I693" t="inlineStr"/>
       <c r="J693" t="inlineStr"/>
@@ -26603,7 +25755,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H694" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I694" t="inlineStr"/>
       <c r="J694" t="inlineStr"/>
@@ -26636,7 +25788,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H695" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I695" t="inlineStr"/>
       <c r="J695" t="inlineStr"/>
@@ -26669,7 +25821,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H696" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I696" t="inlineStr"/>
       <c r="J696" t="inlineStr"/>
@@ -26702,7 +25854,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H697" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I697" t="inlineStr"/>
       <c r="J697" t="inlineStr"/>
@@ -26735,7 +25887,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H698" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I698" t="inlineStr"/>
       <c r="J698" t="inlineStr"/>
@@ -26768,7 +25920,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H699" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I699" t="inlineStr"/>
       <c r="J699" t="inlineStr"/>
@@ -26801,7 +25953,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H700" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I700" t="inlineStr"/>
       <c r="J700" t="inlineStr"/>
@@ -26834,7 +25986,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H701" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I701" t="inlineStr"/>
       <c r="J701" t="inlineStr"/>
@@ -26867,7 +26019,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H702" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I702" t="inlineStr"/>
       <c r="J702" t="inlineStr"/>
@@ -26900,7 +26052,7 @@
         <v>10032782.42780919</v>
       </c>
       <c r="H703" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I703" t="inlineStr"/>
       <c r="J703" t="inlineStr"/>
@@ -26933,7 +26085,7 @@
         <v>10032769.42780919</v>
       </c>
       <c r="H704" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I704" t="inlineStr"/>
       <c r="J704" t="inlineStr"/>
@@ -26966,7 +26118,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H705" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I705" t="inlineStr"/>
       <c r="J705" t="inlineStr"/>
@@ -26999,7 +26151,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H706" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I706" t="inlineStr"/>
       <c r="J706" t="inlineStr"/>
@@ -27032,7 +26184,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H707" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I707" t="inlineStr"/>
       <c r="J707" t="inlineStr"/>
@@ -27065,7 +26217,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H708" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I708" t="inlineStr"/>
       <c r="J708" t="inlineStr"/>
@@ -27098,7 +26250,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H709" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I709" t="inlineStr"/>
       <c r="J709" t="inlineStr"/>
@@ -27131,7 +26283,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H710" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I710" t="inlineStr"/>
       <c r="J710" t="inlineStr"/>
@@ -27164,7 +26316,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H711" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I711" t="inlineStr"/>
       <c r="J711" t="inlineStr"/>
@@ -27197,7 +26349,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H712" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I712" t="inlineStr"/>
       <c r="J712" t="inlineStr"/>
@@ -27230,7 +26382,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H713" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I713" t="inlineStr"/>
       <c r="J713" t="inlineStr"/>
@@ -27263,7 +26415,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H714" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I714" t="inlineStr"/>
       <c r="J714" t="inlineStr"/>
@@ -27296,7 +26448,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H715" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I715" t="inlineStr"/>
       <c r="J715" t="inlineStr"/>
@@ -27329,7 +26481,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H716" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I716" t="inlineStr"/>
       <c r="J716" t="inlineStr"/>
@@ -27362,7 +26514,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H717" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I717" t="inlineStr"/>
       <c r="J717" t="inlineStr"/>
@@ -27395,7 +26547,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H718" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I718" t="inlineStr"/>
       <c r="J718" t="inlineStr"/>
@@ -27428,7 +26580,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H719" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I719" t="inlineStr"/>
       <c r="J719" t="inlineStr"/>
@@ -27461,7 +26613,7 @@
         <v>10243568.69430919</v>
       </c>
       <c r="H720" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I720" t="inlineStr"/>
       <c r="J720" t="inlineStr"/>
@@ -27494,7 +26646,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H721" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I721" t="inlineStr"/>
       <c r="J721" t="inlineStr"/>
@@ -27527,7 +26679,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H722" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I722" t="inlineStr"/>
       <c r="J722" t="inlineStr"/>
@@ -27560,7 +26712,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H723" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I723" t="inlineStr"/>
       <c r="J723" t="inlineStr"/>
@@ -27593,7 +26745,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H724" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I724" t="inlineStr"/>
       <c r="J724" t="inlineStr"/>
@@ -27626,7 +26778,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H725" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I725" t="inlineStr"/>
       <c r="J725" t="inlineStr"/>
@@ -27659,7 +26811,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H726" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I726" t="inlineStr"/>
       <c r="J726" t="inlineStr"/>
@@ -27692,7 +26844,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H727" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I727" t="inlineStr"/>
       <c r="J727" t="inlineStr"/>
@@ -27725,7 +26877,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H728" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I728" t="inlineStr"/>
       <c r="J728" t="inlineStr"/>
@@ -27758,7 +26910,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H729" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I729" t="inlineStr"/>
       <c r="J729" t="inlineStr"/>
@@ -27791,7 +26943,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H730" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I730" t="inlineStr"/>
       <c r="J730" t="inlineStr"/>
@@ -27824,7 +26976,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H731" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I731" t="inlineStr"/>
       <c r="J731" t="inlineStr"/>
@@ -27857,7 +27009,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H732" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I732" t="inlineStr"/>
       <c r="J732" t="inlineStr"/>
@@ -27890,7 +27042,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H733" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I733" t="inlineStr"/>
       <c r="J733" t="inlineStr"/>
@@ -27923,7 +27075,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H734" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I734" t="inlineStr"/>
       <c r="J734" t="inlineStr"/>
@@ -27956,7 +27108,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H735" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I735" t="inlineStr"/>
       <c r="J735" t="inlineStr"/>
@@ -27989,7 +27141,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H736" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I736" t="inlineStr"/>
       <c r="J736" t="inlineStr"/>
@@ -28022,7 +27174,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H737" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I737" t="inlineStr"/>
       <c r="J737" t="inlineStr"/>
@@ -28055,7 +27207,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H738" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I738" t="inlineStr"/>
       <c r="J738" t="inlineStr"/>
@@ -28088,7 +27240,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H739" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I739" t="inlineStr"/>
       <c r="J739" t="inlineStr"/>
@@ -28121,7 +27273,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H740" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I740" t="inlineStr"/>
       <c r="J740" t="inlineStr"/>
@@ -28154,7 +27306,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H741" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I741" t="inlineStr"/>
       <c r="J741" t="inlineStr"/>
@@ -28187,7 +27339,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H742" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I742" t="inlineStr"/>
       <c r="J742" t="inlineStr"/>
@@ -28220,7 +27372,7 @@
         <v>10116451.12020919</v>
       </c>
       <c r="H743" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I743" t="inlineStr"/>
       <c r="J743" t="inlineStr"/>
@@ -28253,7 +27405,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H744" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I744" t="inlineStr"/>
       <c r="J744" t="inlineStr"/>
@@ -28286,7 +27438,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H745" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I745" t="inlineStr"/>
       <c r="J745" t="inlineStr"/>
@@ -28319,7 +27471,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H746" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I746" t="inlineStr"/>
       <c r="J746" t="inlineStr"/>
@@ -28352,7 +27504,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H747" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I747" t="inlineStr"/>
       <c r="J747" t="inlineStr"/>
@@ -28385,7 +27537,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H748" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I748" t="inlineStr"/>
       <c r="J748" t="inlineStr"/>
@@ -28418,7 +27570,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H749" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I749" t="inlineStr"/>
       <c r="J749" t="inlineStr"/>
@@ -28451,7 +27603,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H750" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I750" t="inlineStr"/>
       <c r="J750" t="inlineStr"/>
@@ -28484,7 +27636,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H751" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I751" t="inlineStr"/>
       <c r="J751" t="inlineStr"/>
@@ -28517,7 +27669,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H752" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I752" t="inlineStr"/>
       <c r="J752" t="inlineStr"/>
@@ -28550,7 +27702,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H753" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I753" t="inlineStr"/>
       <c r="J753" t="inlineStr"/>
@@ -28583,7 +27735,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H754" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I754" t="inlineStr"/>
       <c r="J754" t="inlineStr"/>
@@ -28616,7 +27768,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H755" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I755" t="inlineStr"/>
       <c r="J755" t="inlineStr"/>
@@ -28649,7 +27801,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H756" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I756" t="inlineStr"/>
       <c r="J756" t="inlineStr"/>
@@ -28682,7 +27834,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H757" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I757" t="inlineStr"/>
       <c r="J757" t="inlineStr"/>
@@ -28715,7 +27867,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H758" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I758" t="inlineStr"/>
       <c r="J758" t="inlineStr"/>
@@ -28748,7 +27900,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H759" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I759" t="inlineStr"/>
       <c r="J759" t="inlineStr"/>
@@ -28781,7 +27933,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H760" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I760" t="inlineStr"/>
       <c r="J760" t="inlineStr"/>
@@ -28814,7 +27966,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H761" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I761" t="inlineStr"/>
       <c r="J761" t="inlineStr"/>
@@ -28847,7 +27999,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H762" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I762" t="inlineStr"/>
       <c r="J762" t="inlineStr"/>
@@ -28880,7 +28032,7 @@
         <v>9999758.548709193</v>
       </c>
       <c r="H763" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I763" t="inlineStr"/>
       <c r="J763" t="inlineStr"/>
@@ -28913,7 +28065,7 @@
         <v>9792279.465609193</v>
       </c>
       <c r="H764" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I764" t="inlineStr"/>
       <c r="J764" t="inlineStr"/>
@@ -28946,7 +28098,7 @@
         <v>9792279.465609193</v>
       </c>
       <c r="H765" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I765" t="inlineStr"/>
       <c r="J765" t="inlineStr"/>
@@ -28979,7 +28131,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H766" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I766" t="inlineStr"/>
       <c r="J766" t="inlineStr"/>
@@ -29012,7 +28164,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H767" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I767" t="inlineStr"/>
       <c r="J767" t="inlineStr"/>
@@ -29045,7 +28197,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H768" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I768" t="inlineStr"/>
       <c r="J768" t="inlineStr"/>
@@ -29078,7 +28230,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H769" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I769" t="inlineStr"/>
       <c r="J769" t="inlineStr"/>
@@ -29111,7 +28263,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H770" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I770" t="inlineStr"/>
       <c r="J770" t="inlineStr"/>
@@ -29144,7 +28296,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H771" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I771" t="inlineStr"/>
       <c r="J771" t="inlineStr"/>
@@ -29177,7 +28329,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H772" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I772" t="inlineStr"/>
       <c r="J772" t="inlineStr"/>
@@ -29210,7 +28362,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H773" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I773" t="inlineStr"/>
       <c r="J773" t="inlineStr"/>
@@ -29243,7 +28395,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H774" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I774" t="inlineStr"/>
       <c r="J774" t="inlineStr"/>
@@ -29276,7 +28428,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H775" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I775" t="inlineStr"/>
       <c r="J775" t="inlineStr"/>
@@ -29309,7 +28461,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H776" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I776" t="inlineStr"/>
       <c r="J776" t="inlineStr"/>
@@ -29342,7 +28494,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H777" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I777" t="inlineStr"/>
       <c r="J777" t="inlineStr"/>
@@ -29375,7 +28527,7 @@
         <v>10031526.46890919</v>
       </c>
       <c r="H778" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I778" t="inlineStr"/>
       <c r="J778" t="inlineStr"/>
@@ -29408,7 +28560,7 @@
         <v>9696320.045309193</v>
       </c>
       <c r="H779" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I779" t="inlineStr"/>
       <c r="J779" t="inlineStr"/>
@@ -29441,7 +28593,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H780" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I780" t="inlineStr"/>
       <c r="J780" t="inlineStr"/>
@@ -29474,7 +28626,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H781" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I781" t="inlineStr"/>
       <c r="J781" t="inlineStr"/>
@@ -29507,7 +28659,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H782" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I782" t="inlineStr"/>
       <c r="J782" t="inlineStr"/>
@@ -29540,7 +28692,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H783" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I783" t="inlineStr"/>
       <c r="J783" t="inlineStr"/>
@@ -29573,7 +28725,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H784" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I784" t="inlineStr"/>
       <c r="J784" t="inlineStr"/>
@@ -29606,7 +28758,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H785" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I785" t="inlineStr"/>
       <c r="J785" t="inlineStr"/>
@@ -29639,7 +28791,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H786" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I786" t="inlineStr"/>
       <c r="J786" t="inlineStr"/>
@@ -29672,7 +28824,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H787" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I787" t="inlineStr"/>
       <c r="J787" t="inlineStr"/>
@@ -29705,7 +28857,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H788" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I788" t="inlineStr"/>
       <c r="J788" t="inlineStr"/>
@@ -29738,7 +28890,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H789" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I789" t="inlineStr"/>
       <c r="J789" t="inlineStr"/>
@@ -29771,7 +28923,7 @@
         <v>10078909.55300919</v>
       </c>
       <c r="H790" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I790" t="inlineStr"/>
       <c r="J790" t="inlineStr"/>
@@ -29804,7 +28956,7 @@
         <v>10360570.73960919</v>
       </c>
       <c r="H791" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I791" t="inlineStr"/>
       <c r="J791" t="inlineStr"/>
@@ -29837,7 +28989,7 @@
         <v>10360570.73960919</v>
       </c>
       <c r="H792" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I792" t="inlineStr"/>
       <c r="J792" t="inlineStr"/>
@@ -29870,7 +29022,7 @@
         <v>10360570.73960919</v>
       </c>
       <c r="H793" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I793" t="inlineStr"/>
       <c r="J793" t="inlineStr"/>
@@ -29903,7 +29055,7 @@
         <v>10360570.73960919</v>
       </c>
       <c r="H794" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I794" t="inlineStr"/>
       <c r="J794" t="inlineStr"/>
@@ -29936,7 +29088,7 @@
         <v>10360570.73960919</v>
       </c>
       <c r="H795" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I795" t="inlineStr"/>
       <c r="J795" t="inlineStr"/>
@@ -29969,7 +29121,7 @@
         <v>10360570.73960919</v>
       </c>
       <c r="H796" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I796" t="inlineStr"/>
       <c r="J796" t="inlineStr"/>
@@ -30002,7 +29154,7 @@
         <v>10149026.10630919</v>
       </c>
       <c r="H797" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I797" t="inlineStr"/>
       <c r="J797" t="inlineStr"/>
@@ -30035,7 +29187,7 @@
         <v>10149026.10630919</v>
       </c>
       <c r="H798" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I798" t="inlineStr"/>
       <c r="J798" t="inlineStr"/>
@@ -30068,7 +29220,7 @@
         <v>9197147.621909192</v>
       </c>
       <c r="H799" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I799" t="inlineStr"/>
       <c r="J799" t="inlineStr"/>
@@ -30101,7 +29253,7 @@
         <v>9197147.621909192</v>
       </c>
       <c r="H800" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I800" t="inlineStr"/>
       <c r="J800" t="inlineStr"/>
@@ -30134,7 +29286,7 @@
         <v>9171945.004909191</v>
       </c>
       <c r="H801" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I801" t="inlineStr"/>
       <c r="J801" t="inlineStr"/>
@@ -30167,7 +29319,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H802" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I802" t="inlineStr"/>
       <c r="J802" t="inlineStr"/>
@@ -30200,7 +29352,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H803" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I803" t="inlineStr"/>
       <c r="J803" t="inlineStr"/>
@@ -30233,7 +29385,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H804" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I804" t="inlineStr"/>
       <c r="J804" t="inlineStr"/>
@@ -30266,7 +29418,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H805" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I805" t="inlineStr"/>
       <c r="J805" t="inlineStr"/>
@@ -30299,7 +29451,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H806" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I806" t="inlineStr"/>
       <c r="J806" t="inlineStr"/>
@@ -30332,7 +29484,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H807" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I807" t="inlineStr"/>
       <c r="J807" t="inlineStr"/>
@@ -30365,7 +29517,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H808" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I808" t="inlineStr"/>
       <c r="J808" t="inlineStr"/>
@@ -30398,7 +29550,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H809" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I809" t="inlineStr"/>
       <c r="J809" t="inlineStr"/>
@@ -30431,7 +29583,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H810" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I810" t="inlineStr"/>
       <c r="J810" t="inlineStr"/>
@@ -30464,7 +29616,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H811" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I811" t="inlineStr"/>
       <c r="J811" t="inlineStr"/>
@@ -30497,7 +29649,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H812" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I812" t="inlineStr"/>
       <c r="J812" t="inlineStr"/>
@@ -30530,7 +29682,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H813" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I813" t="inlineStr"/>
       <c r="J813" t="inlineStr"/>
@@ -30563,7 +29715,7 @@
         <v>9294416.244009191</v>
       </c>
       <c r="H814" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I814" t="inlineStr"/>
       <c r="J814" t="inlineStr"/>
@@ -30596,7 +29748,7 @@
         <v>9244636.241409192</v>
       </c>
       <c r="H815" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I815" t="inlineStr"/>
       <c r="J815" t="inlineStr"/>
@@ -30629,7 +29781,7 @@
         <v>9244636.241409192</v>
       </c>
       <c r="H816" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I816" t="inlineStr"/>
       <c r="J816" t="inlineStr"/>
@@ -30695,7 +29847,7 @@
         <v>9244636.241409192</v>
       </c>
       <c r="H818" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I818" t="inlineStr"/>
       <c r="J818" t="inlineStr"/>
@@ -30728,7 +29880,7 @@
         <v>9012072.725409191</v>
       </c>
       <c r="H819" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I819" t="inlineStr"/>
       <c r="J819" t="inlineStr"/>
@@ -30761,7 +29913,7 @@
         <v>7951173.627909191</v>
       </c>
       <c r="H820" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I820" t="inlineStr"/>
       <c r="J820" t="inlineStr"/>
@@ -37691,7 +36843,7 @@
         <v>10247760.47850919</v>
       </c>
       <c r="H1030" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1030" t="inlineStr"/>
       <c r="J1030" t="inlineStr"/>
@@ -37757,7 +36909,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1032" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1032" t="inlineStr"/>
       <c r="J1032" t="inlineStr"/>
@@ -37955,7 +37107,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1038" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1038" t="inlineStr"/>
       <c r="J1038" t="inlineStr"/>
@@ -37988,7 +37140,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1039" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1039" t="inlineStr"/>
       <c r="J1039" t="inlineStr"/>
@@ -38087,7 +37239,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1042" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1042" t="inlineStr"/>
       <c r="J1042" t="inlineStr"/>
@@ -38120,7 +37272,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1043" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1043" t="inlineStr"/>
       <c r="J1043" t="inlineStr"/>
@@ -38153,7 +37305,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1044" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1044" t="inlineStr"/>
       <c r="J1044" t="inlineStr"/>
@@ -38186,7 +37338,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1045" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1045" t="inlineStr"/>
       <c r="J1045" t="inlineStr"/>
@@ -38219,7 +37371,7 @@
         <v>10241475.73920919</v>
       </c>
       <c r="H1046" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1046" t="inlineStr"/>
       <c r="J1046" t="inlineStr"/>
@@ -38318,7 +37470,7 @@
         <v>9995119.921409186</v>
       </c>
       <c r="H1049" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1049" t="inlineStr"/>
       <c r="J1049" t="inlineStr"/>
@@ -38384,7 +37536,7 @@
         <v>9995119.921409186</v>
       </c>
       <c r="H1051" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I1051" t="inlineStr"/>
       <c r="J1051" t="inlineStr"/>
@@ -38923,6 +38075,6 @@
       <c r="M1067" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2019-10-27 BackTest CON.xlsx
+++ b/BackTest/2019-10-27 BackTest CON.xlsx
@@ -1093,9 +1093,11 @@
         <v>2350932.808</v>
       </c>
       <c r="H18" t="n">
-        <v>0</v>
-      </c>
-      <c r="I18" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I18" t="n">
+        <v>5.34</v>
+      </c>
       <c r="J18" t="n">
         <v>5.32</v>
       </c>
@@ -8074,11 +8076,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H197" t="n">
-        <v>1</v>
-      </c>
-      <c r="I197" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I197" t="inlineStr"/>
       <c r="J197" t="n">
         <v>5.32</v>
       </c>
@@ -8115,11 +8115,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H198" t="n">
-        <v>1</v>
-      </c>
-      <c r="I198" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I198" t="inlineStr"/>
       <c r="J198" t="n">
         <v>5.32</v>
       </c>
@@ -8156,11 +8154,9 @@
         <v>2710045.3818</v>
       </c>
       <c r="H199" t="n">
-        <v>1</v>
-      </c>
-      <c r="I199" t="n">
-        <v>5.34</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I199" t="inlineStr"/>
       <c r="J199" t="n">
         <v>5.32</v>
       </c>
@@ -12526,11 +12522,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H311" t="n">
-        <v>1</v>
-      </c>
-      <c r="I311" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I311" t="inlineStr"/>
       <c r="J311" t="n">
         <v>5.32</v>
       </c>
@@ -12567,11 +12561,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H312" t="n">
-        <v>1</v>
-      </c>
-      <c r="I312" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I312" t="inlineStr"/>
       <c r="J312" t="n">
         <v>5.32</v>
       </c>
@@ -13193,11 +13185,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H328" t="n">
-        <v>1</v>
-      </c>
-      <c r="I328" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I328" t="inlineStr"/>
       <c r="J328" t="n">
         <v>5.32</v>
       </c>
@@ -14209,11 +14199,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H354" t="n">
-        <v>1</v>
-      </c>
-      <c r="I354" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
       <c r="J354" t="n">
         <v>5.32</v>
       </c>
@@ -14367,11 +14355,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H358" t="n">
-        <v>1</v>
-      </c>
-      <c r="I358" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
       <c r="J358" t="n">
         <v>5.32</v>
       </c>
@@ -14447,11 +14433,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
       <c r="J360" t="n">
         <v>5.32</v>
       </c>
@@ -14527,11 +14511,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H362" t="n">
-        <v>1</v>
-      </c>
-      <c r="I362" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
       <c r="J362" t="n">
         <v>5.32</v>
       </c>
@@ -14607,11 +14589,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H364" t="n">
-        <v>1</v>
-      </c>
-      <c r="I364" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
       <c r="J364" t="n">
         <v>5.32</v>
       </c>
@@ -14687,11 +14667,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H366" t="n">
-        <v>1</v>
-      </c>
-      <c r="I366" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
       <c r="J366" t="n">
         <v>5.32</v>
       </c>
@@ -14728,11 +14706,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
       <c r="J367" t="n">
         <v>5.32</v>
       </c>
@@ -14769,11 +14745,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
       <c r="J368" t="n">
         <v>5.32</v>
       </c>
@@ -14810,11 +14784,9 @@
         <v>2783674.9994</v>
       </c>
       <c r="H369" t="n">
-        <v>1</v>
-      </c>
-      <c r="I369" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
         <v>5.32</v>
       </c>
@@ -14890,11 +14862,9 @@
         <v>3803875.7338</v>
       </c>
       <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>5.33</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
       <c r="J371" t="n">
         <v>5.32</v>
       </c>
@@ -15477,7 +15447,7 @@
         <v>8007162.080141988</v>
       </c>
       <c r="H386" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I386" t="inlineStr"/>
       <c r="J386" t="n">
@@ -15485,13 +15455,15 @@
       </c>
       <c r="K386" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
       <c r="L386" t="n">
-        <v>1</v>
-      </c>
-      <c r="M386" t="inlineStr"/>
+        <v>1.05515037593985</v>
+      </c>
+      <c r="M386" t="n">
+        <v>1.001883239171375</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
@@ -15519,14 +15491,8 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K387" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J387" t="inlineStr"/>
+      <c r="K387" t="inlineStr"/>
       <c r="L387" t="n">
         <v>1</v>
       </c>
@@ -15558,14 +15524,8 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K388" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J388" t="inlineStr"/>
+      <c r="K388" t="inlineStr"/>
       <c r="L388" t="n">
         <v>1</v>
       </c>
@@ -15597,14 +15557,8 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K389" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J389" t="inlineStr"/>
+      <c r="K389" t="inlineStr"/>
       <c r="L389" t="n">
         <v>1</v>
       </c>
@@ -15636,14 +15590,8 @@
         <v>0</v>
       </c>
       <c r="I390" t="inlineStr"/>
-      <c r="J390" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K390" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J390" t="inlineStr"/>
+      <c r="K390" t="inlineStr"/>
       <c r="L390" t="n">
         <v>1</v>
       </c>
@@ -15675,14 +15623,8 @@
         <v>0</v>
       </c>
       <c r="I391" t="inlineStr"/>
-      <c r="J391" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K391" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J391" t="inlineStr"/>
+      <c r="K391" t="inlineStr"/>
       <c r="L391" t="n">
         <v>1</v>
       </c>
@@ -15714,14 +15656,8 @@
         <v>0</v>
       </c>
       <c r="I392" t="inlineStr"/>
-      <c r="J392" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K392" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J392" t="inlineStr"/>
+      <c r="K392" t="inlineStr"/>
       <c r="L392" t="n">
         <v>1</v>
       </c>
@@ -15753,14 +15689,8 @@
         <v>0</v>
       </c>
       <c r="I393" t="inlineStr"/>
-      <c r="J393" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K393" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J393" t="inlineStr"/>
+      <c r="K393" t="inlineStr"/>
       <c r="L393" t="n">
         <v>1</v>
       </c>
@@ -15792,14 +15722,8 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K394" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J394" t="inlineStr"/>
+      <c r="K394" t="inlineStr"/>
       <c r="L394" t="n">
         <v>1</v>
       </c>
@@ -15831,14 +15755,8 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K395" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J395" t="inlineStr"/>
+      <c r="K395" t="inlineStr"/>
       <c r="L395" t="n">
         <v>1</v>
       </c>
@@ -15870,14 +15788,8 @@
         <v>0</v>
       </c>
       <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K396" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J396" t="inlineStr"/>
+      <c r="K396" t="inlineStr"/>
       <c r="L396" t="n">
         <v>1</v>
       </c>
@@ -15909,14 +15821,8 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K397" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J397" t="inlineStr"/>
+      <c r="K397" t="inlineStr"/>
       <c r="L397" t="n">
         <v>1</v>
       </c>
@@ -15948,14 +15854,8 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K398" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J398" t="inlineStr"/>
+      <c r="K398" t="inlineStr"/>
       <c r="L398" t="n">
         <v>1</v>
       </c>
@@ -15987,14 +15887,8 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K399" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J399" t="inlineStr"/>
+      <c r="K399" t="inlineStr"/>
       <c r="L399" t="n">
         <v>1</v>
       </c>
@@ -16026,14 +15920,8 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K400" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J400" t="inlineStr"/>
+      <c r="K400" t="inlineStr"/>
       <c r="L400" t="n">
         <v>1</v>
       </c>
@@ -16065,14 +15953,8 @@
         <v>0</v>
       </c>
       <c r="I401" t="inlineStr"/>
-      <c r="J401" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K401" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J401" t="inlineStr"/>
+      <c r="K401" t="inlineStr"/>
       <c r="L401" t="n">
         <v>1</v>
       </c>
@@ -16104,14 +15986,8 @@
         <v>0</v>
       </c>
       <c r="I402" t="inlineStr"/>
-      <c r="J402" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K402" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J402" t="inlineStr"/>
+      <c r="K402" t="inlineStr"/>
       <c r="L402" t="n">
         <v>1</v>
       </c>
@@ -16143,14 +16019,8 @@
         <v>0</v>
       </c>
       <c r="I403" t="inlineStr"/>
-      <c r="J403" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K403" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J403" t="inlineStr"/>
+      <c r="K403" t="inlineStr"/>
       <c r="L403" t="n">
         <v>1</v>
       </c>
@@ -16179,19 +16049,13 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H404" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I404" t="inlineStr"/>
-      <c r="J404" t="n">
-        <v>5.32</v>
-      </c>
-      <c r="K404" t="inlineStr">
-        <is>
-          <t>매도 체결</t>
-        </is>
-      </c>
+      <c r="J404" t="inlineStr"/>
+      <c r="K404" t="inlineStr"/>
       <c r="L404" t="n">
-        <v>1.025075187969925</v>
+        <v>1</v>
       </c>
       <c r="M404" t="inlineStr"/>
     </row>
@@ -16218,7 +16082,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H405" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
@@ -16251,7 +16115,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H406" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="inlineStr"/>
@@ -16284,7 +16148,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H407" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="inlineStr"/>
@@ -16317,7 +16181,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H408" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="inlineStr"/>
@@ -16350,7 +16214,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H409" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="inlineStr"/>
@@ -16383,7 +16247,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H410" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="inlineStr"/>
@@ -16416,7 +16280,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H411" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="inlineStr"/>
@@ -16449,7 +16313,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H412" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="inlineStr"/>
@@ -16482,7 +16346,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H413" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="inlineStr"/>
@@ -16515,7 +16379,7 @@
         <v>6641027.85234199</v>
       </c>
       <c r="H414" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="inlineStr"/>
@@ -17538,7 +17402,7 @@
         <v>8353966.957841991</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="inlineStr"/>
@@ -17571,7 +17435,7 @@
         <v>8353966.957841991</v>
       </c>
       <c r="H446" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="inlineStr"/>
@@ -17604,7 +17468,7 @@
         <v>8353966.957841991</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="inlineStr"/>
@@ -17637,7 +17501,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I448" t="inlineStr"/>
       <c r="J448" t="inlineStr"/>
@@ -17670,7 +17534,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I449" t="inlineStr"/>
       <c r="J449" t="inlineStr"/>
@@ -17703,7 +17567,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I450" t="inlineStr"/>
       <c r="J450" t="inlineStr"/>
@@ -17736,7 +17600,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I451" t="inlineStr"/>
       <c r="J451" t="inlineStr"/>
@@ -17769,7 +17633,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I452" t="inlineStr"/>
       <c r="J452" t="inlineStr"/>
@@ -17802,7 +17666,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
@@ -17835,7 +17699,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
@@ -17868,7 +17732,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I455" t="inlineStr"/>
       <c r="J455" t="inlineStr"/>
@@ -17901,7 +17765,7 @@
         <v>8344683.520741992</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I456" t="inlineStr"/>
       <c r="J456" t="inlineStr"/>
@@ -17934,7 +17798,7 @@
         <v>8076954.982141992</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
       <c r="J457" t="inlineStr"/>
@@ -17967,7 +17831,7 @@
         <v>8076954.982141992</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="inlineStr"/>
@@ -18000,7 +17864,7 @@
         <v>7888655.882141992</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I459" t="inlineStr"/>
       <c r="J459" t="inlineStr"/>
@@ -18033,7 +17897,7 @@
         <v>7428899.653641992</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
       <c r="J460" t="inlineStr"/>
@@ -18066,7 +17930,7 @@
         <v>7428899.653641992</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
       <c r="J461" t="inlineStr"/>
@@ -23148,7 +23012,7 @@
         <v>9328230.343809197</v>
       </c>
       <c r="H615" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I615" t="inlineStr"/>
       <c r="J615" t="inlineStr"/>
@@ -23214,7 +23078,7 @@
         <v>9327227.334009197</v>
       </c>
       <c r="H617" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I617" t="inlineStr"/>
       <c r="J617" t="inlineStr"/>
@@ -23280,7 +23144,7 @@
         <v>9045602.919809196</v>
       </c>
       <c r="H619" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I619" t="inlineStr"/>
       <c r="J619" t="inlineStr"/>
